--- a/Output Files/KC 2025-26 Applications KPI as of June 02, 2025.xlsx
+++ b/Output Files/KC 2025-26 Applications KPI as of June 02, 2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -852,6 +852,36 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -920,51 +950,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -989,6 +974,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1029,7 +1029,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,12 +1235,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1249,6 +1243,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1265,32 +1265,11 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="33" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
@@ -1312,30 +1291,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,6 +1309,180 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1368,30 +1497,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
@@ -1411,111 +1516,6 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1528,12 +1528,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="47" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
@@ -1543,27 +1543,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="49" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="51" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="50" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="52" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <protection locked="0" hidden="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1584,15 +1584,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="55" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
@@ -1616,7 +1616,7 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
@@ -2057,7 +2057,7 @@
     </row>
     <row r="6" ht="33.75" customHeight="1" s="53">
       <c r="B6" s="63" t="n"/>
-      <c r="C6" s="69" t="inlineStr">
+      <c r="C6" s="67" t="inlineStr">
         <is>
           <t xml:space="preserve"> Applications Update (2025-26)</t>
         </is>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="10" ht="15" customHeight="1" s="53">
       <c r="B10" s="63" t="n"/>
-      <c r="C10" s="70" t="inlineStr">
+      <c r="C10" s="68" t="inlineStr">
         <is>
           <t>Important Note: Please note All data provided as per 2025-26 unofficial to date as of June 02, 2025</t>
         </is>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1" s="53">
       <c r="B14" s="63" t="n"/>
-      <c r="C14" s="70" t="inlineStr">
+      <c r="C14" s="68" t="inlineStr">
         <is>
           <t>For any additional Inquiries please contact us at institutional.research@keyano.ca or get in touch with the team directly.</t>
         </is>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="18" ht="15" customHeight="1" s="53">
       <c r="B18" s="63" t="n"/>
-      <c r="C18" s="70" t="inlineStr">
+      <c r="C18" s="68" t="inlineStr">
         <is>
           <t>Instruction: Click on the required data table to move to the table worksheet.</t>
         </is>
@@ -2231,12 +2231,12 @@
     </row>
     <row r="22">
       <c r="B22" s="63" t="n"/>
-      <c r="C22" s="71" t="inlineStr">
+      <c r="C22" s="69" t="inlineStr">
         <is>
           <t>Data Tables</t>
         </is>
       </c>
-      <c r="D22" s="71" t="inlineStr">
+      <c r="D22" s="69" t="inlineStr">
         <is>
           <t>Table Summary</t>
         </is>
@@ -2272,7 +2272,7 @@
           <t>Glossary</t>
         </is>
       </c>
-      <c r="D24" s="67" t="inlineStr">
+      <c r="D24" s="70" t="inlineStr">
         <is>
           <t>Work sheet includes a list of Business/Data terms and their definitions</t>
         </is>
@@ -2294,7 +2294,7 @@
           <t>App Comparative Report Summary</t>
         </is>
       </c>
-      <c r="D25" s="68" t="inlineStr">
+      <c r="D25" s="71" t="inlineStr">
         <is>
           <t>Work sheet includes Application Point-in-Time Summary Report</t>
         </is>
@@ -2316,7 +2316,7 @@
           <t>Summer 2025 Apps By School</t>
         </is>
       </c>
-      <c r="D26" s="67" t="inlineStr">
+      <c r="D26" s="70" t="inlineStr">
         <is>
           <t>Work sheet includes Summer 2025 Applications by School and Program</t>
         </is>
@@ -2338,7 +2338,7 @@
           <t>Fall 2025 Apps By School</t>
         </is>
       </c>
-      <c r="D27" s="67" t="inlineStr">
+      <c r="D27" s="70" t="inlineStr">
         <is>
           <t>Work sheet includes Fall 2025 Applications by School and Program</t>
         </is>
@@ -2360,7 +2360,7 @@
           <t>Winter 2026 Apps By School</t>
         </is>
       </c>
-      <c r="D28" s="67" t="inlineStr">
+      <c r="D28" s="70" t="inlineStr">
         <is>
           <t>Work sheet includes Winter 2026 Applications by School and Program</t>
         </is>
@@ -2382,7 +2382,7 @@
           <t>Spring 2026 Apps By School</t>
         </is>
       </c>
-      <c r="D29" s="67" t="inlineStr">
+      <c r="D29" s="70" t="inlineStr">
         <is>
           <t>Work sheet includes Spring 2026 Applications by School and Program</t>
         </is>
@@ -2666,7 +2666,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.45" customHeight="1" s="53">
-      <c r="D1" s="97" t="inlineStr">
+      <c r="D1" s="77" t="inlineStr">
         <is>
           <t>Applications Comparative Point in Time Reports Summary</t>
         </is>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" s="53" thickBot="1"/>
     <row r="4">
-      <c r="E4" s="99" t="inlineStr">
+      <c r="E4" s="84" t="inlineStr">
         <is>
           <t>2025-26 Academic Year</t>
         </is>
@@ -2955,37 +2955,37 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" s="53">
       <c r="E18" s="46" t="n">
-        <v>1318</v>
+        <v>1406</v>
       </c>
       <c r="F18" s="47" t="n">
-        <v>1486</v>
+        <v>1611</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="H18" s="49" t="n">
-        <v>4568</v>
+        <v>4708</v>
       </c>
       <c r="I18" s="50" t="n">
-        <v>4905</v>
+        <v>5084</v>
       </c>
       <c r="J18" s="49" t="n">
-        <v>2869</v>
+        <v>3046</v>
       </c>
       <c r="K18" s="52" t="n">
-        <v>3167</v>
+        <v>3382</v>
       </c>
       <c r="L18" s="49" t="n">
-        <v>1988</v>
+        <v>2097</v>
       </c>
       <c r="M18" s="51" t="n">
-        <v>2152</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="19" ht="50.1" customHeight="1" s="53" thickBot="1">
       <c r="E19" s="182" t="inlineStr">
         <is>
-          <t>*The unique number of 1318 Fall Applicants is 71.1% lower in comparison with Fall 2024. The number of International applications is 479 representing 32.2% of total applications.</t>
+          <t>*The unique number of 1406 Fall Applicants is 70.1% lower in comparison with Fall 2024. The number of International applications is 493 representing 30.6% of total applications.</t>
         </is>
       </c>
       <c r="F19" s="183" t="n"/>
@@ -3093,37 +3093,37 @@
     </row>
     <row r="24" ht="15.75" customHeight="1" s="53">
       <c r="E24" s="46" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="G24" s="48" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H24" s="49" t="n">
-        <v>1087</v>
+        <v>1125</v>
       </c>
       <c r="I24" s="50" t="n">
-        <v>1104</v>
+        <v>1146</v>
       </c>
       <c r="J24" s="49" t="n">
-        <v>827</v>
+        <v>1446</v>
       </c>
       <c r="K24" s="50" t="n">
-        <v>838</v>
+        <v>1462</v>
       </c>
       <c r="L24" s="49" t="n">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="M24" s="51" t="n">
-        <v>224</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" ht="50.1" customHeight="1" s="53" thickBot="1">
       <c r="E25" s="182" t="inlineStr">
         <is>
-          <t>*The unique number of 78 Winter Applicants is 92.8% lower in comparison with Winter 2025. The number of International applications is 42 representing 53.8% of total applications.</t>
+          <t>*The unique number of 110 Winter Applicants is 90.2% lower in comparison with Winter 2025. The number of International applications is 68 representing 57.6% of total applications.</t>
         </is>
       </c>
       <c r="F25" s="183" t="n"/>
@@ -3230,10 +3230,10 @@
     <row r="30" ht="15.75" customHeight="1" s="53">
       <c r="C30" s="57" t="n"/>
       <c r="E30" s="46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>0</v>
@@ -3245,22 +3245,22 @@
         <v>2</v>
       </c>
       <c r="J30" s="49" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K30" s="50" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="L30" s="49" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M30" s="51" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" ht="50.1" customHeight="1" s="53">
       <c r="E31" s="180" t="inlineStr">
         <is>
-          <t>*The unique number of 1 Spring Applicants is 50.0% lower in comparison with Spring 2025. The number of International applications is 0 representing 0.0% of total applications.</t>
+          <t>*The unique number of 2 Spring Applicants is 0.0% higher in comparison with Spring 2025. The number of International applications is 0 representing 0.0% of total applications.</t>
         </is>
       </c>
       <c r="F31" s="165" t="n"/>
@@ -3276,8 +3276,8 @@
   <mergeCells count="26">
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E26:M27"/>
     <mergeCell ref="E19:M19"/>
-    <mergeCell ref="E26:M27"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:K10"/>
@@ -3296,8 +3296,8 @@
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="D1:N2"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="L22:M22"/>
   </mergeCells>
@@ -3315,8 +3315,8 @@
   <dimension ref="A1:P195"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3348,12 +3348,12 @@
           <t xml:space="preserve">Program Name </t>
         </is>
       </c>
-      <c r="D1" s="123" t="inlineStr">
+      <c r="D1" s="158" t="inlineStr">
         <is>
           <t>Program Code</t>
         </is>
       </c>
-      <c r="E1" s="123" t="inlineStr">
+      <c r="E1" s="158" t="inlineStr">
         <is>
           <t>Population Group</t>
         </is>
@@ -3368,7 +3368,7 @@
           <t>Program Capacity</t>
         </is>
       </c>
-      <c r="H1" s="105" t="inlineStr">
+      <c r="H1" s="148" t="inlineStr">
         <is>
           <t>Summer 2025</t>
         </is>
@@ -3463,7 +3463,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F3" s="115" t="n">
+      <c r="F3" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="35" t="inlineStr">
@@ -3527,7 +3527,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F5" s="115" t="n">
+      <c r="F5" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="35" t="inlineStr">
@@ -3587,7 +3587,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F7" s="115" t="n">
+      <c r="F7" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="35" t="inlineStr">
@@ -3659,7 +3659,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F9" s="115" t="n">
+      <c r="F9" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="35" t="inlineStr">
@@ -3727,7 +3727,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F11" s="115" t="n">
+      <c r="F11" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="194" t="inlineStr">
@@ -3923,10 +3923,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F17" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="132" t="inlineStr">
+      <c r="F17" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -3955,7 +3955,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F18" s="115" t="n">
+      <c r="F18" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="193" t="n"/>
@@ -3983,10 +3983,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F19" s="115" t="n">
+      <c r="F19" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="132" t="inlineStr">
+      <c r="G19" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -4015,7 +4015,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F20" s="115" t="n">
+      <c r="F20" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G20" s="193" t="n"/>
@@ -4047,10 +4047,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F21" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="132" t="inlineStr">
+      <c r="F21" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -4079,7 +4079,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F22" s="115" t="n">
+      <c r="F22" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="193" t="n"/>
@@ -4107,10 +4107,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F23" s="115" t="n">
+      <c r="F23" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="132" t="inlineStr">
+      <c r="G23" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -4139,7 +4139,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F24" s="115" t="n">
+      <c r="F24" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G24" s="193" t="n"/>
@@ -4171,10 +4171,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F25" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="132" t="inlineStr">
+      <c r="F25" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -4203,7 +4203,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F26" s="115" t="n">
+      <c r="F26" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="193" t="n"/>
@@ -4231,10 +4231,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F27" s="115" t="n">
+      <c r="F27" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="132" t="inlineStr">
+      <c r="G27" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -4263,7 +4263,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F28" s="115" t="n">
+      <c r="F28" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G28" s="193" t="n"/>
@@ -4295,7 +4295,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F29" s="115" t="n">
+      <c r="F29" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="35" t="inlineStr">
@@ -4355,7 +4355,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F31" s="115" t="n">
+      <c r="F31" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G31" s="35" t="inlineStr">
@@ -4419,7 +4419,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F33" s="115" t="n">
+      <c r="F33" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="35" t="inlineStr">
@@ -4479,7 +4479,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F35" s="115" t="n">
+      <c r="F35" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G35" s="194" t="inlineStr">
@@ -4543,7 +4543,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F37" s="115" t="n">
+      <c r="F37" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="35" t="inlineStr">
@@ -4603,7 +4603,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F39" s="115" t="n">
+      <c r="F39" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G39" s="35" t="inlineStr">
@@ -4667,7 +4667,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F41" s="115" t="n">
+      <c r="F41" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="35" t="inlineStr">
@@ -4727,7 +4727,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F43" s="115" t="n">
+      <c r="F43" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G43" s="194" t="inlineStr">
@@ -4791,7 +4791,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F45" s="115" t="n">
+      <c r="F45" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="198" t="inlineStr">
@@ -4823,7 +4823,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F46" s="115" t="n">
+      <c r="F46" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="161" t="n"/>
@@ -4851,7 +4851,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F47" s="115" t="n">
+      <c r="F47" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G47" s="35" t="inlineStr">
@@ -4883,7 +4883,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F48" s="115" t="n">
+      <c r="F48" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G48" s="161" t="n"/>
@@ -4915,7 +4915,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F49" s="115" t="n">
+      <c r="F49" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="35" t="inlineStr">
@@ -4979,7 +4979,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F51" s="115" t="n">
+      <c r="F51" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="35" t="n">
@@ -5085,7 +5085,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F54" s="115" t="n">
+      <c r="F54" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="35" t="n">
@@ -5147,7 +5147,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F56" s="115" t="n">
+      <c r="F56" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="35" t="inlineStr">
@@ -5211,7 +5211,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F58" s="115" t="n">
+      <c r="F58" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="35" t="inlineStr">
@@ -5275,7 +5275,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F60" s="115" t="n">
+      <c r="F60" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="35" t="inlineStr">
@@ -5339,7 +5339,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F62" s="115" t="n">
+      <c r="F62" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="35" t="inlineStr">
@@ -5403,7 +5403,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F64" s="115" t="n">
+      <c r="F64" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="35" t="inlineStr">
@@ -5463,7 +5463,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F66" s="115" t="n">
+      <c r="F66" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G66" s="35" t="inlineStr">
@@ -5527,7 +5527,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F68" s="115" t="n">
+      <c r="F68" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="35" t="inlineStr">
@@ -5587,7 +5587,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F70" s="115" t="n">
+      <c r="F70" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G70" s="194" t="inlineStr">
@@ -5675,7 +5675,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1" s="53">
       <c r="A73" s="192" t="n"/>
-      <c r="B73" s="111" t="n"/>
+      <c r="B73" s="106" t="n"/>
       <c r="C73" s="31" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma Co-op</t>
@@ -5694,7 +5694,7 @@
       <c r="F73" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G73" s="115" t="n">
+      <c r="G73" s="117" t="n">
         <v>30</v>
       </c>
       <c r="H73" s="9" t="n"/>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1" s="53">
       <c r="A74" s="192" t="n"/>
-      <c r="B74" s="111" t="n"/>
+      <c r="B74" s="106" t="n"/>
       <c r="C74" s="193" t="n"/>
       <c r="D74" s="33" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1" s="53">
       <c r="A75" s="192" t="n"/>
-      <c r="B75" s="111" t="n"/>
+      <c r="B75" s="106" t="n"/>
       <c r="C75" s="193" t="n"/>
       <c r="D75" s="33" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1" s="53">
       <c r="A76" s="192" t="n"/>
-      <c r="B76" s="111" t="n"/>
+      <c r="B76" s="106" t="n"/>
       <c r="C76" s="161" t="n"/>
       <c r="D76" s="33" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1" s="53">
       <c r="A77" s="192" t="n"/>
-      <c r="B77" s="111" t="n"/>
+      <c r="B77" s="106" t="n"/>
       <c r="C77" s="31" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma</t>
@@ -5814,7 +5814,7 @@
       <c r="F77" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G77" s="115" t="n">
+      <c r="G77" s="117" t="n">
         <v>30</v>
       </c>
       <c r="H77" s="9" t="n"/>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1" s="53">
       <c r="A78" s="192" t="n"/>
-      <c r="B78" s="111" t="n"/>
+      <c r="B78" s="106" t="n"/>
       <c r="C78" s="193" t="n"/>
       <c r="D78" s="33" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1" s="53">
       <c r="A79" s="192" t="n"/>
-      <c r="B79" s="111" t="n"/>
+      <c r="B79" s="106" t="n"/>
       <c r="C79" s="193" t="n"/>
       <c r="D79" s="33" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1" s="53">
       <c r="A80" s="192" t="n"/>
-      <c r="B80" s="111" t="n"/>
+      <c r="B80" s="106" t="n"/>
       <c r="C80" s="161" t="n"/>
       <c r="D80" s="33" t="inlineStr">
         <is>
@@ -5915,7 +5915,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1" s="53">
       <c r="A81" s="192" t="n"/>
-      <c r="B81" s="111" t="n"/>
+      <c r="B81" s="106" t="n"/>
       <c r="C81" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Arts</t>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1" s="53">
       <c r="A82" s="192" t="n"/>
-      <c r="B82" s="111" t="n"/>
+      <c r="B82" s="106" t="n"/>
       <c r="C82" s="193" t="n"/>
       <c r="D82" s="25" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1" s="53">
       <c r="A83" s="192" t="n"/>
-      <c r="B83" s="111" t="n"/>
+      <c r="B83" s="106" t="n"/>
       <c r="C83" s="193" t="n"/>
       <c r="D83" s="25" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1" s="53">
       <c r="A84" s="192" t="n"/>
-      <c r="B84" s="111" t="n"/>
+      <c r="B84" s="106" t="n"/>
       <c r="C84" s="161" t="n"/>
       <c r="D84" s="25" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1" s="53">
       <c r="A85" s="192" t="n"/>
-      <c r="B85" s="111" t="n"/>
+      <c r="B85" s="106" t="n"/>
       <c r="C85" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Commerce</t>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1" s="53">
       <c r="A86" s="192" t="n"/>
-      <c r="B86" s="111" t="n"/>
+      <c r="B86" s="106" t="n"/>
       <c r="C86" s="193" t="n"/>
       <c r="D86" s="25" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1" s="53">
       <c r="A87" s="192" t="n"/>
-      <c r="B87" s="111" t="n"/>
+      <c r="B87" s="106" t="n"/>
       <c r="C87" s="193" t="n"/>
       <c r="D87" s="25" t="inlineStr">
         <is>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1" s="53">
       <c r="A88" s="192" t="n"/>
-      <c r="B88" s="111" t="n"/>
+      <c r="B88" s="106" t="n"/>
       <c r="C88" s="161" t="n"/>
       <c r="D88" s="25" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1" s="53">
       <c r="A89" s="192" t="n"/>
-      <c r="B89" s="111" t="n"/>
+      <c r="B89" s="106" t="n"/>
       <c r="C89" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Engineering</t>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1" s="53">
       <c r="A90" s="192" t="n"/>
-      <c r="B90" s="111" t="n"/>
+      <c r="B90" s="106" t="n"/>
       <c r="C90" s="161" t="n"/>
       <c r="D90" s="25" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1" s="53">
       <c r="A91" s="192" t="n"/>
-      <c r="B91" s="111" t="n"/>
+      <c r="B91" s="106" t="n"/>
       <c r="C91" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Science</t>
@@ -6261,7 +6261,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1" s="53">
       <c r="A92" s="192" t="n"/>
-      <c r="B92" s="111" t="n"/>
+      <c r="B92" s="106" t="n"/>
       <c r="C92" s="193" t="n"/>
       <c r="D92" s="25" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1" s="53">
       <c r="A93" s="192" t="n"/>
-      <c r="B93" s="111" t="n"/>
+      <c r="B93" s="106" t="n"/>
       <c r="C93" s="193" t="n"/>
       <c r="D93" s="25" t="inlineStr">
         <is>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1" s="53">
       <c r="A94" s="192" t="n"/>
-      <c r="B94" s="111" t="n"/>
+      <c r="B94" s="106" t="n"/>
       <c r="C94" s="161" t="n"/>
       <c r="D94" s="25" t="inlineStr">
         <is>
@@ -6349,7 +6349,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1" s="53">
       <c r="A95" s="192" t="n"/>
-      <c r="B95" s="111" t="n"/>
+      <c r="B95" s="106" t="n"/>
       <c r="C95" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Social Work</t>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1" s="53">
       <c r="A96" s="192" t="n"/>
-      <c r="B96" s="111" t="n"/>
+      <c r="B96" s="106" t="n"/>
       <c r="C96" s="193" t="n"/>
       <c r="D96" s="25" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1" s="53">
       <c r="A97" s="192" t="n"/>
-      <c r="B97" s="111" t="n"/>
+      <c r="B97" s="106" t="n"/>
       <c r="C97" s="193" t="n"/>
       <c r="D97" s="25" t="inlineStr">
         <is>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1" s="53">
       <c r="A98" s="192" t="n"/>
-      <c r="B98" s="111" t="n"/>
+      <c r="B98" s="106" t="n"/>
       <c r="C98" s="161" t="n"/>
       <c r="D98" s="25" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1" s="53">
       <c r="A99" s="192" t="n"/>
-      <c r="B99" s="111" t="n"/>
+      <c r="B99" s="106" t="n"/>
       <c r="C99" s="34" t="inlineStr">
         <is>
           <t>Open Studies</t>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1" s="53">
       <c r="A100" s="192" t="n"/>
-      <c r="B100" s="111" t="n"/>
+      <c r="B100" s="106" t="n"/>
       <c r="C100" s="161" t="n"/>
       <c r="D100" s="25" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1" s="53">
       <c r="A101" s="192" t="n"/>
-      <c r="B101" s="111" t="n"/>
+      <c r="B101" s="106" t="n"/>
       <c r="C101" s="31" t="inlineStr">
         <is>
           <t>Governance &amp; Civil Studies Diploma</t>
@@ -6573,7 +6573,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1" s="53">
       <c r="A102" s="192" t="n"/>
-      <c r="B102" s="111" t="n"/>
+      <c r="B102" s="106" t="n"/>
       <c r="C102" s="193" t="n"/>
       <c r="D102" s="25" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1" s="53">
       <c r="A103" s="192" t="n"/>
-      <c r="B103" s="111" t="n"/>
+      <c r="B103" s="106" t="n"/>
       <c r="C103" s="193" t="n"/>
       <c r="D103" s="25" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1" s="53">
       <c r="A104" s="192" t="n"/>
-      <c r="B104" s="111" t="n"/>
+      <c r="B104" s="106" t="n"/>
       <c r="C104" s="161" t="n"/>
       <c r="D104" s="25" t="inlineStr">
         <is>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1" s="53">
       <c r="A105" s="192" t="n"/>
-      <c r="B105" s="112" t="n"/>
+      <c r="B105" s="107" t="n"/>
       <c r="C105" s="31" t="inlineStr">
         <is>
           <t>Computer Systems Technology Certificate</t>
@@ -7308,7 +7308,7 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" s="53">
-      <c r="A125" s="148" t="inlineStr">
+      <c r="A125" s="112" t="inlineStr">
         <is>
           <t>Total School of University Studies, Career Programs and Academic Upgrading</t>
         </is>
@@ -7731,7 +7731,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F138" s="115" t="n">
+      <c r="F138" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G138" s="35" t="n"/>
@@ -7959,7 +7959,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F145" s="115" t="n">
+      <c r="F145" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G145" s="206" t="n">
@@ -8029,7 +8029,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F147" s="115" t="n">
+      <c r="F147" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G147" s="35" t="n">
@@ -8091,7 +8091,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F149" s="115" t="n">
+      <c r="F149" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G149" s="194" t="n">
@@ -8277,7 +8277,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F155" s="115" t="n">
+      <c r="F155" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G155" s="198" t="inlineStr">
@@ -8341,7 +8341,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F157" s="115" t="n">
+      <c r="F157" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G157" s="35" t="n">
@@ -8399,7 +8399,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F159" s="115" t="n">
+      <c r="F159" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G159" s="35" t="inlineStr">
@@ -8459,7 +8459,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F161" s="115" t="n">
+      <c r="F161" s="117" t="n">
         <v>3</v>
       </c>
       <c r="G161" s="35" t="inlineStr">
@@ -8523,7 +8523,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F163" s="115" t="n">
+      <c r="F163" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G163" s="35" t="n"/>
@@ -8551,7 +8551,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F164" s="115" t="n">
+      <c r="F164" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G164" s="161" t="n"/>
@@ -8651,7 +8651,7 @@
           <t>School of Trades &amp; Technology</t>
         </is>
       </c>
-      <c r="B167" s="112" t="inlineStr">
+      <c r="B167" s="107" t="inlineStr">
         <is>
           <t>Trades Skills Training</t>
         </is>
@@ -8671,7 +8671,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F167" s="115" t="n">
+      <c r="F167" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G167" s="35" t="n">
@@ -8733,7 +8733,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F169" s="115" t="n">
+      <c r="F169" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G169" s="35" t="n"/>
@@ -8793,7 +8793,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F171" s="115" t="n">
+      <c r="F171" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G171" s="35" t="n">
@@ -8855,7 +8855,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F173" s="115" t="n">
+      <c r="F173" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G173" s="35" t="n"/>
@@ -8959,7 +8959,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F176" s="115" t="n">
+      <c r="F176" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G176" s="35" t="inlineStr">
@@ -9039,7 +9039,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F178" s="115" t="n">
+      <c r="F178" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G178" s="35" t="inlineStr">
@@ -9111,7 +9111,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F180" s="115" t="n">
+      <c r="F180" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G180" s="35" t="n">
@@ -9173,7 +9173,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F182" s="115" t="n">
+      <c r="F182" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G182" s="35" t="n"/>
@@ -9233,7 +9233,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F184" s="115" t="n">
+      <c r="F184" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G184" s="35" t="n">
@@ -9298,7 +9298,7 @@
       <c r="F186" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G186" s="115" t="n">
+      <c r="G186" s="117" t="n">
         <v>20</v>
       </c>
       <c r="H186" s="9" t="n"/>
@@ -9478,7 +9478,7 @@
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" s="53">
-      <c r="A192" s="158" t="inlineStr">
+      <c r="A192" s="120" t="inlineStr">
         <is>
           <t>Keyano College Total</t>
         </is>
@@ -9518,9 +9518,9 @@
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" s="53">
-      <c r="A193" s="156" t="inlineStr">
-        <is>
-          <t>*Programs highlighted in green are nearing or may have surpassed their targets. Programs highlighted in yellow have less than ten accepted applicants. Please note that some of these represent year 2 of a diploma program for which we generally have low applications.</t>
+      <c r="A193" s="114" t="inlineStr">
+        <is>
+          <t>*Programs highlighted in green are nearing or may have surpassed their targets. Programs highlighted in yellow have less than ten accepted applicants. Programs highlighted in red have accepted no students. Please note that some of these represent year 2 of a diploma program for which we generally have low applications.</t>
         </is>
       </c>
       <c r="B193" s="159" t="n"/>
@@ -9589,30 +9589,30 @@
     <mergeCell ref="C184:C185"/>
     <mergeCell ref="C144:F144"/>
     <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C45:C48"/>
     <mergeCell ref="G97:G98"/>
-    <mergeCell ref="C147:C148"/>
     <mergeCell ref="C171:C172"/>
     <mergeCell ref="G87:G88"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="C173:C174"/>
+    <mergeCell ref="G49:G50"/>
     <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="C105:C106"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G60:G61"/>
     <mergeCell ref="C91:C94"/>
-    <mergeCell ref="G60:G61"/>
     <mergeCell ref="C121:F121"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H1:P1"/>
     <mergeCell ref="B3:B53"/>
@@ -9623,10 +9623,10 @@
     <mergeCell ref="G149:G150"/>
     <mergeCell ref="B54:B72"/>
     <mergeCell ref="C101:C104"/>
-    <mergeCell ref="G136:G137"/>
     <mergeCell ref="G101:G102"/>
     <mergeCell ref="G70:G71"/>
     <mergeCell ref="C5:C8"/>
+    <mergeCell ref="G136:G137"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="G117:G118"/>
@@ -9634,12 +9634,12 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G151:G152"/>
     <mergeCell ref="G122:G123"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="G178:G179"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="C54:C55"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="C190:F190"/>
-    <mergeCell ref="G39:G40"/>
     <mergeCell ref="G62:G63"/>
     <mergeCell ref="B105:B121"/>
     <mergeCell ref="G128:G129"/>
@@ -9647,8 +9647,8 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C175:F175"/>
     <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C21:C24"/>
     <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C21:C24"/>
     <mergeCell ref="G73:G74"/>
     <mergeCell ref="C138:C139"/>
     <mergeCell ref="G167:G168"/>
@@ -9664,50 +9664,49 @@
     <mergeCell ref="G153:G154"/>
     <mergeCell ref="C124:F124"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A193:P193"/>
-    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="C140:C143"/>
     <mergeCell ref="G140:G141"/>
     <mergeCell ref="G155:G156"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="C149:C152"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A193:P193"/>
     <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G130:G131"/>
     <mergeCell ref="G173:G174"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="G77:G78"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C58:C59"/>
     <mergeCell ref="A167:A190"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="G126:G127"/>
     <mergeCell ref="G132:G133"/>
     <mergeCell ref="C113:C114"/>
-    <mergeCell ref="G145:G146"/>
     <mergeCell ref="C157:C162"/>
     <mergeCell ref="C165:F165"/>
     <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C115:C116"/>
     <mergeCell ref="G157:G158"/>
-    <mergeCell ref="C115:C116"/>
     <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C9:C12"/>
     <mergeCell ref="G180:G181"/>
-    <mergeCell ref="C9:C12"/>
     <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="G186:G187"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G142:G143"/>
     <mergeCell ref="C167:C168"/>
-    <mergeCell ref="G142:G143"/>
     <mergeCell ref="G95:G96"/>
     <mergeCell ref="C176:C177"/>
     <mergeCell ref="G79:G80"/>
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C153:C156"/>
     <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C153:C156"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="G134:G135"/>
     <mergeCell ref="C81:C84"/>
@@ -9722,50 +9721,51 @@
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="G105:G106"/>
     <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G176:G177"/>
     <mergeCell ref="B126:B144"/>
     <mergeCell ref="G184:G185"/>
     <mergeCell ref="G66:G67"/>
+    <mergeCell ref="C73:C76"/>
     <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C73:C76"/>
     <mergeCell ref="A126:A165"/>
     <mergeCell ref="G107:G108"/>
     <mergeCell ref="A192:F192"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="C41:C44"/>
+    <mergeCell ref="G111:G112"/>
     <mergeCell ref="C180:C181"/>
     <mergeCell ref="G147:G148"/>
     <mergeCell ref="B176:B190"/>
     <mergeCell ref="G171:G172"/>
+    <mergeCell ref="C25:C28"/>
     <mergeCell ref="G83:G84"/>
-    <mergeCell ref="C25:C28"/>
     <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C99:C100"/>
     <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C99:C100"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C182:C183"/>
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="C163:C164"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C130:C133"/>
     <mergeCell ref="G188:G189"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C17:C20"/>
     <mergeCell ref="G182:G183"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="G85:G86"/>
     <mergeCell ref="G54:G55"/>
     <mergeCell ref="G119:G120"/>
     <mergeCell ref="A3:A124"/>
+    <mergeCell ref="G109:G110"/>
     <mergeCell ref="C145:C146"/>
-    <mergeCell ref="G109:G110"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="B167:B175"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="G145:G146"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I52 I54:I71 I73:I120 I122:I123 I126:I143 I145:I164 I167:I174 I176:I189">
     <cfRule type="cellIs" priority="2" operator="between" dxfId="2">
@@ -9801,9 +9801,9 @@
   </sheetPr>
   <dimension ref="A1:P195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A193" sqref="A193:P193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -9835,12 +9835,12 @@
           <t xml:space="preserve">Program Name </t>
         </is>
       </c>
-      <c r="D1" s="123" t="inlineStr">
+      <c r="D1" s="158" t="inlineStr">
         <is>
           <t>Program Code</t>
         </is>
       </c>
-      <c r="E1" s="123" t="inlineStr">
+      <c r="E1" s="158" t="inlineStr">
         <is>
           <t>Population Group</t>
         </is>
@@ -9855,7 +9855,7 @@
           <t>Program Capacity</t>
         </is>
       </c>
-      <c r="H1" s="105" t="inlineStr">
+      <c r="H1" s="148" t="inlineStr">
         <is>
           <t>Fall 2025</t>
         </is>
@@ -9950,7 +9950,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F3" s="115" t="n">
+      <c r="F3" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="35" t="inlineStr">
@@ -9959,10 +9959,10 @@
         </is>
       </c>
       <c r="H3" s="9" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I3" s="35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="9" t="n">
         <v>1</v>
@@ -9970,11 +9970,11 @@
       <c r="K3" s="35" t="n"/>
       <c r="L3" s="35" t="n"/>
       <c r="M3" s="35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N3" s="35" t="n"/>
       <c r="O3" s="35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>1</v>
@@ -9999,10 +9999,10 @@
       </c>
       <c r="G4" s="161" t="n"/>
       <c r="H4" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9" t="n"/>
       <c r="K4" s="35" t="n"/>
@@ -10013,12 +10013,8 @@
         <v>1</v>
       </c>
       <c r="N4" s="35" t="n"/>
-      <c r="O4" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O4" s="35" t="n"/>
+      <c r="P4" s="3" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="53">
       <c r="A5" s="192" t="n"/>
@@ -10038,7 +10034,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F5" s="115" t="n">
+      <c r="F5" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="35" t="inlineStr">
@@ -10047,27 +10043,25 @@
         </is>
       </c>
       <c r="H5" s="9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="35" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J5" s="9" t="n"/>
       <c r="K5" s="35" t="n"/>
       <c r="L5" s="35" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N5" s="35" t="n"/>
       <c r="O5" s="35" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="53">
@@ -10100,14 +10094,14 @@
       <c r="K6" s="35" t="n"/>
       <c r="L6" s="35" t="n"/>
       <c r="M6" s="35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="35" t="n"/>
       <c r="O6" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="53">
@@ -10124,7 +10118,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F7" s="115" t="n">
+      <c r="F7" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="35" t="inlineStr">
@@ -10204,7 +10198,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F9" s="115" t="n">
+      <c r="F9" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="35" t="inlineStr">
@@ -10213,27 +10207,27 @@
         </is>
       </c>
       <c r="H9" s="9" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I9" s="35" t="n">
         <v>23</v>
       </c>
       <c r="J9" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" s="35" t="n"/>
       <c r="L9" s="35" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="35" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N9" s="35" t="n"/>
       <c r="O9" s="35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.8260869565217391</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="53">
@@ -10258,24 +10252,24 @@
         <v>30</v>
       </c>
       <c r="I10" s="35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="35" t="n"/>
       <c r="L10" s="35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" s="35" t="n"/>
       <c r="O10" s="35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="53">
@@ -10292,7 +10286,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F11" s="115" t="n">
+      <c r="F11" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="194" t="inlineStr">
@@ -10329,10 +10323,10 @@
       </c>
       <c r="G12" s="195" t="n"/>
       <c r="H12" s="9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" s="35" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J12" s="9" t="n"/>
       <c r="K12" s="35" t="n"/>
@@ -10340,10 +10334,10 @@
       <c r="M12" s="35" t="n"/>
       <c r="N12" s="35" t="n"/>
       <c r="O12" s="35" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="53">
@@ -10500,19 +10494,19 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F17" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="132" t="inlineStr">
+      <c r="F17" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
       </c>
       <c r="H17" s="9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I17" s="35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J17" s="9" t="n"/>
       <c r="K17" s="35" t="n"/>
@@ -10520,14 +10514,14 @@
         <v>1</v>
       </c>
       <c r="M17" s="35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="35" t="n"/>
       <c r="O17" s="35" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="53">
@@ -10544,15 +10538,15 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F18" s="115" t="n">
+      <c r="F18" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="193" t="n"/>
       <c r="H18" s="9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J18" s="9" t="n"/>
       <c r="K18" s="35" t="n"/>
@@ -10562,10 +10556,10 @@
       </c>
       <c r="N18" s="35" t="n"/>
       <c r="O18" s="35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="53">
@@ -10582,10 +10576,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F19" s="115" t="n">
+      <c r="F19" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="132" t="inlineStr">
+      <c r="G19" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -10614,7 +10608,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F20" s="115" t="n">
+      <c r="F20" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G20" s="193" t="n"/>
@@ -10646,10 +10640,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F21" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="132" t="inlineStr">
+      <c r="F21" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -10688,7 +10682,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F22" s="115" t="n">
+      <c r="F22" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="193" t="n"/>
@@ -10696,26 +10690,24 @@
         <v>50</v>
       </c>
       <c r="I22" s="35" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" s="35" t="n"/>
+        <v>8</v>
+      </c>
+      <c r="J22" s="9" t="n"/>
+      <c r="K22" s="35" t="n">
+        <v>4</v>
+      </c>
       <c r="L22" s="35" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M22" s="35" t="n">
         <v>12</v>
       </c>
-      <c r="N22" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="N22" s="35" t="n"/>
       <c r="O22" s="35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="53">
@@ -10732,10 +10724,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F23" s="115" t="n">
+      <c r="F23" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="132" t="inlineStr">
+      <c r="G23" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -10764,7 +10756,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F24" s="115" t="n">
+      <c r="F24" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G24" s="193" t="n"/>
@@ -10796,10 +10788,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F25" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="132" t="inlineStr">
+      <c r="F25" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -10828,7 +10820,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F26" s="115" t="n">
+      <c r="F26" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="193" t="n"/>
@@ -10856,10 +10848,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F27" s="115" t="n">
+      <c r="F27" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="132" t="inlineStr">
+      <c r="G27" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -10888,7 +10880,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F28" s="115" t="n">
+      <c r="F28" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G28" s="193" t="n"/>
@@ -10920,7 +10912,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F29" s="115" t="n">
+      <c r="F29" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="35" t="inlineStr">
@@ -10980,7 +10972,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F31" s="115" t="n">
+      <c r="F31" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G31" s="35" t="inlineStr">
@@ -11044,7 +11036,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F33" s="115" t="n">
+      <c r="F33" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="35" t="inlineStr">
@@ -11112,7 +11104,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F35" s="115" t="n">
+      <c r="F35" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G35" s="194" t="inlineStr">
@@ -11176,7 +11168,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F37" s="115" t="n">
+      <c r="F37" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="35" t="inlineStr">
@@ -11242,7 +11234,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F39" s="115" t="n">
+      <c r="F39" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G39" s="35" t="inlineStr">
@@ -11306,7 +11298,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F41" s="115" t="n">
+      <c r="F41" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="35" t="inlineStr">
@@ -11378,7 +11370,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F43" s="115" t="n">
+      <c r="F43" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G43" s="194" t="inlineStr">
@@ -11442,7 +11434,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F45" s="115" t="n">
+      <c r="F45" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="198" t="inlineStr">
@@ -11474,7 +11466,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F46" s="115" t="n">
+      <c r="F46" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="161" t="n"/>
@@ -11508,7 +11500,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F47" s="115" t="n">
+      <c r="F47" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G47" s="35" t="inlineStr">
@@ -11540,7 +11532,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F48" s="115" t="n">
+      <c r="F48" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G48" s="161" t="n"/>
@@ -11572,7 +11564,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F49" s="115" t="n">
+      <c r="F49" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="35" t="inlineStr">
@@ -11581,16 +11573,16 @@
         </is>
       </c>
       <c r="H49" s="9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I49" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="9" t="n"/>
       <c r="K49" s="35" t="n"/>
       <c r="L49" s="35" t="n"/>
       <c r="M49" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N49" s="35" t="n"/>
       <c r="O49" s="35" t="n"/>
@@ -11646,7 +11638,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F51" s="115" t="n">
+      <c r="F51" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="35" t="n">
@@ -11668,10 +11660,10 @@
       </c>
       <c r="N51" s="35" t="n"/>
       <c r="O51" s="35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="53">
@@ -11721,31 +11713,31 @@
       <c r="F53" s="166" t="n"/>
       <c r="G53" s="7" t="n"/>
       <c r="H53" s="7" t="n">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="I53" s="7" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J53" s="7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K53" s="7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L53" s="7" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M53" s="7" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="N53" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="7" t="n">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>0.6475409836065574</v>
+        <v>0.7692307692307693</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="53">
@@ -11770,7 +11762,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F54" s="115" t="n">
+      <c r="F54" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="35" t="n">
@@ -11844,7 +11836,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F56" s="115" t="n">
+      <c r="F56" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="35" t="inlineStr">
@@ -11853,17 +11845,19 @@
         </is>
       </c>
       <c r="H56" s="9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I56" s="35" t="n">
         <v>0</v>
       </c>
       <c r="J56" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" s="35" t="n"/>
       <c r="L56" s="35" t="n"/>
-      <c r="M56" s="35" t="n"/>
+      <c r="M56" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="N56" s="35" t="n"/>
       <c r="O56" s="35" t="n"/>
       <c r="P56" s="3" t="n"/>
@@ -11920,7 +11914,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F58" s="115" t="n">
+      <c r="F58" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="35" t="inlineStr">
@@ -11929,20 +11923,26 @@
         </is>
       </c>
       <c r="H58" s="9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I58" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="J58" s="9" t="n"/>
+      <c r="J58" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" s="35" t="n"/>
       <c r="L58" s="35" t="n"/>
       <c r="M58" s="35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N58" s="35" t="n"/>
-      <c r="O58" s="35" t="n"/>
-      <c r="P58" s="3" t="n"/>
+      <c r="O58" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59" ht="15.75" customHeight="1" s="53">
       <c r="A59" s="192" t="n"/>
@@ -11994,7 +11994,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F60" s="115" t="n">
+      <c r="F60" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="35" t="inlineStr">
@@ -12003,7 +12003,7 @@
         </is>
       </c>
       <c r="H60" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I60" s="35" t="n">
         <v>1</v>
@@ -12012,7 +12012,7 @@
       <c r="K60" s="35" t="n"/>
       <c r="L60" s="35" t="n"/>
       <c r="M60" s="35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N60" s="35" t="n"/>
       <c r="O60" s="35" t="n">
@@ -12068,7 +12068,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F62" s="115" t="n">
+      <c r="F62" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="35" t="inlineStr">
@@ -12077,27 +12077,27 @@
         </is>
       </c>
       <c r="H62" s="9" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="I62" s="35" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J62" s="9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K62" s="35" t="n"/>
       <c r="L62" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M62" s="35" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N62" s="35" t="n"/>
       <c r="O62" s="35" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P62" s="3" t="n">
-        <v>0.5428571428571428</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="53">
@@ -12119,18 +12119,20 @@
       </c>
       <c r="G63" s="161" t="n"/>
       <c r="H63" s="9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I63" s="35" t="n">
         <v>9</v>
       </c>
       <c r="J63" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" s="35" t="n"/>
       <c r="L63" s="35" t="n"/>
       <c r="M63" s="35" t="n"/>
-      <c r="N63" s="35" t="n"/>
+      <c r="N63" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="O63" s="35" t="n">
         <v>3</v>
       </c>
@@ -12156,7 +12158,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F64" s="115" t="n">
+      <c r="F64" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="35" t="inlineStr">
@@ -12168,24 +12170,24 @@
         <v>55</v>
       </c>
       <c r="I64" s="35" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J64" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" s="35" t="n"/>
       <c r="L64" s="35" t="n">
         <v>3</v>
       </c>
       <c r="M64" s="35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" s="35" t="n"/>
       <c r="O64" s="35" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="P64" s="3" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.6904761904761905</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" s="53">
@@ -12236,7 +12238,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F66" s="115" t="n">
+      <c r="F66" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G66" s="35" t="inlineStr">
@@ -12300,7 +12302,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F68" s="115" t="n">
+      <c r="F68" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="35" t="inlineStr">
@@ -12309,13 +12311,13 @@
         </is>
       </c>
       <c r="H68" s="9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I68" s="35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J68" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" s="35" t="n">
         <v>1</v>
@@ -12328,10 +12330,10 @@
       </c>
       <c r="N68" s="35" t="n"/>
       <c r="O68" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P68" s="3" t="n">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1" s="53">
@@ -12382,7 +12384,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F70" s="115" t="n">
+      <c r="F70" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G70" s="194" t="inlineStr">
@@ -12441,36 +12443,36 @@
       <c r="F72" s="166" t="n"/>
       <c r="G72" s="20" t="n"/>
       <c r="H72" s="20" t="n">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="I72" s="20" t="n">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="J72" s="20" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K72" s="20" t="n">
         <v>3</v>
       </c>
       <c r="L72" s="20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M72" s="20" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N72" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" s="20" t="n">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="P72" s="39" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.5945945945945946</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" s="53">
       <c r="A73" s="192" t="n"/>
-      <c r="B73" s="111" t="n"/>
+      <c r="B73" s="106" t="n"/>
       <c r="C73" s="31" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma Co-op</t>
@@ -12489,11 +12491,11 @@
       <c r="F73" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G73" s="115" t="n">
+      <c r="G73" s="117" t="n">
         <v>30</v>
       </c>
       <c r="H73" s="9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I73" s="35" t="n">
         <v>4</v>
@@ -12502,7 +12504,7 @@
       <c r="K73" s="35" t="n"/>
       <c r="L73" s="35" t="n"/>
       <c r="M73" s="35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N73" s="35" t="n"/>
       <c r="O73" s="35" t="n">
@@ -12514,7 +12516,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1" s="53">
       <c r="A74" s="192" t="n"/>
-      <c r="B74" s="111" t="n"/>
+      <c r="B74" s="106" t="n"/>
       <c r="C74" s="193" t="n"/>
       <c r="D74" s="33" t="inlineStr">
         <is>
@@ -12538,7 +12540,7 @@
       </c>
       <c r="J74" s="9" t="n"/>
       <c r="K74" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" s="35" t="n">
         <v>3</v>
@@ -12546,19 +12548,17 @@
       <c r="M74" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="N74" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="N74" s="35" t="n"/>
       <c r="O74" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P74" s="3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1" s="53">
       <c r="A75" s="192" t="n"/>
-      <c r="B75" s="111" t="n"/>
+      <c r="B75" s="106" t="n"/>
       <c r="C75" s="193" t="n"/>
       <c r="D75" s="33" t="inlineStr">
         <is>
@@ -12588,7 +12588,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1" s="53">
       <c r="A76" s="192" t="n"/>
-      <c r="B76" s="111" t="n"/>
+      <c r="B76" s="106" t="n"/>
       <c r="C76" s="161" t="n"/>
       <c r="D76" s="33" t="inlineStr">
         <is>
@@ -12616,7 +12616,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1" s="53">
       <c r="A77" s="192" t="n"/>
-      <c r="B77" s="111" t="n"/>
+      <c r="B77" s="106" t="n"/>
       <c r="C77" s="31" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma</t>
@@ -12635,7 +12635,7 @@
       <c r="F77" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G77" s="115" t="n">
+      <c r="G77" s="117" t="n">
         <v>30</v>
       </c>
       <c r="H77" s="9" t="n">
@@ -12653,12 +12653,16 @@
         <v>3</v>
       </c>
       <c r="N77" s="35" t="n"/>
-      <c r="O77" s="35" t="n"/>
-      <c r="P77" s="3" t="n"/>
+      <c r="O77" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" ht="15.75" customHeight="1" s="53">
       <c r="A78" s="192" t="n"/>
-      <c r="B78" s="111" t="n"/>
+      <c r="B78" s="106" t="n"/>
       <c r="C78" s="193" t="n"/>
       <c r="D78" s="33" t="inlineStr">
         <is>
@@ -12696,7 +12700,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1" s="53">
       <c r="A79" s="192" t="n"/>
-      <c r="B79" s="111" t="n"/>
+      <c r="B79" s="106" t="n"/>
       <c r="C79" s="193" t="n"/>
       <c r="D79" s="33" t="inlineStr">
         <is>
@@ -12726,7 +12730,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1" s="53">
       <c r="A80" s="192" t="n"/>
-      <c r="B80" s="111" t="n"/>
+      <c r="B80" s="106" t="n"/>
       <c r="C80" s="161" t="n"/>
       <c r="D80" s="33" t="inlineStr">
         <is>
@@ -12743,10 +12747,10 @@
       </c>
       <c r="G80" s="161" t="n"/>
       <c r="H80" s="9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80" s="35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80" s="9" t="n"/>
       <c r="K80" s="35" t="n"/>
@@ -12754,7 +12758,7 @@
       <c r="M80" s="35" t="n"/>
       <c r="N80" s="35" t="n"/>
       <c r="O80" s="35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P80" s="3" t="n">
         <v>1</v>
@@ -12762,7 +12766,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1" s="53">
       <c r="A81" s="192" t="n"/>
-      <c r="B81" s="111" t="n"/>
+      <c r="B81" s="106" t="n"/>
       <c r="C81" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Arts</t>
@@ -12787,32 +12791,32 @@
         </is>
       </c>
       <c r="H81" s="9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I81" s="35" t="n">
         <v>8</v>
       </c>
-      <c r="J81" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" s="35" t="n"/>
+      <c r="J81" s="9" t="n"/>
+      <c r="K81" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="L81" s="35" t="n">
         <v>1</v>
       </c>
       <c r="M81" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N81" s="35" t="n"/>
       <c r="O81" s="35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>0.375</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" s="53">
       <c r="A82" s="192" t="n"/>
-      <c r="B82" s="111" t="n"/>
+      <c r="B82" s="106" t="n"/>
       <c r="C82" s="193" t="n"/>
       <c r="D82" s="25" t="inlineStr">
         <is>
@@ -12846,7 +12850,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1" s="53">
       <c r="A83" s="192" t="n"/>
-      <c r="B83" s="111" t="n"/>
+      <c r="B83" s="106" t="n"/>
       <c r="C83" s="193" t="n"/>
       <c r="D83" s="25" t="inlineStr">
         <is>
@@ -12878,7 +12882,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1" s="53">
       <c r="A84" s="192" t="n"/>
-      <c r="B84" s="111" t="n"/>
+      <c r="B84" s="106" t="n"/>
       <c r="C84" s="161" t="n"/>
       <c r="D84" s="25" t="inlineStr">
         <is>
@@ -12906,7 +12910,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1" s="53">
       <c r="A85" s="192" t="n"/>
-      <c r="B85" s="111" t="n"/>
+      <c r="B85" s="106" t="n"/>
       <c r="C85" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Commerce</t>
@@ -12934,27 +12938,29 @@
         <v>10</v>
       </c>
       <c r="I85" s="35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J85" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K85" s="35" t="n"/>
-      <c r="L85" s="35" t="n"/>
+      <c r="L85" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="M85" s="35" t="n">
         <v>4</v>
       </c>
       <c r="N85" s="35" t="n"/>
       <c r="O85" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P85" s="3" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" s="53">
       <c r="A86" s="192" t="n"/>
-      <c r="B86" s="111" t="n"/>
+      <c r="B86" s="106" t="n"/>
       <c r="C86" s="193" t="n"/>
       <c r="D86" s="25" t="inlineStr">
         <is>
@@ -12970,19 +12976,25 @@
         <v>1</v>
       </c>
       <c r="G86" s="161" t="n"/>
-      <c r="H86" s="9" t="n"/>
-      <c r="I86" s="35" t="n"/>
+      <c r="H86" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="J86" s="9" t="n"/>
       <c r="K86" s="35" t="n"/>
       <c r="L86" s="35" t="n"/>
-      <c r="M86" s="35" t="n"/>
+      <c r="M86" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="N86" s="35" t="n"/>
       <c r="O86" s="35" t="n"/>
       <c r="P86" s="3" t="n"/>
     </row>
     <row r="87" ht="15.75" customHeight="1" s="53">
       <c r="A87" s="192" t="n"/>
-      <c r="B87" s="111" t="n"/>
+      <c r="B87" s="106" t="n"/>
       <c r="C87" s="193" t="n"/>
       <c r="D87" s="25" t="inlineStr">
         <is>
@@ -13014,7 +13026,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1" s="53">
       <c r="A88" s="192" t="n"/>
-      <c r="B88" s="111" t="n"/>
+      <c r="B88" s="106" t="n"/>
       <c r="C88" s="161" t="n"/>
       <c r="D88" s="25" t="inlineStr">
         <is>
@@ -13042,7 +13054,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1" s="53">
       <c r="A89" s="192" t="n"/>
-      <c r="B89" s="111" t="n"/>
+      <c r="B89" s="106" t="n"/>
       <c r="C89" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Engineering</t>
@@ -13065,30 +13077,34 @@
         <v>30</v>
       </c>
       <c r="H89" s="9" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I89" s="35" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J89" s="9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K89" s="35" t="n"/>
-      <c r="L89" s="35" t="n"/>
+      <c r="L89" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="M89" s="35" t="n">
-        <v>11</v>
-      </c>
-      <c r="N89" s="35" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="N89" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="O89" s="35" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="P89" s="3" t="n">
-        <v>0.375</v>
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="53">
       <c r="A90" s="192" t="n"/>
-      <c r="B90" s="111" t="n"/>
+      <c r="B90" s="106" t="n"/>
       <c r="C90" s="161" t="n"/>
       <c r="D90" s="25" t="inlineStr">
         <is>
@@ -13105,7 +13121,7 @@
       </c>
       <c r="G90" s="161" t="n"/>
       <c r="H90" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I90" s="35" t="n">
         <v>2</v>
@@ -13114,7 +13130,7 @@
       <c r="K90" s="35" t="n"/>
       <c r="L90" s="35" t="n"/>
       <c r="M90" s="35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N90" s="35" t="n"/>
       <c r="O90" s="35" t="n">
@@ -13126,7 +13142,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1" s="53">
       <c r="A91" s="192" t="n"/>
-      <c r="B91" s="111" t="n"/>
+      <c r="B91" s="106" t="n"/>
       <c r="C91" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Science</t>
@@ -13151,30 +13167,32 @@
         </is>
       </c>
       <c r="H91" s="9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I91" s="35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J91" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="K91" s="35" t="n"/>
+      <c r="K91" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="L91" s="35" t="n"/>
       <c r="M91" s="35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N91" s="35" t="n"/>
       <c r="O91" s="35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P91" s="3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1" s="53">
       <c r="A92" s="192" t="n"/>
-      <c r="B92" s="111" t="n"/>
+      <c r="B92" s="106" t="n"/>
       <c r="C92" s="193" t="n"/>
       <c r="D92" s="25" t="inlineStr">
         <is>
@@ -13208,7 +13226,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1" s="53">
       <c r="A93" s="192" t="n"/>
-      <c r="B93" s="111" t="n"/>
+      <c r="B93" s="106" t="n"/>
       <c r="C93" s="193" t="n"/>
       <c r="D93" s="25" t="inlineStr">
         <is>
@@ -13240,7 +13258,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1" s="53">
       <c r="A94" s="192" t="n"/>
-      <c r="B94" s="111" t="n"/>
+      <c r="B94" s="106" t="n"/>
       <c r="C94" s="161" t="n"/>
       <c r="D94" s="25" t="inlineStr">
         <is>
@@ -13268,7 +13286,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1" s="53">
       <c r="A95" s="192" t="n"/>
-      <c r="B95" s="111" t="n"/>
+      <c r="B95" s="106" t="n"/>
       <c r="C95" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Social Work</t>
@@ -13298,27 +13316,21 @@
       <c r="I95" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="J95" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" s="9" t="n"/>
       <c r="K95" s="35" t="n"/>
       <c r="L95" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M95" s="35" t="n">
         <v>2</v>
       </c>
       <c r="N95" s="35" t="n"/>
-      <c r="O95" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P95" s="3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O95" s="35" t="n"/>
+      <c r="P95" s="3" t="n"/>
     </row>
     <row r="96" ht="15.75" customHeight="1" s="53">
       <c r="A96" s="192" t="n"/>
-      <c r="B96" s="111" t="n"/>
+      <c r="B96" s="106" t="n"/>
       <c r="C96" s="193" t="n"/>
       <c r="D96" s="25" t="inlineStr">
         <is>
@@ -13342,17 +13354,17 @@
       </c>
       <c r="J96" s="9" t="n"/>
       <c r="K96" s="35" t="n"/>
-      <c r="L96" s="35" t="n"/>
+      <c r="L96" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="M96" s="35" t="n"/>
-      <c r="N96" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="N96" s="35" t="n"/>
       <c r="O96" s="35" t="n"/>
       <c r="P96" s="3" t="n"/>
     </row>
     <row r="97" ht="15.75" customHeight="1" s="53">
       <c r="A97" s="192" t="n"/>
-      <c r="B97" s="111" t="n"/>
+      <c r="B97" s="106" t="n"/>
       <c r="C97" s="193" t="n"/>
       <c r="D97" s="25" t="inlineStr">
         <is>
@@ -13384,7 +13396,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1" s="53">
       <c r="A98" s="192" t="n"/>
-      <c r="B98" s="111" t="n"/>
+      <c r="B98" s="106" t="n"/>
       <c r="C98" s="161" t="n"/>
       <c r="D98" s="25" t="inlineStr">
         <is>
@@ -13412,7 +13424,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1" s="53">
       <c r="A99" s="192" t="n"/>
-      <c r="B99" s="111" t="n"/>
+      <c r="B99" s="106" t="n"/>
       <c r="C99" s="34" t="inlineStr">
         <is>
           <t>Open Studies</t>
@@ -13437,30 +13449,34 @@
         </is>
       </c>
       <c r="H99" s="9" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I99" s="35" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J99" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K99" s="35" t="n"/>
+      <c r="K99" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="L99" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="M99" s="35" t="n"/>
+      <c r="M99" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="N99" s="35" t="n"/>
       <c r="O99" s="35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P99" s="3" t="n">
-        <v>0.625</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1" s="53">
       <c r="A100" s="192" t="n"/>
-      <c r="B100" s="111" t="n"/>
+      <c r="B100" s="106" t="n"/>
       <c r="C100" s="161" t="n"/>
       <c r="D100" s="25" t="inlineStr">
         <is>
@@ -13492,7 +13508,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1" s="53">
       <c r="A101" s="192" t="n"/>
-      <c r="B101" s="111" t="n"/>
+      <c r="B101" s="106" t="n"/>
       <c r="C101" s="31" t="inlineStr">
         <is>
           <t>Governance &amp; Civil Studies Diploma</t>
@@ -13538,7 +13554,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1" s="53">
       <c r="A102" s="192" t="n"/>
-      <c r="B102" s="111" t="n"/>
+      <c r="B102" s="106" t="n"/>
       <c r="C102" s="193" t="n"/>
       <c r="D102" s="25" t="inlineStr">
         <is>
@@ -13565,12 +13581,16 @@
       <c r="L102" s="35" t="n"/>
       <c r="M102" s="35" t="n"/>
       <c r="N102" s="35" t="n"/>
-      <c r="O102" s="35" t="n"/>
-      <c r="P102" s="3" t="n"/>
+      <c r="O102" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" s="3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="103" ht="15.75" customHeight="1" s="53">
       <c r="A103" s="192" t="n"/>
-      <c r="B103" s="111" t="n"/>
+      <c r="B103" s="106" t="n"/>
       <c r="C103" s="193" t="n"/>
       <c r="D103" s="25" t="inlineStr">
         <is>
@@ -13602,7 +13622,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1" s="53">
       <c r="A104" s="192" t="n"/>
-      <c r="B104" s="111" t="n"/>
+      <c r="B104" s="106" t="n"/>
       <c r="C104" s="161" t="n"/>
       <c r="D104" s="25" t="inlineStr">
         <is>
@@ -13630,7 +13650,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1" s="53">
       <c r="A105" s="192" t="n"/>
-      <c r="B105" s="112" t="n"/>
+      <c r="B105" s="107" t="n"/>
       <c r="C105" s="31" t="inlineStr">
         <is>
           <t>Computer Systems Technology Certificate</t>
@@ -13738,20 +13758,20 @@
         <v>9</v>
       </c>
       <c r="I107" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J107" s="9" t="n"/>
       <c r="K107" s="35" t="n"/>
       <c r="L107" s="35" t="n"/>
       <c r="M107" s="35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N107" s="35" t="n"/>
       <c r="O107" s="35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P107" s="3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1" s="53">
@@ -13773,10 +13793,10 @@
       </c>
       <c r="G108" s="161" t="n"/>
       <c r="H108" s="9" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I108" s="35" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J108" s="9" t="n">
         <v>2</v>
@@ -13792,10 +13812,10 @@
       </c>
       <c r="N108" s="35" t="n"/>
       <c r="O108" s="35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P108" s="3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1" s="53">
@@ -13848,15 +13868,23 @@
         <v>2</v>
       </c>
       <c r="G110" s="161" t="n"/>
-      <c r="H110" s="9" t="n"/>
-      <c r="I110" s="35" t="n"/>
+      <c r="H110" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="J110" s="9" t="n"/>
       <c r="K110" s="35" t="n"/>
       <c r="L110" s="35" t="n"/>
       <c r="M110" s="35" t="n"/>
       <c r="N110" s="35" t="n"/>
-      <c r="O110" s="35" t="n"/>
-      <c r="P110" s="3" t="n"/>
+      <c r="O110" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P110" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" ht="15.75" customHeight="1" s="53">
       <c r="A111" s="192" t="n"/>
@@ -13963,18 +13991,20 @@
         </is>
       </c>
       <c r="H113" s="9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I113" s="35" t="n">
         <v>1</v>
       </c>
       <c r="J113" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" s="35" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="K113" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="L113" s="35" t="n"/>
       <c r="M113" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N113" s="35" t="n"/>
       <c r="O113" s="35" t="n">
@@ -14003,7 +14033,7 @@
       </c>
       <c r="G114" s="161" t="n"/>
       <c r="H114" s="9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I114" s="35" t="n">
         <v>4</v>
@@ -14016,14 +14046,14 @@
         <v>1</v>
       </c>
       <c r="M114" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N114" s="35" t="n"/>
       <c r="O114" s="35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P114" s="3" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1" s="53">
@@ -14223,31 +14253,31 @@
       <c r="F121" s="166" t="n"/>
       <c r="G121" s="7" t="n"/>
       <c r="H121" s="7" t="n">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="I121" s="7" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="J121" s="7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K121" s="7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L121" s="7" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M121" s="7" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N121" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O121" s="7" t="n">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="P121" s="39" t="n">
-        <v>0.4803921568627451</v>
+        <v>0.6754385964912281</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1" s="53">
@@ -14359,7 +14389,7 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" s="53">
-      <c r="A125" s="148" t="inlineStr">
+      <c r="A125" s="112" t="inlineStr">
         <is>
           <t>Total School of University Studies, Career Programs and Academic Upgrading</t>
         </is>
@@ -14371,31 +14401,31 @@
       <c r="F125" s="165" t="n"/>
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="22" t="n">
-        <v>645</v>
+        <v>724</v>
       </c>
       <c r="I125" s="22" t="n">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="J125" s="22" t="n">
         <v>37</v>
       </c>
       <c r="K125" s="22" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L125" s="22" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="M125" s="22" t="n">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="N125" s="22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O125" s="22" t="n">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="P125" s="40" t="n">
-        <v>0.5534591194968553</v>
+        <v>0.6812865497076024</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1" s="53">
@@ -14804,30 +14834,32 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F138" s="115" t="n">
+      <c r="F138" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G138" s="35" t="n"/>
       <c r="H138" s="9" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I138" s="35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J138" s="9" t="n"/>
-      <c r="K138" s="35" t="n"/>
+      <c r="K138" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="L138" s="35" t="n"/>
       <c r="M138" s="35" t="n">
         <v>13</v>
       </c>
       <c r="N138" s="35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O138" s="35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P138" s="3" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1" s="53">
@@ -14849,10 +14881,10 @@
       </c>
       <c r="G139" s="161" t="n"/>
       <c r="H139" s="9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I139" s="35" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J139" s="9" t="n">
         <v>1</v>
@@ -14862,16 +14894,16 @@
         <v>2</v>
       </c>
       <c r="M139" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N139" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O139" s="35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P139" s="3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1" s="53">
@@ -14901,7 +14933,7 @@
         </is>
       </c>
       <c r="H140" s="9" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I140" s="35" t="n">
         <v>18</v>
@@ -14916,16 +14948,16 @@
         <v>3</v>
       </c>
       <c r="M140" s="35" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N140" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O140" s="35" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P140" s="3" t="n">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1" s="53">
@@ -14947,10 +14979,10 @@
       </c>
       <c r="G141" s="164" t="n"/>
       <c r="H141" s="9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I141" s="35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J141" s="9" t="n"/>
       <c r="K141" s="35" t="n">
@@ -14960,14 +14992,14 @@
         <v>1</v>
       </c>
       <c r="M141" s="35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N141" s="35" t="n"/>
       <c r="O141" s="35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P141" s="3" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1" s="53">
@@ -15043,31 +15075,31 @@
       <c r="F144" s="166" t="n"/>
       <c r="G144" s="6" t="n"/>
       <c r="H144" s="7" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="I144" s="7" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J144" s="7" t="n">
         <v>3</v>
       </c>
       <c r="K144" s="7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L144" s="7" t="n">
         <v>9</v>
       </c>
       <c r="M144" s="7" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N144" s="7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O144" s="7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P144" s="39" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1" s="53">
@@ -15092,19 +15124,21 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F145" s="115" t="n">
+      <c r="F145" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G145" s="206" t="n">
         <v>18</v>
       </c>
       <c r="H145" s="9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I145" s="35" t="n">
         <v>7</v>
       </c>
-      <c r="J145" s="9" t="n"/>
+      <c r="J145" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" s="35" t="n">
         <v>1</v>
       </c>
@@ -15186,7 +15220,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F147" s="115" t="n">
+      <c r="F147" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G147" s="35" t="n">
@@ -15254,7 +15288,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F149" s="115" t="n">
+      <c r="F149" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G149" s="194" t="n">
@@ -15381,29 +15415,31 @@
         <v>30</v>
       </c>
       <c r="H153" s="9" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I153" s="35" t="n">
+        <v>21</v>
+      </c>
+      <c r="J153" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L153" s="35" t="n">
+        <v>6</v>
+      </c>
+      <c r="M153" s="35" t="n">
+        <v>51</v>
+      </c>
+      <c r="N153" s="35" t="n">
         <v>20</v>
       </c>
-      <c r="J153" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K153" s="35" t="n"/>
-      <c r="L153" s="35" t="n">
-        <v>5</v>
-      </c>
-      <c r="M153" s="35" t="n">
-        <v>52</v>
-      </c>
-      <c r="N153" s="35" t="n">
-        <v>17</v>
-      </c>
       <c r="O153" s="35" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P153" s="3" t="n">
-        <v>0.55</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1" s="53">
@@ -15425,17 +15461,15 @@
       </c>
       <c r="G154" s="197" t="n"/>
       <c r="H154" s="9" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I154" s="35" t="n">
         <v>9</v>
       </c>
-      <c r="J154" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J154" s="9" t="n"/>
       <c r="K154" s="35" t="n"/>
       <c r="L154" s="35" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M154" s="35" t="n">
         <v>24</v>
@@ -15464,7 +15498,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F155" s="115" t="n">
+      <c r="F155" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G155" s="198" t="inlineStr">
@@ -15528,36 +15562,38 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F157" s="115" t="n">
+      <c r="F157" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G157" s="35" t="n">
         <v>60</v>
       </c>
       <c r="H157" s="9" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I157" s="35" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J157" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K157" s="35" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="K157" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="L157" s="35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M157" s="35" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N157" s="35" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O157" s="35" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="P157" s="3" t="n">
-        <v>0.7115384615384616</v>
+        <v>0.7678571428571429</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1" s="53">
@@ -15584,7 +15620,9 @@
       <c r="I158" s="35" t="n">
         <v>7</v>
       </c>
-      <c r="J158" s="9" t="n"/>
+      <c r="J158" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K158" s="35" t="n"/>
       <c r="L158" s="35" t="n">
         <v>2</v>
@@ -15593,13 +15631,13 @@
         <v>23</v>
       </c>
       <c r="N158" s="35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O158" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P158" s="3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1" s="53">
@@ -15616,7 +15654,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F159" s="115" t="n">
+      <c r="F159" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G159" s="35" t="inlineStr">
@@ -15676,7 +15714,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F161" s="115" t="n">
+      <c r="F161" s="117" t="n">
         <v>3</v>
       </c>
       <c r="G161" s="35" t="inlineStr">
@@ -15740,32 +15778,30 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F163" s="115" t="n">
+      <c r="F163" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G163" s="35" t="n"/>
       <c r="H163" s="9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I163" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="J163" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J163" s="9" t="n"/>
       <c r="K163" s="35" t="n"/>
       <c r="L163" s="35" t="n">
         <v>1</v>
       </c>
       <c r="M163" s="35" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N163" s="35" t="n"/>
       <c r="O163" s="35" t="n">
         <v>3</v>
       </c>
       <c r="P163" s="3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1" s="53">
@@ -15782,7 +15818,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F164" s="115" t="n">
+      <c r="F164" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G164" s="161" t="n"/>
@@ -15817,31 +15853,31 @@
       <c r="F165" s="166" t="n"/>
       <c r="G165" s="7" t="n"/>
       <c r="H165" s="7" t="n">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="I165" s="7" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J165" s="7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K165" s="7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L165" s="7" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M165" s="7" t="n">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="N165" s="7" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O165" s="7" t="n">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="P165" s="39" t="n">
-        <v>0.6576576576576577</v>
+        <v>0.7264957264957265</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" s="53">
@@ -15857,31 +15893,31 @@
       <c r="F166" s="166" t="n"/>
       <c r="G166" s="5" t="n"/>
       <c r="H166" s="5" t="n">
-        <v>702</v>
+        <v>733</v>
       </c>
       <c r="I166" s="5" t="n">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J166" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K166" s="5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L166" s="5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M166" s="5" t="n">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="N166" s="5" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O166" s="5" t="n">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="P166" s="40" t="n">
-        <v>0.6445783132530121</v>
+        <v>0.7341040462427746</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1" s="53">
@@ -15890,7 +15926,7 @@
           <t>School of Trades &amp; Technology</t>
         </is>
       </c>
-      <c r="B167" s="112" t="inlineStr">
+      <c r="B167" s="107" t="inlineStr">
         <is>
           <t>Trades Skills Training</t>
         </is>
@@ -15910,7 +15946,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F167" s="115" t="n">
+      <c r="F167" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G167" s="35" t="n">
@@ -15972,7 +16008,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F169" s="115" t="n">
+      <c r="F169" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G169" s="35" t="n"/>
@@ -16032,7 +16068,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F171" s="115" t="n">
+      <c r="F171" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G171" s="35" t="n">
@@ -16094,7 +16130,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F173" s="115" t="n">
+      <c r="F173" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G173" s="35" t="n"/>
@@ -16198,7 +16234,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F176" s="115" t="n">
+      <c r="F176" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G176" s="35" t="inlineStr">
@@ -16270,7 +16306,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F178" s="115" t="n">
+      <c r="F178" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G178" s="35" t="inlineStr">
@@ -16334,7 +16370,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F180" s="115" t="n">
+      <c r="F180" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G180" s="35" t="n">
@@ -16353,19 +16389,19 @@
         <v>1</v>
       </c>
       <c r="L180" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M180" s="35" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N180" s="35" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O180" s="35" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="P180" s="3" t="n">
-        <v>0.5892857142857143</v>
+        <v>0.7321428571428571</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1" s="53">
@@ -16414,7 +16450,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F182" s="115" t="n">
+      <c r="F182" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G182" s="35" t="n"/>
@@ -16474,32 +16510,34 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F184" s="115" t="n">
+      <c r="F184" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G184" s="35" t="n">
         <v>45</v>
       </c>
       <c r="H184" s="9" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I184" s="35" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J184" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K184" s="35" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="K184" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="L184" s="35" t="n"/>
       <c r="M184" s="35" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N184" s="35" t="n"/>
       <c r="O184" s="35" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P184" s="3" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1" s="53">
@@ -16551,24 +16589,30 @@
       <c r="F186" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G186" s="115" t="n">
+      <c r="G186" s="117" t="n">
         <v>20</v>
       </c>
       <c r="H186" s="9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I186" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J186" s="9" t="n"/>
       <c r="K186" s="35" t="n"/>
-      <c r="L186" s="35" t="n"/>
+      <c r="L186" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="M186" s="35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N186" s="35" t="n"/>
-      <c r="O186" s="35" t="n"/>
-      <c r="P186" s="3" t="n"/>
+      <c r="O186" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P186" s="3" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="187" ht="15.75" customHeight="1" s="53">
       <c r="A187" s="193" t="n"/>
@@ -16675,31 +16719,31 @@
       <c r="F190" s="166" t="n"/>
       <c r="G190" s="7" t="n"/>
       <c r="H190" s="4" t="n">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="I190" s="4" t="n">
         <v>81</v>
       </c>
       <c r="J190" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K190" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="K190" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="L190" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M190" s="4" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N190" s="4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O190" s="4" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="P190" s="39" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1" s="53">
@@ -16715,35 +16759,35 @@
       <c r="F191" s="166" t="n"/>
       <c r="G191" s="38" t="n"/>
       <c r="H191" s="5" t="n">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="I191" s="5" t="n">
         <v>81</v>
       </c>
       <c r="J191" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K191" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="K191" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="L191" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M191" s="5" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N191" s="5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O191" s="5" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="P191" s="40" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" s="53">
-      <c r="A192" s="158" t="inlineStr">
+      <c r="A192" s="120" t="inlineStr">
         <is>
           <t>Keyano College Total</t>
         </is>
@@ -16755,35 +16799,35 @@
       <c r="F192" s="166" t="n"/>
       <c r="G192" s="8" t="n"/>
       <c r="H192" s="8" t="n">
-        <v>1486</v>
+        <v>1611</v>
       </c>
       <c r="I192" s="8" t="n">
-        <v>565</v>
+        <v>596</v>
       </c>
       <c r="J192" s="8" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K192" s="8" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="L192" s="8" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="M192" s="8" t="n">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="N192" s="8" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="O192" s="8" t="n">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="P192" s="12" t="n">
-        <v>0.5858407079646017</v>
+        <v>0.7046979865771812</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" s="53">
-      <c r="A193" s="156" t="inlineStr">
+      <c r="A193" s="114" t="inlineStr">
         <is>
           <t>*Programs highlighted in green are nearing or may have surpassed their targets. Programs highlighted in yellow have less than ten accepted applicants. Please note that some of these represent year 2 of a diploma program for which we generally have low applications.</t>
         </is>
@@ -16854,30 +16898,30 @@
     <mergeCell ref="C184:C185"/>
     <mergeCell ref="C144:F144"/>
     <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C45:C48"/>
     <mergeCell ref="G97:G98"/>
-    <mergeCell ref="C147:C148"/>
     <mergeCell ref="C171:C172"/>
     <mergeCell ref="G87:G88"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="C173:C174"/>
+    <mergeCell ref="G49:G50"/>
     <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="C105:C106"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G60:G61"/>
     <mergeCell ref="C91:C94"/>
-    <mergeCell ref="G60:G61"/>
     <mergeCell ref="C121:F121"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H1:P1"/>
     <mergeCell ref="B3:B53"/>
@@ -16888,10 +16932,10 @@
     <mergeCell ref="G149:G150"/>
     <mergeCell ref="B54:B72"/>
     <mergeCell ref="C101:C104"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="C5:C8"/>
     <mergeCell ref="G136:G137"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="G70:G71"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="G117:G118"/>
@@ -16899,12 +16943,12 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G151:G152"/>
     <mergeCell ref="G122:G123"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="G178:G179"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C190:F190"/>
     <mergeCell ref="G39:G40"/>
-    <mergeCell ref="C190:F190"/>
     <mergeCell ref="G62:G63"/>
     <mergeCell ref="B105:B121"/>
     <mergeCell ref="G128:G129"/>
@@ -16912,8 +16956,8 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C175:F175"/>
     <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C21:C24"/>
     <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C21:C24"/>
     <mergeCell ref="G73:G74"/>
     <mergeCell ref="C138:C139"/>
     <mergeCell ref="G167:G168"/>
@@ -16929,50 +16973,49 @@
     <mergeCell ref="G153:G154"/>
     <mergeCell ref="C124:F124"/>
     <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G75:G76"/>
     <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A193:P193"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="G140:G141"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="A193:P193"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="G75:G76"/>
     <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G130:G131"/>
     <mergeCell ref="G173:G174"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="C77:C80"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="A167:A190"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="G77:G78"/>
     <mergeCell ref="G126:G127"/>
     <mergeCell ref="G132:G133"/>
     <mergeCell ref="C113:C114"/>
-    <mergeCell ref="G145:G146"/>
     <mergeCell ref="C157:C162"/>
     <mergeCell ref="C165:F165"/>
     <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C115:C116"/>
     <mergeCell ref="G157:G158"/>
-    <mergeCell ref="C115:C116"/>
     <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C9:C12"/>
     <mergeCell ref="G180:G181"/>
-    <mergeCell ref="C9:C12"/>
     <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="G186:G187"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G142:G143"/>
     <mergeCell ref="C167:C168"/>
-    <mergeCell ref="G142:G143"/>
     <mergeCell ref="G95:G96"/>
     <mergeCell ref="C176:C177"/>
     <mergeCell ref="G79:G80"/>
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C153:C156"/>
     <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C153:C156"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="G134:G135"/>
     <mergeCell ref="C81:C84"/>
@@ -16987,37 +17030,38 @@
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="G105:G106"/>
     <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G176:G177"/>
     <mergeCell ref="B126:B144"/>
     <mergeCell ref="G184:G185"/>
     <mergeCell ref="G66:G67"/>
+    <mergeCell ref="C73:C76"/>
     <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C73:C76"/>
     <mergeCell ref="A126:A165"/>
     <mergeCell ref="G107:G108"/>
     <mergeCell ref="A192:F192"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="C41:C44"/>
+    <mergeCell ref="G111:G112"/>
     <mergeCell ref="C180:C181"/>
     <mergeCell ref="G147:G148"/>
     <mergeCell ref="B176:B190"/>
     <mergeCell ref="G171:G172"/>
+    <mergeCell ref="C25:C28"/>
     <mergeCell ref="G83:G84"/>
-    <mergeCell ref="C25:C28"/>
     <mergeCell ref="C117:C118"/>
+    <mergeCell ref="B122:B124"/>
     <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B122:B124"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C182:C183"/>
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="C163:C164"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C130:C133"/>
     <mergeCell ref="G188:G189"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C17:C20"/>
     <mergeCell ref="G182:G183"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="G85:G86"/>
@@ -17029,8 +17073,8 @@
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="B167:B175"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="G145:G146"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I52 I54:I71 I73:I120 I122:I123 I126:I143 I145:I164 I167:I174 I176:I189">
     <cfRule type="cellIs" priority="2" operator="between" dxfId="2">
@@ -17067,8 +17111,8 @@
   <dimension ref="A1:P195"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:A2"/>
+      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -17100,12 +17144,12 @@
           <t xml:space="preserve">Program Name </t>
         </is>
       </c>
-      <c r="D1" s="123" t="inlineStr">
+      <c r="D1" s="158" t="inlineStr">
         <is>
           <t>Program Code</t>
         </is>
       </c>
-      <c r="E1" s="123" t="inlineStr">
+      <c r="E1" s="158" t="inlineStr">
         <is>
           <t>Population Group</t>
         </is>
@@ -17120,7 +17164,7 @@
           <t>Program Capacity</t>
         </is>
       </c>
-      <c r="H1" s="105" t="inlineStr">
+      <c r="H1" s="148" t="inlineStr">
         <is>
           <t>Winter 2026</t>
         </is>
@@ -17215,7 +17259,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F3" s="115" t="n">
+      <c r="F3" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="35" t="inlineStr">
@@ -17279,7 +17323,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F5" s="115" t="n">
+      <c r="F5" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="35" t="inlineStr">
@@ -17339,7 +17383,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F7" s="115" t="n">
+      <c r="F7" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="35" t="inlineStr">
@@ -17403,7 +17447,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F9" s="115" t="n">
+      <c r="F9" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="35" t="inlineStr">
@@ -17463,7 +17507,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F11" s="115" t="n">
+      <c r="F11" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="194" t="inlineStr">
@@ -17651,10 +17695,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F17" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="132" t="inlineStr">
+      <c r="F17" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -17683,7 +17727,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F18" s="115" t="n">
+      <c r="F18" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="193" t="n"/>
@@ -17711,10 +17755,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F19" s="115" t="n">
+      <c r="F19" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="132" t="inlineStr">
+      <c r="G19" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -17743,7 +17787,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F20" s="115" t="n">
+      <c r="F20" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G20" s="193" t="n"/>
@@ -17775,10 +17819,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F21" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="132" t="inlineStr">
+      <c r="F21" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -17807,7 +17851,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F22" s="115" t="n">
+      <c r="F22" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="193" t="n"/>
@@ -17835,10 +17879,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F23" s="115" t="n">
+      <c r="F23" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="132" t="inlineStr">
+      <c r="G23" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -17867,7 +17911,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F24" s="115" t="n">
+      <c r="F24" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G24" s="193" t="n"/>
@@ -17899,10 +17943,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F25" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="132" t="inlineStr">
+      <c r="F25" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -17931,7 +17975,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F26" s="115" t="n">
+      <c r="F26" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="193" t="n"/>
@@ -17959,10 +18003,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F27" s="115" t="n">
+      <c r="F27" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="132" t="inlineStr">
+      <c r="G27" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -17991,7 +18035,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F28" s="115" t="n">
+      <c r="F28" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G28" s="193" t="n"/>
@@ -18023,7 +18067,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F29" s="115" t="n">
+      <c r="F29" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="35" t="inlineStr">
@@ -18083,7 +18127,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F31" s="115" t="n">
+      <c r="F31" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G31" s="35" t="inlineStr">
@@ -18147,7 +18191,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F33" s="115" t="n">
+      <c r="F33" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="35" t="inlineStr">
@@ -18207,7 +18251,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F35" s="115" t="n">
+      <c r="F35" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G35" s="194" t="inlineStr">
@@ -18271,7 +18315,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F37" s="115" t="n">
+      <c r="F37" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="35" t="inlineStr">
@@ -18331,7 +18375,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F39" s="115" t="n">
+      <c r="F39" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G39" s="35" t="inlineStr">
@@ -18395,7 +18439,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F41" s="115" t="n">
+      <c r="F41" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="35" t="inlineStr">
@@ -18455,7 +18499,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F43" s="115" t="n">
+      <c r="F43" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G43" s="194" t="inlineStr">
@@ -18519,7 +18563,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F45" s="115" t="n">
+      <c r="F45" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="198" t="inlineStr">
@@ -18551,7 +18595,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F46" s="115" t="n">
+      <c r="F46" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="161" t="n"/>
@@ -18579,7 +18623,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F47" s="115" t="n">
+      <c r="F47" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G47" s="35" t="inlineStr">
@@ -18611,7 +18655,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F48" s="115" t="n">
+      <c r="F48" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G48" s="161" t="n"/>
@@ -18643,7 +18687,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F49" s="115" t="n">
+      <c r="F49" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="35" t="inlineStr">
@@ -18707,7 +18751,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F51" s="115" t="n">
+      <c r="F51" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="35" t="n">
@@ -18813,7 +18857,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F54" s="115" t="n">
+      <c r="F54" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="35" t="n">
@@ -18847,12 +18891,18 @@
         <v>1</v>
       </c>
       <c r="G55" s="161" t="n"/>
-      <c r="H55" s="9" t="n"/>
-      <c r="I55" s="35" t="n"/>
+      <c r="H55" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" s="9" t="n"/>
       <c r="K55" s="35" t="n"/>
       <c r="L55" s="35" t="n"/>
-      <c r="M55" s="35" t="n"/>
+      <c r="M55" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="N55" s="35" t="n"/>
       <c r="O55" s="35" t="n"/>
       <c r="P55" s="3" t="n"/>
@@ -18875,7 +18925,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F56" s="115" t="n">
+      <c r="F56" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="35" t="inlineStr">
@@ -18939,7 +18989,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F58" s="115" t="n">
+      <c r="F58" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="35" t="inlineStr">
@@ -19007,7 +19057,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F60" s="115" t="n">
+      <c r="F60" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="35" t="inlineStr">
@@ -19071,7 +19121,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F62" s="115" t="n">
+      <c r="F62" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="35" t="inlineStr">
@@ -19080,7 +19130,7 @@
         </is>
       </c>
       <c r="H62" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I62" s="35" t="n">
         <v>0</v>
@@ -19088,7 +19138,9 @@
       <c r="J62" s="9" t="n"/>
       <c r="K62" s="35" t="n"/>
       <c r="L62" s="35" t="n"/>
-      <c r="M62" s="35" t="n"/>
+      <c r="M62" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="N62" s="35" t="n"/>
       <c r="O62" s="35" t="n"/>
       <c r="P62" s="3" t="n"/>
@@ -19147,7 +19199,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F64" s="115" t="n">
+      <c r="F64" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="35" t="inlineStr">
@@ -19221,7 +19273,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F66" s="115" t="n">
+      <c r="F66" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G66" s="35" t="inlineStr">
@@ -19285,7 +19337,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F68" s="115" t="n">
+      <c r="F68" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="35" t="inlineStr">
@@ -19351,7 +19403,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F70" s="115" t="n">
+      <c r="F70" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G70" s="194" t="inlineStr">
@@ -19410,7 +19462,7 @@
       <c r="F72" s="166" t="n"/>
       <c r="G72" s="20" t="n"/>
       <c r="H72" s="20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I72" s="20" t="n">
         <v>1</v>
@@ -19425,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N72" s="20" t="n">
         <v>0</v>
@@ -19439,7 +19491,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1" s="53">
       <c r="A73" s="192" t="n"/>
-      <c r="B73" s="111" t="n"/>
+      <c r="B73" s="106" t="n"/>
       <c r="C73" s="31" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma Co-op</t>
@@ -19458,7 +19510,7 @@
       <c r="F73" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G73" s="115" t="n">
+      <c r="G73" s="117" t="n">
         <v>30</v>
       </c>
       <c r="H73" s="9" t="n"/>
@@ -19473,7 +19525,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1" s="53">
       <c r="A74" s="192" t="n"/>
-      <c r="B74" s="111" t="n"/>
+      <c r="B74" s="106" t="n"/>
       <c r="C74" s="193" t="n"/>
       <c r="D74" s="33" t="inlineStr">
         <is>
@@ -19501,7 +19553,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1" s="53">
       <c r="A75" s="192" t="n"/>
-      <c r="B75" s="111" t="n"/>
+      <c r="B75" s="106" t="n"/>
       <c r="C75" s="193" t="n"/>
       <c r="D75" s="33" t="inlineStr">
         <is>
@@ -19531,7 +19583,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1" s="53">
       <c r="A76" s="192" t="n"/>
-      <c r="B76" s="111" t="n"/>
+      <c r="B76" s="106" t="n"/>
       <c r="C76" s="161" t="n"/>
       <c r="D76" s="33" t="inlineStr">
         <is>
@@ -19559,7 +19611,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1" s="53">
       <c r="A77" s="192" t="n"/>
-      <c r="B77" s="111" t="n"/>
+      <c r="B77" s="106" t="n"/>
       <c r="C77" s="31" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma</t>
@@ -19578,7 +19630,7 @@
       <c r="F77" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G77" s="115" t="n">
+      <c r="G77" s="117" t="n">
         <v>30</v>
       </c>
       <c r="H77" s="9" t="n"/>
@@ -19593,7 +19645,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1" s="53">
       <c r="A78" s="192" t="n"/>
-      <c r="B78" s="111" t="n"/>
+      <c r="B78" s="106" t="n"/>
       <c r="C78" s="193" t="n"/>
       <c r="D78" s="33" t="inlineStr">
         <is>
@@ -19621,7 +19673,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1" s="53">
       <c r="A79" s="192" t="n"/>
-      <c r="B79" s="111" t="n"/>
+      <c r="B79" s="106" t="n"/>
       <c r="C79" s="193" t="n"/>
       <c r="D79" s="33" t="inlineStr">
         <is>
@@ -19651,7 +19703,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1" s="53">
       <c r="A80" s="192" t="n"/>
-      <c r="B80" s="111" t="n"/>
+      <c r="B80" s="106" t="n"/>
       <c r="C80" s="161" t="n"/>
       <c r="D80" s="33" t="inlineStr">
         <is>
@@ -19679,7 +19731,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1" s="53">
       <c r="A81" s="192" t="n"/>
-      <c r="B81" s="111" t="n"/>
+      <c r="B81" s="106" t="n"/>
       <c r="C81" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Arts</t>
@@ -19715,7 +19767,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1" s="53">
       <c r="A82" s="192" t="n"/>
-      <c r="B82" s="111" t="n"/>
+      <c r="B82" s="106" t="n"/>
       <c r="C82" s="193" t="n"/>
       <c r="D82" s="25" t="inlineStr">
         <is>
@@ -19743,7 +19795,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1" s="53">
       <c r="A83" s="192" t="n"/>
-      <c r="B83" s="111" t="n"/>
+      <c r="B83" s="106" t="n"/>
       <c r="C83" s="193" t="n"/>
       <c r="D83" s="25" t="inlineStr">
         <is>
@@ -19775,7 +19827,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1" s="53">
       <c r="A84" s="192" t="n"/>
-      <c r="B84" s="111" t="n"/>
+      <c r="B84" s="106" t="n"/>
       <c r="C84" s="161" t="n"/>
       <c r="D84" s="25" t="inlineStr">
         <is>
@@ -19803,7 +19855,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1" s="53">
       <c r="A85" s="192" t="n"/>
-      <c r="B85" s="111" t="n"/>
+      <c r="B85" s="106" t="n"/>
       <c r="C85" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Commerce</t>
@@ -19839,7 +19891,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1" s="53">
       <c r="A86" s="192" t="n"/>
-      <c r="B86" s="111" t="n"/>
+      <c r="B86" s="106" t="n"/>
       <c r="C86" s="193" t="n"/>
       <c r="D86" s="25" t="inlineStr">
         <is>
@@ -19873,7 +19925,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1" s="53">
       <c r="A87" s="192" t="n"/>
-      <c r="B87" s="111" t="n"/>
+      <c r="B87" s="106" t="n"/>
       <c r="C87" s="193" t="n"/>
       <c r="D87" s="25" t="inlineStr">
         <is>
@@ -19905,7 +19957,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1" s="53">
       <c r="A88" s="192" t="n"/>
-      <c r="B88" s="111" t="n"/>
+      <c r="B88" s="106" t="n"/>
       <c r="C88" s="161" t="n"/>
       <c r="D88" s="25" t="inlineStr">
         <is>
@@ -19933,7 +19985,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1" s="53">
       <c r="A89" s="192" t="n"/>
-      <c r="B89" s="111" t="n"/>
+      <c r="B89" s="106" t="n"/>
       <c r="C89" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Engineering</t>
@@ -19967,7 +20019,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1" s="53">
       <c r="A90" s="192" t="n"/>
-      <c r="B90" s="111" t="n"/>
+      <c r="B90" s="106" t="n"/>
       <c r="C90" s="161" t="n"/>
       <c r="D90" s="25" t="inlineStr">
         <is>
@@ -19995,7 +20047,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1" s="53">
       <c r="A91" s="192" t="n"/>
-      <c r="B91" s="111" t="n"/>
+      <c r="B91" s="106" t="n"/>
       <c r="C91" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Science</t>
@@ -20031,7 +20083,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1" s="53">
       <c r="A92" s="192" t="n"/>
-      <c r="B92" s="111" t="n"/>
+      <c r="B92" s="106" t="n"/>
       <c r="C92" s="193" t="n"/>
       <c r="D92" s="25" t="inlineStr">
         <is>
@@ -20047,19 +20099,25 @@
         <v>1</v>
       </c>
       <c r="G92" s="161" t="n"/>
-      <c r="H92" s="9" t="n"/>
-      <c r="I92" s="35" t="n"/>
+      <c r="H92" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="J92" s="9" t="n"/>
       <c r="K92" s="35" t="n"/>
       <c r="L92" s="35" t="n"/>
-      <c r="M92" s="35" t="n"/>
+      <c r="M92" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="N92" s="35" t="n"/>
       <c r="O92" s="35" t="n"/>
       <c r="P92" s="3" t="n"/>
     </row>
     <row r="93" ht="15.75" customHeight="1" s="53">
       <c r="A93" s="192" t="n"/>
-      <c r="B93" s="111" t="n"/>
+      <c r="B93" s="106" t="n"/>
       <c r="C93" s="193" t="n"/>
       <c r="D93" s="25" t="inlineStr">
         <is>
@@ -20091,7 +20149,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1" s="53">
       <c r="A94" s="192" t="n"/>
-      <c r="B94" s="111" t="n"/>
+      <c r="B94" s="106" t="n"/>
       <c r="C94" s="161" t="n"/>
       <c r="D94" s="25" t="inlineStr">
         <is>
@@ -20119,7 +20177,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1" s="53">
       <c r="A95" s="192" t="n"/>
-      <c r="B95" s="111" t="n"/>
+      <c r="B95" s="106" t="n"/>
       <c r="C95" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Social Work</t>
@@ -20155,7 +20213,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1" s="53">
       <c r="A96" s="192" t="n"/>
-      <c r="B96" s="111" t="n"/>
+      <c r="B96" s="106" t="n"/>
       <c r="C96" s="193" t="n"/>
       <c r="D96" s="25" t="inlineStr">
         <is>
@@ -20187,7 +20245,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1" s="53">
       <c r="A97" s="192" t="n"/>
-      <c r="B97" s="111" t="n"/>
+      <c r="B97" s="106" t="n"/>
       <c r="C97" s="193" t="n"/>
       <c r="D97" s="25" t="inlineStr">
         <is>
@@ -20219,7 +20277,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1" s="53">
       <c r="A98" s="192" t="n"/>
-      <c r="B98" s="111" t="n"/>
+      <c r="B98" s="106" t="n"/>
       <c r="C98" s="161" t="n"/>
       <c r="D98" s="25" t="inlineStr">
         <is>
@@ -20247,7 +20305,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1" s="53">
       <c r="A99" s="192" t="n"/>
-      <c r="B99" s="111" t="n"/>
+      <c r="B99" s="106" t="n"/>
       <c r="C99" s="34" t="inlineStr">
         <is>
           <t>Open Studies</t>
@@ -20271,19 +20329,25 @@
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="H99" s="9" t="n"/>
-      <c r="I99" s="35" t="n"/>
+      <c r="H99" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="J99" s="9" t="n"/>
       <c r="K99" s="35" t="n"/>
       <c r="L99" s="35" t="n"/>
-      <c r="M99" s="35" t="n"/>
+      <c r="M99" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="N99" s="35" t="n"/>
       <c r="O99" s="35" t="n"/>
       <c r="P99" s="3" t="n"/>
     </row>
     <row r="100" ht="15.75" customHeight="1" s="53">
       <c r="A100" s="192" t="n"/>
-      <c r="B100" s="111" t="n"/>
+      <c r="B100" s="106" t="n"/>
       <c r="C100" s="161" t="n"/>
       <c r="D100" s="25" t="inlineStr">
         <is>
@@ -20311,7 +20375,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1" s="53">
       <c r="A101" s="192" t="n"/>
-      <c r="B101" s="111" t="n"/>
+      <c r="B101" s="106" t="n"/>
       <c r="C101" s="31" t="inlineStr">
         <is>
           <t>Governance &amp; Civil Studies Diploma</t>
@@ -20347,7 +20411,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1" s="53">
       <c r="A102" s="192" t="n"/>
-      <c r="B102" s="111" t="n"/>
+      <c r="B102" s="106" t="n"/>
       <c r="C102" s="193" t="n"/>
       <c r="D102" s="25" t="inlineStr">
         <is>
@@ -20375,7 +20439,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1" s="53">
       <c r="A103" s="192" t="n"/>
-      <c r="B103" s="111" t="n"/>
+      <c r="B103" s="106" t="n"/>
       <c r="C103" s="193" t="n"/>
       <c r="D103" s="25" t="inlineStr">
         <is>
@@ -20407,7 +20471,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1" s="53">
       <c r="A104" s="192" t="n"/>
-      <c r="B104" s="111" t="n"/>
+      <c r="B104" s="106" t="n"/>
       <c r="C104" s="161" t="n"/>
       <c r="D104" s="25" t="inlineStr">
         <is>
@@ -20435,7 +20499,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1" s="53">
       <c r="A105" s="192" t="n"/>
-      <c r="B105" s="112" t="n"/>
+      <c r="B105" s="107" t="n"/>
       <c r="C105" s="31" t="inlineStr">
         <is>
           <t>Computer Systems Technology Certificate</t>
@@ -20717,13 +20781,13 @@
       <c r="I113" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="J113" s="9" t="n"/>
+      <c r="J113" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" s="35" t="n"/>
       <c r="L113" s="35" t="n"/>
       <c r="M113" s="35" t="n"/>
-      <c r="N113" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="N113" s="35" t="n"/>
       <c r="O113" s="35" t="n"/>
       <c r="P113" s="3" t="n"/>
     </row>
@@ -20958,13 +21022,13 @@
       <c r="F121" s="166" t="n"/>
       <c r="G121" s="7" t="n"/>
       <c r="H121" s="7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I121" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J121" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K121" s="7" t="n">
         <v>0</v>
@@ -20973,10 +21037,10 @@
         <v>0</v>
       </c>
       <c r="M121" s="7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N121" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O121" s="7" t="n">
         <v>0</v>
@@ -21094,7 +21158,7 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" s="53">
-      <c r="A125" s="148" t="inlineStr">
+      <c r="A125" s="112" t="inlineStr">
         <is>
           <t>Total School of University Studies, Career Programs and Academic Upgrading</t>
         </is>
@@ -21106,13 +21170,13 @@
       <c r="F125" s="165" t="n"/>
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="22" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I125" s="22" t="n">
         <v>2</v>
       </c>
       <c r="J125" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K125" s="22" t="n">
         <v>0</v>
@@ -21121,10 +21185,10 @@
         <v>0</v>
       </c>
       <c r="M125" s="22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N125" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" s="22" t="n">
         <v>1</v>
@@ -21254,16 +21318,18 @@
       </c>
       <c r="G129" s="197" t="n"/>
       <c r="H129" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="J129" s="9" t="n"/>
+      <c r="J129" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" s="35" t="n"/>
       <c r="L129" s="35" t="n"/>
       <c r="M129" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N129" s="35" t="n"/>
       <c r="O129" s="35" t="n"/>
@@ -21294,12 +21360,14 @@
         <v>25</v>
       </c>
       <c r="H130" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I130" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="J130" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" s="35" t="n"/>
       <c r="L130" s="35" t="n">
         <v>1</v>
@@ -21330,20 +21398,22 @@
       </c>
       <c r="G131" s="164" t="n"/>
       <c r="H131" s="9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I131" s="35" t="n">
+        <v>8</v>
+      </c>
+      <c r="J131" s="9" t="n">
         <v>3</v>
-      </c>
-      <c r="I131" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" s="9" t="n">
-        <v>1</v>
       </c>
       <c r="K131" s="35" t="n"/>
       <c r="L131" s="35" t="n"/>
       <c r="M131" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N131" s="35" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="N131" s="35" t="n">
+        <v>5</v>
+      </c>
       <c r="O131" s="35" t="n"/>
       <c r="P131" s="3" t="n"/>
     </row>
@@ -21431,7 +21501,7 @@
         <v>5</v>
       </c>
       <c r="I134" s="35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J134" s="9" t="n"/>
       <c r="K134" s="35" t="n"/>
@@ -21440,8 +21510,12 @@
         <v>1</v>
       </c>
       <c r="N134" s="35" t="n"/>
-      <c r="O134" s="35" t="n"/>
-      <c r="P134" s="3" t="n"/>
+      <c r="O134" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P134" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="135" ht="15.75" customHeight="1" s="53">
       <c r="A135" s="193" t="n"/>
@@ -21465,19 +21539,17 @@
         <v>15</v>
       </c>
       <c r="I135" s="35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J135" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K135" s="35" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="J135" s="9" t="n"/>
+      <c r="K135" s="35" t="n">
+        <v>6</v>
+      </c>
       <c r="L135" s="35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M135" s="35" t="n"/>
-      <c r="N135" s="35" t="n">
-        <v>5</v>
-      </c>
+      <c r="N135" s="35" t="n"/>
       <c r="O135" s="35" t="n"/>
       <c r="P135" s="3" t="n"/>
     </row>
@@ -21555,7 +21627,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F138" s="115" t="n">
+      <c r="F138" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G138" s="35" t="n"/>
@@ -21734,31 +21806,31 @@
       <c r="F144" s="166" t="n"/>
       <c r="G144" s="6" t="n"/>
       <c r="H144" s="7" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I144" s="7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J144" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K144" s="7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L144" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M144" s="7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N144" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O144" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P144" s="39" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1" s="53">
@@ -21783,17 +21855,17 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F145" s="115" t="n">
+      <c r="F145" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G145" s="206" t="n">
         <v>18</v>
       </c>
       <c r="H145" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I145" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" s="9" t="n">
         <v>1</v>
@@ -21801,7 +21873,7 @@
       <c r="K145" s="35" t="n"/>
       <c r="L145" s="35" t="n"/>
       <c r="M145" s="35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N145" s="35" t="n"/>
       <c r="O145" s="35" t="n"/>
@@ -21826,25 +21898,27 @@
       </c>
       <c r="G146" s="195" t="n"/>
       <c r="H146" s="9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I146" s="35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J146" s="9" t="n"/>
+        <v>6</v>
+      </c>
+      <c r="J146" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="K146" s="35" t="n"/>
       <c r="L146" s="35" t="n"/>
       <c r="M146" s="35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N146" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O146" s="35" t="n">
         <v>1</v>
       </c>
       <c r="P146" s="3" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1" s="53">
@@ -21865,7 +21939,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F147" s="115" t="n">
+      <c r="F147" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G147" s="35" t="n">
@@ -21927,7 +22001,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F149" s="115" t="n">
+      <c r="F149" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G149" s="194" t="n">
@@ -22105,7 +22179,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F155" s="115" t="n">
+      <c r="F155" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G155" s="198" t="inlineStr">
@@ -22169,7 +22243,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F157" s="115" t="n">
+      <c r="F157" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G157" s="35" t="n">
@@ -22227,7 +22301,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F159" s="115" t="n">
+      <c r="F159" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G159" s="35" t="inlineStr">
@@ -22287,7 +22361,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F161" s="115" t="n">
+      <c r="F161" s="117" t="n">
         <v>3</v>
       </c>
       <c r="G161" s="35" t="inlineStr">
@@ -22351,7 +22425,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F163" s="115" t="n">
+      <c r="F163" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G163" s="35" t="n"/>
@@ -22379,7 +22453,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F164" s="115" t="n">
+      <c r="F164" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G164" s="161" t="n"/>
@@ -22406,13 +22480,13 @@
       <c r="F165" s="166" t="n"/>
       <c r="G165" s="7" t="n"/>
       <c r="H165" s="7" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I165" s="7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J165" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K165" s="7" t="n">
         <v>0</v>
@@ -22421,16 +22495,16 @@
         <v>0</v>
       </c>
       <c r="M165" s="7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N165" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O165" s="7" t="n">
         <v>1</v>
       </c>
       <c r="P165" s="39" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" s="53">
@@ -22446,31 +22520,31 @@
       <c r="F166" s="166" t="n"/>
       <c r="G166" s="5" t="n"/>
       <c r="H166" s="5" t="n">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="I166" s="5" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J166" s="5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K166" s="5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L166" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M166" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="N166" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O166" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="M166" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="N166" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O166" s="5" t="n">
-        <v>1</v>
-      </c>
       <c r="P166" s="40" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1" s="53">
@@ -22479,7 +22553,7 @@
           <t>School of Trades &amp; Technology</t>
         </is>
       </c>
-      <c r="B167" s="112" t="inlineStr">
+      <c r="B167" s="107" t="inlineStr">
         <is>
           <t>Trades Skills Training</t>
         </is>
@@ -22499,7 +22573,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F167" s="115" t="n">
+      <c r="F167" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G167" s="35" t="n">
@@ -22561,7 +22635,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F169" s="115" t="n">
+      <c r="F169" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G169" s="35" t="n"/>
@@ -22621,7 +22695,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F171" s="115" t="n">
+      <c r="F171" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G171" s="35" t="n">
@@ -22683,7 +22757,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F173" s="115" t="n">
+      <c r="F173" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G173" s="35" t="n"/>
@@ -22787,7 +22861,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F176" s="115" t="n">
+      <c r="F176" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G176" s="35" t="inlineStr">
@@ -22851,7 +22925,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F178" s="115" t="n">
+      <c r="F178" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G178" s="35" t="inlineStr">
@@ -22915,32 +22989,32 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F180" s="115" t="n">
+      <c r="F180" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G180" s="35" t="n">
         <v>45</v>
       </c>
       <c r="H180" s="9" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I180" s="35" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J180" s="9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K180" s="35" t="n"/>
       <c r="L180" s="35" t="n"/>
       <c r="M180" s="35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N180" s="35" t="n"/>
       <c r="O180" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P180" s="3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1" s="53">
@@ -22989,7 +23063,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F182" s="115" t="n">
+      <c r="F182" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G182" s="35" t="n"/>
@@ -23049,7 +23123,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F184" s="115" t="n">
+      <c r="F184" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G184" s="35" t="n">
@@ -23120,7 +23194,7 @@
       <c r="F186" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G186" s="115" t="n">
+      <c r="G186" s="117" t="n">
         <v>20</v>
       </c>
       <c r="H186" s="9" t="n"/>
@@ -23232,13 +23306,13 @@
       <c r="F190" s="166" t="n"/>
       <c r="G190" s="7" t="n"/>
       <c r="H190" s="4" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I190" s="4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J190" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K190" s="4" t="n">
         <v>0</v>
@@ -23247,16 +23321,16 @@
         <v>0</v>
       </c>
       <c r="M190" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N190" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O190" s="4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P190" s="39" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1" s="53">
@@ -23272,13 +23346,13 @@
       <c r="F191" s="166" t="n"/>
       <c r="G191" s="38" t="n"/>
       <c r="H191" s="5" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I191" s="5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J191" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K191" s="5" t="n">
         <v>0</v>
@@ -23287,20 +23361,20 @@
         <v>0</v>
       </c>
       <c r="M191" s="5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N191" s="5" t="n">
         <v>0</v>
       </c>
       <c r="O191" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P191" s="40" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" s="53">
-      <c r="A192" s="158" t="inlineStr">
+      <c r="A192" s="120" t="inlineStr">
         <is>
           <t>Keyano College Total</t>
         </is>
@@ -23312,37 +23386,37 @@
       <c r="F192" s="166" t="n"/>
       <c r="G192" s="8" t="n"/>
       <c r="H192" s="8" t="n">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="I192" s="8" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J192" s="8" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K192" s="8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L192" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M192" s="8" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N192" s="8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O192" s="8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P192" s="12" t="n">
-        <v>0.12</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" s="53">
-      <c r="A193" s="156" t="inlineStr">
-        <is>
-          <t>*Programs highlighted in green are nearing or may have surpassed their targets. Programs highlighted in yellow have less than ten accepted applicants. Please note that some of these represent year 2 of a diploma program for which we generally have low applications.</t>
+      <c r="A193" s="114" t="inlineStr">
+        <is>
+          <t>*Programs highlighted in green are nearing or may have surpassed their targets. Programs highlighted in yellow have less than ten accepted applicants. Programs highlighted in red have accepted no students. Please note that some of these represent year 2 of a diploma program for which we generally have low applications.</t>
         </is>
       </c>
       <c r="B193" s="159" t="n"/>
@@ -23411,30 +23485,30 @@
     <mergeCell ref="C184:C185"/>
     <mergeCell ref="C144:F144"/>
     <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C45:C48"/>
     <mergeCell ref="G97:G98"/>
-    <mergeCell ref="C147:C148"/>
     <mergeCell ref="C171:C172"/>
     <mergeCell ref="G87:G88"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="C173:C174"/>
+    <mergeCell ref="G49:G50"/>
     <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="C105:C106"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G60:G61"/>
     <mergeCell ref="C91:C94"/>
-    <mergeCell ref="G60:G61"/>
     <mergeCell ref="C121:F121"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H1:P1"/>
     <mergeCell ref="B3:B53"/>
@@ -23445,10 +23519,10 @@
     <mergeCell ref="G149:G150"/>
     <mergeCell ref="B54:B72"/>
     <mergeCell ref="C101:C104"/>
-    <mergeCell ref="G136:G137"/>
     <mergeCell ref="G101:G102"/>
     <mergeCell ref="G70:G71"/>
     <mergeCell ref="C5:C8"/>
+    <mergeCell ref="G136:G137"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="G117:G118"/>
@@ -23456,12 +23530,12 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G151:G152"/>
     <mergeCell ref="G122:G123"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="G178:G179"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="C54:C55"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="C190:F190"/>
-    <mergeCell ref="G39:G40"/>
     <mergeCell ref="G62:G63"/>
     <mergeCell ref="B105:B121"/>
     <mergeCell ref="G128:G129"/>
@@ -23469,8 +23543,8 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C175:F175"/>
     <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C21:C24"/>
     <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C21:C24"/>
     <mergeCell ref="G73:G74"/>
     <mergeCell ref="C138:C139"/>
     <mergeCell ref="G167:G168"/>
@@ -23486,50 +23560,49 @@
     <mergeCell ref="G153:G154"/>
     <mergeCell ref="C124:F124"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A193:P193"/>
-    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="C140:C143"/>
     <mergeCell ref="G140:G141"/>
     <mergeCell ref="G155:G156"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="C149:C152"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A193:P193"/>
     <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G130:G131"/>
     <mergeCell ref="G173:G174"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="G77:G78"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C58:C59"/>
     <mergeCell ref="A167:A190"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="G126:G127"/>
     <mergeCell ref="G132:G133"/>
     <mergeCell ref="C113:C114"/>
-    <mergeCell ref="G145:G146"/>
     <mergeCell ref="C157:C162"/>
     <mergeCell ref="C165:F165"/>
     <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C115:C116"/>
     <mergeCell ref="G157:G158"/>
-    <mergeCell ref="C115:C116"/>
     <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C9:C12"/>
     <mergeCell ref="G180:G181"/>
-    <mergeCell ref="C9:C12"/>
     <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="G186:G187"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G142:G143"/>
     <mergeCell ref="C167:C168"/>
-    <mergeCell ref="G142:G143"/>
     <mergeCell ref="G95:G96"/>
     <mergeCell ref="C176:C177"/>
     <mergeCell ref="G79:G80"/>
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C153:C156"/>
     <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C153:C156"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="G134:G135"/>
     <mergeCell ref="C81:C84"/>
@@ -23544,50 +23617,51 @@
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="G105:G106"/>
     <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G176:G177"/>
     <mergeCell ref="B126:B144"/>
     <mergeCell ref="G184:G185"/>
     <mergeCell ref="G66:G67"/>
+    <mergeCell ref="C73:C76"/>
     <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C73:C76"/>
     <mergeCell ref="A126:A165"/>
     <mergeCell ref="G107:G108"/>
     <mergeCell ref="A192:F192"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="C41:C44"/>
+    <mergeCell ref="G111:G112"/>
     <mergeCell ref="C180:C181"/>
     <mergeCell ref="G147:G148"/>
     <mergeCell ref="B176:B190"/>
     <mergeCell ref="G171:G172"/>
+    <mergeCell ref="C25:C28"/>
     <mergeCell ref="G83:G84"/>
-    <mergeCell ref="C25:C28"/>
     <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C99:C100"/>
     <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C99:C100"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C182:C183"/>
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="C163:C164"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C130:C133"/>
     <mergeCell ref="G188:G189"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C17:C20"/>
     <mergeCell ref="G182:G183"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="G85:G86"/>
     <mergeCell ref="G54:G55"/>
     <mergeCell ref="G119:G120"/>
     <mergeCell ref="A3:A124"/>
+    <mergeCell ref="G109:G110"/>
     <mergeCell ref="C145:C146"/>
-    <mergeCell ref="G109:G110"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="B167:B175"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="G145:G146"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I52 I54:I71 I73:I120 I122:I123 I126:I143 I145:I164 I167:I174 I176:I189">
     <cfRule type="cellIs" priority="2" operator="between" dxfId="2">
@@ -23623,9 +23697,9 @@
   </sheetPr>
   <dimension ref="A1:P195"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -23657,12 +23731,12 @@
           <t xml:space="preserve">Program Name </t>
         </is>
       </c>
-      <c r="D1" s="123" t="inlineStr">
+      <c r="D1" s="158" t="inlineStr">
         <is>
           <t>Program Code</t>
         </is>
       </c>
-      <c r="E1" s="123" t="inlineStr">
+      <c r="E1" s="158" t="inlineStr">
         <is>
           <t>Population Group</t>
         </is>
@@ -23677,7 +23751,7 @@
           <t>Program Capacity</t>
         </is>
       </c>
-      <c r="H1" s="105" t="inlineStr">
+      <c r="H1" s="148" t="inlineStr">
         <is>
           <t>Spring 2026</t>
         </is>
@@ -23772,7 +23846,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F3" s="115" t="n">
+      <c r="F3" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="35" t="inlineStr">
@@ -23836,7 +23910,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F5" s="115" t="n">
+      <c r="F5" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="35" t="inlineStr">
@@ -23896,7 +23970,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F7" s="115" t="n">
+      <c r="F7" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="35" t="inlineStr">
@@ -23960,7 +24034,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F9" s="115" t="n">
+      <c r="F9" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="35" t="inlineStr">
@@ -24020,7 +24094,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F11" s="115" t="n">
+      <c r="F11" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="194" t="inlineStr">
@@ -24208,10 +24282,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F17" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="132" t="inlineStr">
+      <c r="F17" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -24240,7 +24314,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F18" s="115" t="n">
+      <c r="F18" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="193" t="n"/>
@@ -24268,10 +24342,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F19" s="115" t="n">
+      <c r="F19" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="132" t="inlineStr">
+      <c r="G19" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -24300,7 +24374,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F20" s="115" t="n">
+      <c r="F20" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G20" s="193" t="n"/>
@@ -24332,10 +24406,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F21" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="132" t="inlineStr">
+      <c r="F21" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -24364,7 +24438,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F22" s="115" t="n">
+      <c r="F22" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G22" s="193" t="n"/>
@@ -24392,10 +24466,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F23" s="115" t="n">
+      <c r="F23" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G23" s="132" t="inlineStr">
+      <c r="G23" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -24424,7 +24498,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F24" s="115" t="n">
+      <c r="F24" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G24" s="193" t="n"/>
@@ -24456,10 +24530,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F25" s="115" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="132" t="inlineStr">
+      <c r="F25" s="117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -24488,7 +24562,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F26" s="115" t="n">
+      <c r="F26" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="193" t="n"/>
@@ -24516,10 +24590,10 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F27" s="115" t="n">
+      <c r="F27" s="117" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="132" t="inlineStr">
+      <c r="G27" s="129" t="inlineStr">
         <is>
           <t>Unlimited</t>
         </is>
@@ -24548,7 +24622,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F28" s="115" t="n">
+      <c r="F28" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G28" s="193" t="n"/>
@@ -24580,7 +24654,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F29" s="115" t="n">
+      <c r="F29" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="35" t="inlineStr">
@@ -24640,7 +24714,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F31" s="115" t="n">
+      <c r="F31" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G31" s="35" t="inlineStr">
@@ -24704,7 +24778,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F33" s="115" t="n">
+      <c r="F33" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="35" t="inlineStr">
@@ -24764,7 +24838,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F35" s="115" t="n">
+      <c r="F35" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G35" s="194" t="inlineStr">
@@ -24828,7 +24902,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F37" s="115" t="n">
+      <c r="F37" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="35" t="inlineStr">
@@ -24888,7 +24962,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F39" s="115" t="n">
+      <c r="F39" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G39" s="35" t="inlineStr">
@@ -24952,7 +25026,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F41" s="115" t="n">
+      <c r="F41" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="35" t="inlineStr">
@@ -25012,7 +25086,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F43" s="115" t="n">
+      <c r="F43" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G43" s="194" t="inlineStr">
@@ -25076,7 +25150,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F45" s="115" t="n">
+      <c r="F45" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="198" t="inlineStr">
@@ -25108,7 +25182,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F46" s="115" t="n">
+      <c r="F46" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="161" t="n"/>
@@ -25136,7 +25210,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F47" s="115" t="n">
+      <c r="F47" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G47" s="35" t="inlineStr">
@@ -25168,7 +25242,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F48" s="115" t="n">
+      <c r="F48" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G48" s="161" t="n"/>
@@ -25200,7 +25274,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F49" s="115" t="n">
+      <c r="F49" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="35" t="inlineStr">
@@ -25264,7 +25338,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F51" s="115" t="n">
+      <c r="F51" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="35" t="n">
@@ -25370,7 +25444,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F54" s="115" t="n">
+      <c r="F54" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="35" t="n">
@@ -25432,7 +25506,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F56" s="115" t="n">
+      <c r="F56" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="35" t="inlineStr">
@@ -25496,7 +25570,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F58" s="115" t="n">
+      <c r="F58" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="35" t="inlineStr">
@@ -25560,7 +25634,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F60" s="115" t="n">
+      <c r="F60" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="35" t="inlineStr">
@@ -25624,7 +25698,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F62" s="115" t="n">
+      <c r="F62" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="35" t="inlineStr">
@@ -25633,10 +25707,10 @@
         </is>
       </c>
       <c r="H62" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="9" t="n"/>
       <c r="K62" s="35" t="n"/>
@@ -25692,7 +25766,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F64" s="115" t="n">
+      <c r="F64" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="35" t="inlineStr">
@@ -25752,7 +25826,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F66" s="115" t="n">
+      <c r="F66" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G66" s="35" t="inlineStr">
@@ -25816,7 +25890,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F68" s="115" t="n">
+      <c r="F68" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="35" t="inlineStr">
@@ -25876,7 +25950,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F70" s="115" t="n">
+      <c r="F70" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G70" s="194" t="inlineStr">
@@ -25935,10 +26009,10 @@
       <c r="F72" s="166" t="n"/>
       <c r="G72" s="20" t="n"/>
       <c r="H72" s="20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" s="20" t="n">
         <v>0</v>
@@ -25964,7 +26038,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1" s="53">
       <c r="A73" s="192" t="n"/>
-      <c r="B73" s="111" t="n"/>
+      <c r="B73" s="106" t="n"/>
       <c r="C73" s="31" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma Co-op</t>
@@ -25983,7 +26057,7 @@
       <c r="F73" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G73" s="115" t="n">
+      <c r="G73" s="117" t="n">
         <v>30</v>
       </c>
       <c r="H73" s="9" t="n"/>
@@ -25998,7 +26072,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1" s="53">
       <c r="A74" s="192" t="n"/>
-      <c r="B74" s="111" t="n"/>
+      <c r="B74" s="106" t="n"/>
       <c r="C74" s="193" t="n"/>
       <c r="D74" s="33" t="inlineStr">
         <is>
@@ -26026,7 +26100,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1" s="53">
       <c r="A75" s="192" t="n"/>
-      <c r="B75" s="111" t="n"/>
+      <c r="B75" s="106" t="n"/>
       <c r="C75" s="193" t="n"/>
       <c r="D75" s="33" t="inlineStr">
         <is>
@@ -26056,7 +26130,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1" s="53">
       <c r="A76" s="192" t="n"/>
-      <c r="B76" s="111" t="n"/>
+      <c r="B76" s="106" t="n"/>
       <c r="C76" s="161" t="n"/>
       <c r="D76" s="33" t="inlineStr">
         <is>
@@ -26084,7 +26158,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1" s="53">
       <c r="A77" s="192" t="n"/>
-      <c r="B77" s="111" t="n"/>
+      <c r="B77" s="106" t="n"/>
       <c r="C77" s="31" t="inlineStr">
         <is>
           <t>Environmental Technology Diploma</t>
@@ -26103,7 +26177,7 @@
       <c r="F77" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G77" s="115" t="n">
+      <c r="G77" s="117" t="n">
         <v>30</v>
       </c>
       <c r="H77" s="9" t="n"/>
@@ -26118,7 +26192,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1" s="53">
       <c r="A78" s="192" t="n"/>
-      <c r="B78" s="111" t="n"/>
+      <c r="B78" s="106" t="n"/>
       <c r="C78" s="193" t="n"/>
       <c r="D78" s="33" t="inlineStr">
         <is>
@@ -26146,7 +26220,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1" s="53">
       <c r="A79" s="192" t="n"/>
-      <c r="B79" s="111" t="n"/>
+      <c r="B79" s="106" t="n"/>
       <c r="C79" s="193" t="n"/>
       <c r="D79" s="33" t="inlineStr">
         <is>
@@ -26176,7 +26250,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1" s="53">
       <c r="A80" s="192" t="n"/>
-      <c r="B80" s="111" t="n"/>
+      <c r="B80" s="106" t="n"/>
       <c r="C80" s="161" t="n"/>
       <c r="D80" s="33" t="inlineStr">
         <is>
@@ -26204,7 +26278,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1" s="53">
       <c r="A81" s="192" t="n"/>
-      <c r="B81" s="111" t="n"/>
+      <c r="B81" s="106" t="n"/>
       <c r="C81" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Arts</t>
@@ -26240,7 +26314,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1" s="53">
       <c r="A82" s="192" t="n"/>
-      <c r="B82" s="111" t="n"/>
+      <c r="B82" s="106" t="n"/>
       <c r="C82" s="193" t="n"/>
       <c r="D82" s="25" t="inlineStr">
         <is>
@@ -26268,7 +26342,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1" s="53">
       <c r="A83" s="192" t="n"/>
-      <c r="B83" s="111" t="n"/>
+      <c r="B83" s="106" t="n"/>
       <c r="C83" s="193" t="n"/>
       <c r="D83" s="25" t="inlineStr">
         <is>
@@ -26300,7 +26374,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1" s="53">
       <c r="A84" s="192" t="n"/>
-      <c r="B84" s="111" t="n"/>
+      <c r="B84" s="106" t="n"/>
       <c r="C84" s="161" t="n"/>
       <c r="D84" s="25" t="inlineStr">
         <is>
@@ -26328,7 +26402,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1" s="53">
       <c r="A85" s="192" t="n"/>
-      <c r="B85" s="111" t="n"/>
+      <c r="B85" s="106" t="n"/>
       <c r="C85" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Commerce</t>
@@ -26364,7 +26438,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1" s="53">
       <c r="A86" s="192" t="n"/>
-      <c r="B86" s="111" t="n"/>
+      <c r="B86" s="106" t="n"/>
       <c r="C86" s="193" t="n"/>
       <c r="D86" s="25" t="inlineStr">
         <is>
@@ -26392,7 +26466,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1" s="53">
       <c r="A87" s="192" t="n"/>
-      <c r="B87" s="111" t="n"/>
+      <c r="B87" s="106" t="n"/>
       <c r="C87" s="193" t="n"/>
       <c r="D87" s="25" t="inlineStr">
         <is>
@@ -26424,7 +26498,7 @@
     </row>
     <row r="88" ht="15.75" customHeight="1" s="53">
       <c r="A88" s="192" t="n"/>
-      <c r="B88" s="111" t="n"/>
+      <c r="B88" s="106" t="n"/>
       <c r="C88" s="161" t="n"/>
       <c r="D88" s="25" t="inlineStr">
         <is>
@@ -26452,7 +26526,7 @@
     </row>
     <row r="89" ht="15.75" customHeight="1" s="53">
       <c r="A89" s="192" t="n"/>
-      <c r="B89" s="111" t="n"/>
+      <c r="B89" s="106" t="n"/>
       <c r="C89" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Engineering</t>
@@ -26486,7 +26560,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1" s="53">
       <c r="A90" s="192" t="n"/>
-      <c r="B90" s="111" t="n"/>
+      <c r="B90" s="106" t="n"/>
       <c r="C90" s="161" t="n"/>
       <c r="D90" s="25" t="inlineStr">
         <is>
@@ -26514,7 +26588,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1" s="53">
       <c r="A91" s="192" t="n"/>
-      <c r="B91" s="111" t="n"/>
+      <c r="B91" s="106" t="n"/>
       <c r="C91" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Science</t>
@@ -26550,7 +26624,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1" s="53">
       <c r="A92" s="192" t="n"/>
-      <c r="B92" s="111" t="n"/>
+      <c r="B92" s="106" t="n"/>
       <c r="C92" s="193" t="n"/>
       <c r="D92" s="25" t="inlineStr">
         <is>
@@ -26578,7 +26652,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1" s="53">
       <c r="A93" s="192" t="n"/>
-      <c r="B93" s="111" t="n"/>
+      <c r="B93" s="106" t="n"/>
       <c r="C93" s="193" t="n"/>
       <c r="D93" s="25" t="inlineStr">
         <is>
@@ -26610,7 +26684,7 @@
     </row>
     <row r="94" ht="15.75" customHeight="1" s="53">
       <c r="A94" s="192" t="n"/>
-      <c r="B94" s="111" t="n"/>
+      <c r="B94" s="106" t="n"/>
       <c r="C94" s="161" t="n"/>
       <c r="D94" s="25" t="inlineStr">
         <is>
@@ -26638,7 +26712,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1" s="53">
       <c r="A95" s="192" t="n"/>
-      <c r="B95" s="111" t="n"/>
+      <c r="B95" s="106" t="n"/>
       <c r="C95" s="31" t="inlineStr">
         <is>
           <t>UT: Bachelor of Social Work</t>
@@ -26674,7 +26748,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1" s="53">
       <c r="A96" s="192" t="n"/>
-      <c r="B96" s="111" t="n"/>
+      <c r="B96" s="106" t="n"/>
       <c r="C96" s="193" t="n"/>
       <c r="D96" s="25" t="inlineStr">
         <is>
@@ -26702,7 +26776,7 @@
     </row>
     <row r="97" ht="15.75" customHeight="1" s="53">
       <c r="A97" s="192" t="n"/>
-      <c r="B97" s="111" t="n"/>
+      <c r="B97" s="106" t="n"/>
       <c r="C97" s="193" t="n"/>
       <c r="D97" s="25" t="inlineStr">
         <is>
@@ -26734,7 +26808,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1" s="53">
       <c r="A98" s="192" t="n"/>
-      <c r="B98" s="111" t="n"/>
+      <c r="B98" s="106" t="n"/>
       <c r="C98" s="161" t="n"/>
       <c r="D98" s="25" t="inlineStr">
         <is>
@@ -26762,7 +26836,7 @@
     </row>
     <row r="99" ht="15.75" customHeight="1" s="53">
       <c r="A99" s="192" t="n"/>
-      <c r="B99" s="111" t="n"/>
+      <c r="B99" s="106" t="n"/>
       <c r="C99" s="34" t="inlineStr">
         <is>
           <t>Open Studies</t>
@@ -26798,7 +26872,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1" s="53">
       <c r="A100" s="192" t="n"/>
-      <c r="B100" s="111" t="n"/>
+      <c r="B100" s="106" t="n"/>
       <c r="C100" s="161" t="n"/>
       <c r="D100" s="25" t="inlineStr">
         <is>
@@ -26826,7 +26900,7 @@
     </row>
     <row r="101" ht="15.75" customHeight="1" s="53">
       <c r="A101" s="192" t="n"/>
-      <c r="B101" s="111" t="n"/>
+      <c r="B101" s="106" t="n"/>
       <c r="C101" s="31" t="inlineStr">
         <is>
           <t>Governance &amp; Civil Studies Diploma</t>
@@ -26862,7 +26936,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1" s="53">
       <c r="A102" s="192" t="n"/>
-      <c r="B102" s="111" t="n"/>
+      <c r="B102" s="106" t="n"/>
       <c r="C102" s="193" t="n"/>
       <c r="D102" s="25" t="inlineStr">
         <is>
@@ -26890,7 +26964,7 @@
     </row>
     <row r="103" ht="15.75" customHeight="1" s="53">
       <c r="A103" s="192" t="n"/>
-      <c r="B103" s="111" t="n"/>
+      <c r="B103" s="106" t="n"/>
       <c r="C103" s="193" t="n"/>
       <c r="D103" s="25" t="inlineStr">
         <is>
@@ -26922,7 +26996,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1" s="53">
       <c r="A104" s="192" t="n"/>
-      <c r="B104" s="111" t="n"/>
+      <c r="B104" s="106" t="n"/>
       <c r="C104" s="161" t="n"/>
       <c r="D104" s="25" t="inlineStr">
         <is>
@@ -26950,7 +27024,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1" s="53">
       <c r="A105" s="192" t="n"/>
-      <c r="B105" s="112" t="n"/>
+      <c r="B105" s="107" t="n"/>
       <c r="C105" s="31" t="inlineStr">
         <is>
           <t>Computer Systems Technology Certificate</t>
@@ -27597,7 +27671,7 @@
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1" s="53">
-      <c r="A125" s="148" t="inlineStr">
+      <c r="A125" s="112" t="inlineStr">
         <is>
           <t>Total School of University Studies, Career Programs and Academic Upgrading</t>
         </is>
@@ -27609,10 +27683,10 @@
       <c r="F125" s="165" t="n"/>
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="22" t="n">
         <v>0</v>
@@ -28020,7 +28094,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F138" s="115" t="n">
+      <c r="F138" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G138" s="35" t="n"/>
@@ -28248,7 +28322,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F145" s="115" t="n">
+      <c r="F145" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G145" s="206" t="n">
@@ -28310,7 +28384,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F147" s="115" t="n">
+      <c r="F147" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G147" s="35" t="n">
@@ -28372,7 +28446,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F149" s="115" t="n">
+      <c r="F149" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G149" s="194" t="n">
@@ -28550,7 +28624,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F155" s="115" t="n">
+      <c r="F155" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G155" s="198" t="inlineStr">
@@ -28614,7 +28688,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F157" s="115" t="n">
+      <c r="F157" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G157" s="35" t="n">
@@ -28672,7 +28746,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F159" s="115" t="n">
+      <c r="F159" s="117" t="n">
         <v>2</v>
       </c>
       <c r="G159" s="35" t="inlineStr">
@@ -28732,7 +28806,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F161" s="115" t="n">
+      <c r="F161" s="117" t="n">
         <v>3</v>
       </c>
       <c r="G161" s="35" t="inlineStr">
@@ -28796,7 +28870,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F163" s="115" t="n">
+      <c r="F163" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G163" s="35" t="n"/>
@@ -28824,7 +28898,7 @@
           <t>International</t>
         </is>
       </c>
-      <c r="F164" s="115" t="n">
+      <c r="F164" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G164" s="161" t="n"/>
@@ -28924,7 +28998,7 @@
           <t>School of Trades &amp; Technology</t>
         </is>
       </c>
-      <c r="B167" s="112" t="inlineStr">
+      <c r="B167" s="107" t="inlineStr">
         <is>
           <t>Trades Skills Training</t>
         </is>
@@ -28944,7 +29018,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F167" s="115" t="n">
+      <c r="F167" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G167" s="35" t="n">
@@ -29006,7 +29080,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F169" s="115" t="n">
+      <c r="F169" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G169" s="35" t="n"/>
@@ -29066,7 +29140,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F171" s="115" t="n">
+      <c r="F171" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G171" s="35" t="n">
@@ -29128,7 +29202,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F173" s="115" t="n">
+      <c r="F173" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G173" s="35" t="n"/>
@@ -29232,7 +29306,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F176" s="115" t="n">
+      <c r="F176" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G176" s="35" t="inlineStr">
@@ -29296,7 +29370,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F178" s="115" t="n">
+      <c r="F178" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G178" s="35" t="inlineStr">
@@ -29360,7 +29434,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F180" s="115" t="n">
+      <c r="F180" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G180" s="35" t="n">
@@ -29422,7 +29496,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F182" s="115" t="n">
+      <c r="F182" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G182" s="35" t="n"/>
@@ -29482,7 +29556,7 @@
           <t>Domestic</t>
         </is>
       </c>
-      <c r="F184" s="115" t="n">
+      <c r="F184" s="117" t="n">
         <v>1</v>
       </c>
       <c r="G184" s="35" t="n">
@@ -29547,7 +29621,7 @@
       <c r="F186" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="G186" s="115" t="n">
+      <c r="G186" s="117" t="n">
         <v>20</v>
       </c>
       <c r="H186" s="9" t="n"/>
@@ -29727,7 +29801,7 @@
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" s="53">
-      <c r="A192" s="158" t="inlineStr">
+      <c r="A192" s="120" t="inlineStr">
         <is>
           <t>Keyano College Total</t>
         </is>
@@ -29739,10 +29813,10 @@
       <c r="F192" s="166" t="n"/>
       <c r="G192" s="8" t="n"/>
       <c r="H192" s="8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" s="8" t="n">
         <v>0</v>
@@ -29767,9 +29841,9 @@
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" s="53">
-      <c r="A193" s="156" t="inlineStr">
-        <is>
-          <t>*Programs highlighted in green are nearing or may have surpassed their targets. Programs highlighted in yellow have less than ten accepted applicants. Please note that some of these represent year 2 of a diploma program for which we generally have low applications.</t>
+      <c r="A193" s="114" t="inlineStr">
+        <is>
+          <t>*Programs highlighted in green are nearing or may have surpassed their targets. Programs highlighted in yellow have less than ten accepted applicants. Programs highlighted in red have accepted no students. Please note that some of these represent year 2 of a diploma program for which we generally have low applications.</t>
         </is>
       </c>
       <c r="B193" s="159" t="n"/>
@@ -29838,30 +29912,30 @@
     <mergeCell ref="C184:C185"/>
     <mergeCell ref="C144:F144"/>
     <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="C45:C48"/>
     <mergeCell ref="G97:G98"/>
-    <mergeCell ref="C147:C148"/>
     <mergeCell ref="C171:C172"/>
     <mergeCell ref="G87:G88"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G68:G69"/>
     <mergeCell ref="C173:C174"/>
+    <mergeCell ref="G49:G50"/>
     <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="C105:C106"/>
-    <mergeCell ref="G5:G6"/>
     <mergeCell ref="G33:G34"/>
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="G113:G114"/>
+    <mergeCell ref="G60:G61"/>
     <mergeCell ref="C91:C94"/>
-    <mergeCell ref="G60:G61"/>
     <mergeCell ref="C121:F121"/>
     <mergeCell ref="G41:G42"/>
     <mergeCell ref="G35:G36"/>
     <mergeCell ref="G163:G164"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G115:G116"/>
     <mergeCell ref="H1:P1"/>
     <mergeCell ref="B3:B53"/>
@@ -29872,10 +29946,10 @@
     <mergeCell ref="G149:G150"/>
     <mergeCell ref="B54:B72"/>
     <mergeCell ref="C101:C104"/>
-    <mergeCell ref="G136:G137"/>
     <mergeCell ref="G101:G102"/>
     <mergeCell ref="G70:G71"/>
     <mergeCell ref="C5:C8"/>
+    <mergeCell ref="G136:G137"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="G117:G118"/>
@@ -29883,12 +29957,12 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G151:G152"/>
     <mergeCell ref="G122:G123"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="G178:G179"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="C29:C32"/>
     <mergeCell ref="C54:C55"/>
+    <mergeCell ref="G39:G40"/>
     <mergeCell ref="C190:F190"/>
-    <mergeCell ref="G39:G40"/>
     <mergeCell ref="G62:G63"/>
     <mergeCell ref="B105:B121"/>
     <mergeCell ref="G128:G129"/>
@@ -29896,8 +29970,8 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C175:F175"/>
     <mergeCell ref="G64:G65"/>
+    <mergeCell ref="C21:C24"/>
     <mergeCell ref="C134:C137"/>
-    <mergeCell ref="C21:C24"/>
     <mergeCell ref="G73:G74"/>
     <mergeCell ref="C138:C139"/>
     <mergeCell ref="G167:G168"/>
@@ -29913,50 +29987,49 @@
     <mergeCell ref="G153:G154"/>
     <mergeCell ref="C124:F124"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A193:P193"/>
-    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G27:G28"/>
     <mergeCell ref="C140:C143"/>
     <mergeCell ref="G140:G141"/>
     <mergeCell ref="G155:G156"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="C149:C152"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A193:P193"/>
     <mergeCell ref="C126:C127"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="G130:G131"/>
     <mergeCell ref="G173:G174"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G11:G12"/>
     <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="G77:G78"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="C58:C59"/>
     <mergeCell ref="A167:A190"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="G126:G127"/>
     <mergeCell ref="G132:G133"/>
     <mergeCell ref="C113:C114"/>
-    <mergeCell ref="G145:G146"/>
     <mergeCell ref="C157:C162"/>
     <mergeCell ref="C165:F165"/>
     <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C115:C116"/>
     <mergeCell ref="G157:G158"/>
-    <mergeCell ref="C115:C116"/>
     <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C9:C12"/>
     <mergeCell ref="G180:G181"/>
-    <mergeCell ref="C9:C12"/>
     <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="G186:G187"/>
-    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G142:G143"/>
     <mergeCell ref="C167:C168"/>
-    <mergeCell ref="G142:G143"/>
     <mergeCell ref="G95:G96"/>
     <mergeCell ref="C176:C177"/>
     <mergeCell ref="G79:G80"/>
     <mergeCell ref="C169:C170"/>
     <mergeCell ref="C122:C123"/>
+    <mergeCell ref="C153:C156"/>
     <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C153:C156"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="G134:G135"/>
     <mergeCell ref="C81:C84"/>
@@ -29971,50 +30044,51 @@
     <mergeCell ref="C107:C110"/>
     <mergeCell ref="G105:G106"/>
     <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="G17:G18"/>
+    <mergeCell ref="G176:G177"/>
     <mergeCell ref="B126:B144"/>
     <mergeCell ref="G184:G185"/>
     <mergeCell ref="G66:G67"/>
+    <mergeCell ref="C73:C76"/>
     <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C73:C76"/>
     <mergeCell ref="A126:A165"/>
     <mergeCell ref="G107:G108"/>
     <mergeCell ref="A192:F192"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="C41:C44"/>
+    <mergeCell ref="G111:G112"/>
     <mergeCell ref="C180:C181"/>
     <mergeCell ref="G147:G148"/>
     <mergeCell ref="B176:B190"/>
     <mergeCell ref="G171:G172"/>
+    <mergeCell ref="C25:C28"/>
     <mergeCell ref="G83:G84"/>
-    <mergeCell ref="C25:C28"/>
     <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C99:C100"/>
     <mergeCell ref="B122:B124"/>
-    <mergeCell ref="C99:C100"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C182:C183"/>
     <mergeCell ref="G93:G94"/>
     <mergeCell ref="C163:C164"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C130:C133"/>
     <mergeCell ref="G188:G189"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="C17:C20"/>
     <mergeCell ref="G182:G183"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="G85:G86"/>
     <mergeCell ref="G54:G55"/>
     <mergeCell ref="G119:G120"/>
     <mergeCell ref="A3:A124"/>
+    <mergeCell ref="G109:G110"/>
     <mergeCell ref="C145:C146"/>
-    <mergeCell ref="G109:G110"/>
     <mergeCell ref="G47:G48"/>
     <mergeCell ref="B167:B175"/>
     <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="G145:G146"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I52 I54:I71 I73:I120 I122:I123 I126:I143 I145:I164 I167:I174 I176:I189">
     <cfRule type="cellIs" priority="2" operator="between" dxfId="2">

--- a/Output Files/KC 2025-26 Applications KPI as of June 02, 2025.xlsx
+++ b/Output Files/KC 2025-26 Applications KPI as of June 02, 2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="909" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -1635,7 +1635,70 @@
     <cellStyle name="Normal 5" xfId="8"/>
     <cellStyle name="Normal 6" xfId="9"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF009999"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2831,7 +2894,7 @@
         <v>1425</v>
       </c>
       <c r="I12" s="50" t="n">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="J12" s="49" t="n">
         <v>39</v>
@@ -2840,10 +2903,10 @@
         <v>39</v>
       </c>
       <c r="L12" s="49" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M12" s="51" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" ht="50.1" customHeight="1" s="53">
@@ -2955,37 +3018,37 @@
     </row>
     <row r="18" ht="15.75" customHeight="1" s="53">
       <c r="E18" s="46" t="n">
-        <v>1406</v>
+        <v>1297</v>
       </c>
       <c r="F18" s="47" t="n">
-        <v>1611</v>
+        <v>1297</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="H18" s="49" t="n">
-        <v>4708</v>
+        <v>4369</v>
       </c>
       <c r="I18" s="50" t="n">
-        <v>5084</v>
+        <v>4655</v>
       </c>
       <c r="J18" s="49" t="n">
-        <v>3046</v>
+        <v>2479</v>
       </c>
       <c r="K18" s="52" t="n">
-        <v>3382</v>
+        <v>2713</v>
       </c>
       <c r="L18" s="49" t="n">
-        <v>2097</v>
+        <v>1645</v>
       </c>
       <c r="M18" s="51" t="n">
-        <v>2282</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="19" ht="50.1" customHeight="1" s="53" thickBot="1">
       <c r="E19" s="182" t="inlineStr">
         <is>
-          <t>*The unique number of 1406 Fall Applicants is 70.1% lower in comparison with Fall 2024. The number of International applications is 493 representing 30.6% of total applications.</t>
+          <t>*The unique number of 1297 Fall Applicants is 70.3% lower in comparison with Fall 2024. The number of International applications is 441 representing 34.0% of total applications.</t>
         </is>
       </c>
       <c r="F19" s="183" t="n"/>
@@ -3093,37 +3156,37 @@
     </row>
     <row r="24" ht="15.75" customHeight="1" s="53">
       <c r="E24" s="46" t="n">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="G24" s="48" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="H24" s="49" t="n">
-        <v>1125</v>
+        <v>994</v>
       </c>
       <c r="I24" s="50" t="n">
-        <v>1146</v>
+        <v>1007</v>
       </c>
       <c r="J24" s="49" t="n">
-        <v>1446</v>
+        <v>326</v>
       </c>
       <c r="K24" s="50" t="n">
-        <v>1462</v>
+        <v>331</v>
       </c>
       <c r="L24" s="49" t="n">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="M24" s="51" t="n">
-        <v>305</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" ht="50.1" customHeight="1" s="53" thickBot="1">
       <c r="E25" s="182" t="inlineStr">
         <is>
-          <t>*The unique number of 110 Winter Applicants is 90.2% lower in comparison with Winter 2025. The number of International applications is 68 representing 57.6% of total applications.</t>
+          <t>*The unique number of 33 Winter Applicants is 96.7% lower in comparison with Winter 2025. The number of International applications is 21 representing 63.6% of total applications.</t>
         </is>
       </c>
       <c r="F25" s="183" t="n"/>
@@ -3230,10 +3293,10 @@
     <row r="30" ht="15.75" customHeight="1" s="53">
       <c r="C30" s="57" t="n"/>
       <c r="E30" s="46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>0</v>
@@ -3245,22 +3308,22 @@
         <v>2</v>
       </c>
       <c r="J30" s="49" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K30" s="50" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="L30" s="49" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M30" s="51" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" ht="50.1" customHeight="1" s="53">
       <c r="E31" s="180" t="inlineStr">
         <is>
-          <t>*The unique number of 2 Spring Applicants is 0.0% higher in comparison with Spring 2025. The number of International applications is 0 representing 0.0% of total applications.</t>
+          <t>*The unique number of 1 Spring Applicants is 50.0% lower in comparison with Spring 2025. The number of International applications is 0 representing 0.0% of total applications.</t>
         </is>
       </c>
       <c r="F31" s="165" t="n"/>
@@ -3314,9 +3377,9 @@
   </sheetPr>
   <dimension ref="A1:P195"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P120" sqref="P120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3696,10 +3759,10 @@
       </c>
       <c r="G10" s="161" t="n"/>
       <c r="H10" s="9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I10" s="35" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="9" t="n"/>
       <c r="K10" s="35" t="n"/>
@@ -3707,10 +3770,10 @@
       <c r="M10" s="35" t="n"/>
       <c r="N10" s="35" t="n"/>
       <c r="O10" s="35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="53">
@@ -3764,10 +3827,10 @@
       </c>
       <c r="G12" s="195" t="n"/>
       <c r="H12" s="9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="9" t="n"/>
       <c r="K12" s="35" t="n"/>
@@ -3775,7 +3838,7 @@
       <c r="M12" s="35" t="n"/>
       <c r="N12" s="35" t="n"/>
       <c r="O12" s="35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>1</v>
@@ -7111,7 +7174,11 @@
           <t>Applied IT Specialist</t>
         </is>
       </c>
-      <c r="D119" s="25" t="n"/>
+      <c r="D119" s="25" t="inlineStr">
+        <is>
+          <t>AITS</t>
+        </is>
+      </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
           <t>Domestic</t>
@@ -7139,7 +7206,11 @@
       <c r="A120" s="192" t="n"/>
       <c r="B120" s="193" t="n"/>
       <c r="C120" s="161" t="n"/>
-      <c r="D120" s="25" t="n"/>
+      <c r="D120" s="25" t="inlineStr">
+        <is>
+          <t>AITS</t>
+        </is>
+      </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
           <t>International</t>
@@ -8979,10 +9050,10 @@
       <c r="M176" s="35" t="n"/>
       <c r="N176" s="35" t="n"/>
       <c r="O176" s="35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P176" s="3" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.8947368421052632</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1" s="53">
@@ -9431,10 +9502,10 @@
         <v>0</v>
       </c>
       <c r="O190" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P190" s="39" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1" s="53">
@@ -9471,10 +9542,10 @@
         <v>0</v>
       </c>
       <c r="O191" s="5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P191" s="40" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9130434782608695</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" s="53">
@@ -9511,10 +9582,10 @@
         <v>0</v>
       </c>
       <c r="O192" s="8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P192" s="12" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" s="53">
@@ -9767,7 +9838,29 @@
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="G145:G146"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I52 I54:I71 I73:I120 I122:I123 I126:I143 I145:I164 I167:I174 I176:I189">
+  <conditionalFormatting sqref="I3:I52 I54:I71 I73:I118 I122:I123 I126:I143 I145:I164 I167:I174 I176:I189">
+    <cfRule type="cellIs" priority="6" operator="between" dxfId="2">
+      <formula>10</formula>
+      <formula>100000000</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="between" dxfId="1">
+      <formula>1</formula>
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8" dxfId="0">
+      <formula>AND(I3=0, I3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P118 P121:P1048576">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I119:I120">
     <cfRule type="cellIs" priority="2" operator="between" dxfId="2">
       <formula>10</formula>
       <formula>100000000</formula>
@@ -9777,10 +9870,10 @@
       <formula>9</formula>
     </cfRule>
     <cfRule type="expression" priority="4" dxfId="0">
-      <formula>AND(I3=0, I3&lt;&gt;"")</formula>
+      <formula>AND(I119=0, I119&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
+  <conditionalFormatting sqref="P119:P120">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Signs">
         <cfvo type="percent" val="0"/>
@@ -9801,9 +9894,9 @@
   </sheetPr>
   <dimension ref="A1:P195"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A193" sqref="A193:P193"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P119" sqref="P119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -9959,22 +10052,20 @@
         </is>
       </c>
       <c r="H3" s="9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I3" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" s="9" t="n"/>
       <c r="K3" s="35" t="n"/>
       <c r="L3" s="35" t="n"/>
       <c r="M3" s="35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N3" s="35" t="n"/>
       <c r="O3" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>1</v>
@@ -10002,19 +10093,21 @@
         <v>2</v>
       </c>
       <c r="I4" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="9" t="n"/>
       <c r="K4" s="35" t="n"/>
       <c r="L4" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M4" s="35" t="n"/>
       <c r="N4" s="35" t="n"/>
-      <c r="O4" s="35" t="n"/>
-      <c r="P4" s="3" t="n"/>
+      <c r="O4" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" s="53">
       <c r="A5" s="192" t="n"/>
@@ -10043,12 +10136,14 @@
         </is>
       </c>
       <c r="H5" s="9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" s="9" t="n"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" s="35" t="n"/>
       <c r="L5" s="35" t="n">
         <v>1</v>
@@ -10058,10 +10153,10 @@
       </c>
       <c r="N5" s="35" t="n"/>
       <c r="O5" s="35" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>0.75</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" s="53">
@@ -10083,26 +10178,22 @@
       </c>
       <c r="G6" s="161" t="n"/>
       <c r="H6" s="9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I6" s="35" t="n">
         <v>5</v>
       </c>
       <c r="J6" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="35" t="n"/>
       <c r="L6" s="35" t="n"/>
       <c r="M6" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="35" t="n"/>
-      <c r="O6" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="O6" s="35" t="n"/>
+      <c r="P6" s="3" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" s="53">
       <c r="A7" s="192" t="n"/>
@@ -10127,10 +10218,10 @@
         </is>
       </c>
       <c r="H7" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="9" t="n"/>
       <c r="K7" s="35" t="n"/>
@@ -10138,7 +10229,7 @@
       <c r="M7" s="35" t="n"/>
       <c r="N7" s="35" t="n"/>
       <c r="O7" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>1</v>
@@ -10163,10 +10254,10 @@
       </c>
       <c r="G8" s="161" t="n"/>
       <c r="H8" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="9" t="n"/>
       <c r="K8" s="35" t="n"/>
@@ -10174,7 +10265,7 @@
       <c r="M8" s="35" t="n"/>
       <c r="N8" s="35" t="n"/>
       <c r="O8" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>1</v>
@@ -10207,27 +10298,27 @@
         </is>
       </c>
       <c r="H9" s="9" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I9" s="35" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J9" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" s="35" t="n"/>
       <c r="L9" s="35" t="n">
         <v>1</v>
       </c>
       <c r="M9" s="35" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N9" s="35" t="n"/>
       <c r="O9" s="35" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1" s="53">
@@ -10249,27 +10340,25 @@
       </c>
       <c r="G10" s="161" t="n"/>
       <c r="H10" s="9" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I10" s="35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J10" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J10" s="9" t="n"/>
       <c r="K10" s="35" t="n"/>
       <c r="L10" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="35" t="n">
         <v>5</v>
       </c>
       <c r="N10" s="35" t="n"/>
       <c r="O10" s="35" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.625</v>
+        <v>0.5909090909090909</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" s="53">
@@ -10323,10 +10412,10 @@
       </c>
       <c r="G12" s="195" t="n"/>
       <c r="H12" s="9" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I12" s="35" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J12" s="9" t="n"/>
       <c r="K12" s="35" t="n"/>
@@ -10334,10 +10423,10 @@
       <c r="M12" s="35" t="n"/>
       <c r="N12" s="35" t="n"/>
       <c r="O12" s="35" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1" s="53">
@@ -10503,25 +10592,23 @@
         </is>
       </c>
       <c r="H17" s="9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I17" s="35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J17" s="9" t="n"/>
       <c r="K17" s="35" t="n"/>
-      <c r="L17" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L17" s="35" t="n"/>
       <c r="M17" s="35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N17" s="35" t="n"/>
       <c r="O17" s="35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0.75</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" s="53">
@@ -10543,23 +10630,23 @@
       </c>
       <c r="G18" s="193" t="n"/>
       <c r="H18" s="9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I18" s="35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="9" t="n"/>
       <c r="K18" s="35" t="n"/>
       <c r="L18" s="35" t="n"/>
       <c r="M18" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" s="35" t="n"/>
       <c r="O18" s="35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>0.8</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" s="53">
@@ -10687,27 +10774,27 @@
       </c>
       <c r="G22" s="193" t="n"/>
       <c r="H22" s="9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I22" s="35" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="35" t="n">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" s="35" t="n"/>
       <c r="L22" s="35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M22" s="35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N22" s="35" t="n"/>
       <c r="O22" s="35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>0.5</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1" s="53">
@@ -11055,12 +11142,8 @@
       <c r="L33" s="35" t="n"/>
       <c r="M33" s="35" t="n"/>
       <c r="N33" s="35" t="n"/>
-      <c r="O33" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O33" s="35" t="n"/>
+      <c r="P33" s="3" t="n"/>
     </row>
     <row r="34" ht="15.75" customHeight="1" s="53">
       <c r="A34" s="192" t="n"/>
@@ -11313,11 +11396,11 @@
         <v>0</v>
       </c>
       <c r="J41" s="9" t="n"/>
-      <c r="K41" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="K41" s="35" t="n"/>
       <c r="L41" s="35" t="n"/>
-      <c r="M41" s="35" t="n"/>
+      <c r="M41" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="N41" s="35" t="n"/>
       <c r="O41" s="35" t="n"/>
       <c r="P41" s="3" t="n"/>
@@ -11470,17 +11553,11 @@
         <v>1</v>
       </c>
       <c r="G46" s="161" t="n"/>
-      <c r="H46" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H46" s="9" t="n"/>
+      <c r="I46" s="35" t="n"/>
       <c r="J46" s="9" t="n"/>
       <c r="K46" s="35" t="n"/>
-      <c r="L46" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L46" s="35" t="n"/>
       <c r="M46" s="35" t="n"/>
       <c r="N46" s="35" t="n"/>
       <c r="O46" s="35" t="n"/>
@@ -11573,16 +11650,16 @@
         </is>
       </c>
       <c r="H49" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I49" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="9" t="n"/>
       <c r="K49" s="35" t="n"/>
       <c r="L49" s="35" t="n"/>
       <c r="M49" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N49" s="35" t="n"/>
       <c r="O49" s="35" t="n"/>
@@ -11645,25 +11722,25 @@
         <v>30</v>
       </c>
       <c r="H51" s="9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I51" s="35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J51" s="9" t="n"/>
       <c r="K51" s="35" t="n"/>
       <c r="L51" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="35" t="n">
         <v>2</v>
-      </c>
-      <c r="M51" s="35" t="n">
-        <v>4</v>
       </c>
       <c r="N51" s="35" t="n"/>
       <c r="O51" s="35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P51" s="3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1" s="53">
@@ -11690,7 +11767,9 @@
       <c r="I52" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="J52" s="9" t="n"/>
+      <c r="J52" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" s="35" t="n"/>
       <c r="L52" s="35" t="n"/>
       <c r="M52" s="35" t="n">
@@ -11713,31 +11792,31 @@
       <c r="F53" s="166" t="n"/>
       <c r="G53" s="7" t="n"/>
       <c r="H53" s="7" t="n">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="I53" s="7" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="J53" s="7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K53" s="7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L53" s="7" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M53" s="7" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="N53" s="7" t="n">
         <v>0</v>
       </c>
       <c r="O53" s="7" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="P53" s="39" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1" s="53">
@@ -11775,11 +11854,11 @@
         <v>0</v>
       </c>
       <c r="J54" s="9" t="n"/>
-      <c r="K54" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="K54" s="35" t="n"/>
       <c r="L54" s="35" t="n"/>
-      <c r="M54" s="35" t="n"/>
+      <c r="M54" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="N54" s="35" t="n"/>
       <c r="O54" s="35" t="n"/>
       <c r="P54" s="3" t="n"/>
@@ -11809,11 +11888,11 @@
         <v>0</v>
       </c>
       <c r="J55" s="9" t="n"/>
-      <c r="K55" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="K55" s="35" t="n"/>
       <c r="L55" s="35" t="n"/>
-      <c r="M55" s="35" t="n"/>
+      <c r="M55" s="35" t="n">
+        <v>1</v>
+      </c>
       <c r="N55" s="35" t="n"/>
       <c r="O55" s="35" t="n"/>
       <c r="P55" s="3" t="n"/>
@@ -11845,18 +11924,16 @@
         </is>
       </c>
       <c r="H56" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I56" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="J56" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="J56" s="9" t="n"/>
       <c r="K56" s="35" t="n"/>
       <c r="L56" s="35" t="n"/>
       <c r="M56" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" s="35" t="n"/>
       <c r="O56" s="35" t="n"/>
@@ -11880,18 +11957,12 @@
         <v>1</v>
       </c>
       <c r="G57" s="161" t="n"/>
-      <c r="H57" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H57" s="9" t="n"/>
+      <c r="I57" s="35" t="n"/>
       <c r="J57" s="9" t="n"/>
       <c r="K57" s="35" t="n"/>
       <c r="L57" s="35" t="n"/>
-      <c r="M57" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M57" s="35" t="n"/>
       <c r="N57" s="35" t="n"/>
       <c r="O57" s="35" t="n"/>
       <c r="P57" s="3" t="n"/>
@@ -11923,26 +11994,18 @@
         </is>
       </c>
       <c r="H58" s="9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I58" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="J58" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J58" s="9" t="n"/>
       <c r="K58" s="35" t="n"/>
       <c r="L58" s="35" t="n"/>
-      <c r="M58" s="35" t="n">
-        <v>4</v>
-      </c>
+      <c r="M58" s="35" t="n"/>
       <c r="N58" s="35" t="n"/>
-      <c r="O58" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P58" s="3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O58" s="35" t="n"/>
+      <c r="P58" s="3" t="n"/>
     </row>
     <row r="59" ht="15.75" customHeight="1" s="53">
       <c r="A59" s="192" t="n"/>
@@ -12003,7 +12066,7 @@
         </is>
       </c>
       <c r="H60" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I60" s="35" t="n">
         <v>1</v>
@@ -12012,15 +12075,11 @@
       <c r="K60" s="35" t="n"/>
       <c r="L60" s="35" t="n"/>
       <c r="M60" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N60" s="35" t="n"/>
-      <c r="O60" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O60" s="35" t="n"/>
+      <c r="P60" s="3" t="n"/>
     </row>
     <row r="61" ht="15.75" customHeight="1" s="53">
       <c r="A61" s="192" t="n"/>
@@ -12077,27 +12136,25 @@
         </is>
       </c>
       <c r="H62" s="9" t="n">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="I62" s="35" t="n">
-        <v>50</v>
-      </c>
-      <c r="J62" s="9" t="n">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="J62" s="9" t="n"/>
       <c r="K62" s="35" t="n"/>
       <c r="L62" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="M62" s="35" t="n">
         <v>5</v>
-      </c>
-      <c r="M62" s="35" t="n">
-        <v>14</v>
       </c>
       <c r="N62" s="35" t="n"/>
       <c r="O62" s="35" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="P62" s="3" t="n">
-        <v>0.54</v>
+        <v>0.2941176470588235</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1" s="53">
@@ -12119,26 +12176,22 @@
       </c>
       <c r="G63" s="161" t="n"/>
       <c r="H63" s="9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I63" s="35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J63" s="9" t="n">
         <v>2</v>
       </c>
       <c r="K63" s="35" t="n"/>
       <c r="L63" s="35" t="n"/>
-      <c r="M63" s="35" t="n"/>
-      <c r="N63" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O63" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="P63" s="3" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="M63" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" s="35" t="n"/>
+      <c r="O63" s="35" t="n"/>
+      <c r="P63" s="3" t="n"/>
     </row>
     <row r="64" ht="15.75" customHeight="1" s="53">
       <c r="A64" s="192" t="n"/>
@@ -12167,27 +12220,27 @@
         </is>
       </c>
       <c r="H64" s="9" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="I64" s="35" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="J64" s="9" t="n">
         <v>2</v>
       </c>
       <c r="K64" s="35" t="n"/>
       <c r="L64" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M64" s="35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N64" s="35" t="n"/>
       <c r="O64" s="35" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P64" s="3" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1" s="53">
@@ -12311,29 +12364,27 @@
         </is>
       </c>
       <c r="H68" s="9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I68" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" s="35" t="n"/>
+      <c r="L68" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" s="35" t="n">
         <v>6</v>
-      </c>
-      <c r="J68" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L68" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" s="35" t="n">
-        <v>5</v>
       </c>
       <c r="N68" s="35" t="n"/>
       <c r="O68" s="35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P68" s="3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1" s="53">
@@ -12358,13 +12409,11 @@
         <v>3</v>
       </c>
       <c r="I69" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" s="9" t="n"/>
       <c r="K69" s="35" t="n"/>
-      <c r="L69" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L69" s="35" t="n"/>
       <c r="M69" s="35" t="n"/>
       <c r="N69" s="35" t="n"/>
       <c r="O69" s="35" t="n"/>
@@ -12443,31 +12492,31 @@
       <c r="F72" s="166" t="n"/>
       <c r="G72" s="20" t="n"/>
       <c r="H72" s="20" t="n">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="I72" s="20" t="n">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="J72" s="20" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K72" s="20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L72" s="20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M72" s="20" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N72" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" s="20" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="P72" s="39" t="n">
-        <v>0.5945945945945946</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" s="53">
@@ -12495,23 +12544,23 @@
         <v>30</v>
       </c>
       <c r="H73" s="9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I73" s="35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" s="9" t="n"/>
       <c r="K73" s="35" t="n"/>
       <c r="L73" s="35" t="n"/>
       <c r="M73" s="35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N73" s="35" t="n"/>
       <c r="O73" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P73" s="3" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1" s="53">
@@ -12538,23 +12587,21 @@
       <c r="I74" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="J74" s="9" t="n"/>
+      <c r="J74" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="L74" s="35" t="n">
-        <v>3</v>
-      </c>
       <c r="M74" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N74" s="35" t="n"/>
-      <c r="O74" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="P74" s="3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="O74" s="35" t="n"/>
+      <c r="P74" s="3" t="n"/>
     </row>
     <row r="75" ht="15.75" customHeight="1" s="53">
       <c r="A75" s="192" t="n"/>
@@ -12639,10 +12686,10 @@
         <v>30</v>
       </c>
       <c r="H77" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I77" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="9" t="n">
         <v>1</v>
@@ -12650,15 +12697,11 @@
       <c r="K77" s="35" t="n"/>
       <c r="L77" s="35" t="n"/>
       <c r="M77" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N77" s="35" t="n"/>
-      <c r="O77" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P77" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O77" s="35" t="n"/>
+      <c r="P77" s="3" t="n"/>
     </row>
     <row r="78" ht="15.75" customHeight="1" s="53">
       <c r="A78" s="192" t="n"/>
@@ -12679,10 +12722,10 @@
       </c>
       <c r="G78" s="193" t="n"/>
       <c r="H78" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I78" s="35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" s="9" t="n"/>
       <c r="K78" s="35" t="n"/>
@@ -12691,12 +12734,8 @@
         <v>3</v>
       </c>
       <c r="N78" s="35" t="n"/>
-      <c r="O78" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="P78" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O78" s="35" t="n"/>
+      <c r="P78" s="3" t="n"/>
     </row>
     <row r="79" ht="15.75" customHeight="1" s="53">
       <c r="A79" s="192" t="n"/>
@@ -12746,23 +12785,15 @@
         <v>2</v>
       </c>
       <c r="G80" s="161" t="n"/>
-      <c r="H80" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I80" s="35" t="n">
-        <v>4</v>
-      </c>
+      <c r="H80" s="9" t="n"/>
+      <c r="I80" s="35" t="n"/>
       <c r="J80" s="9" t="n"/>
       <c r="K80" s="35" t="n"/>
       <c r="L80" s="35" t="n"/>
       <c r="M80" s="35" t="n"/>
       <c r="N80" s="35" t="n"/>
-      <c r="O80" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="P80" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O80" s="35" t="n"/>
+      <c r="P80" s="3" t="n"/>
     </row>
     <row r="81" ht="15.75" customHeight="1" s="53">
       <c r="A81" s="192" t="n"/>
@@ -12791,15 +12822,15 @@
         </is>
       </c>
       <c r="H81" s="9" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I81" s="35" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" s="9" t="n"/>
-      <c r="K81" s="35" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="J81" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" s="35" t="n"/>
       <c r="L81" s="35" t="n">
         <v>1</v>
       </c>
@@ -12808,10 +12839,10 @@
       </c>
       <c r="N81" s="35" t="n"/>
       <c r="O81" s="35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P81" s="3" t="n">
-        <v>0.625</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1" s="53">
@@ -12935,7 +12966,7 @@
         </is>
       </c>
       <c r="H85" s="9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I85" s="35" t="n">
         <v>3</v>
@@ -12944,18 +12975,16 @@
         <v>1</v>
       </c>
       <c r="K85" s="35" t="n"/>
-      <c r="L85" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L85" s="35" t="n"/>
       <c r="M85" s="35" t="n">
         <v>4</v>
       </c>
       <c r="N85" s="35" t="n"/>
       <c r="O85" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P85" s="3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1" s="53">
@@ -12976,18 +13005,12 @@
         <v>1</v>
       </c>
       <c r="G86" s="161" t="n"/>
-      <c r="H86" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H86" s="9" t="n"/>
+      <c r="I86" s="35" t="n"/>
       <c r="J86" s="9" t="n"/>
       <c r="K86" s="35" t="n"/>
       <c r="L86" s="35" t="n"/>
-      <c r="M86" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M86" s="35" t="n"/>
       <c r="N86" s="35" t="n"/>
       <c r="O86" s="35" t="n"/>
       <c r="P86" s="3" t="n"/>
@@ -13077,29 +13100,25 @@
         <v>30</v>
       </c>
       <c r="H89" s="9" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I89" s="35" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J89" s="9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K89" s="35" t="n"/>
-      <c r="L89" s="35" t="n">
-        <v>2</v>
-      </c>
+      <c r="L89" s="35" t="n"/>
       <c r="M89" s="35" t="n">
-        <v>10</v>
-      </c>
-      <c r="N89" s="35" t="n">
-        <v>1</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N89" s="35" t="n"/>
       <c r="O89" s="35" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P89" s="3" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1" s="53">
@@ -13121,24 +13140,22 @@
       </c>
       <c r="G90" s="161" t="n"/>
       <c r="H90" s="9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I90" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="J90" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" s="35" t="n"/>
       <c r="L90" s="35" t="n"/>
       <c r="M90" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N90" s="35" t="n"/>
-      <c r="O90" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P90" s="3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O90" s="35" t="n"/>
+      <c r="P90" s="3" t="n"/>
     </row>
     <row r="91" ht="15.75" customHeight="1" s="53">
       <c r="A91" s="192" t="n"/>
@@ -13167,27 +13184,23 @@
         </is>
       </c>
       <c r="H91" s="9" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I91" s="35" t="n">
-        <v>14</v>
-      </c>
-      <c r="J91" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K91" s="35" t="n">
-        <v>1</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J91" s="9" t="n"/>
+      <c r="K91" s="35" t="n"/>
       <c r="L91" s="35" t="n"/>
       <c r="M91" s="35" t="n">
         <v>8</v>
       </c>
       <c r="N91" s="35" t="n"/>
       <c r="O91" s="35" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="P91" s="3" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1" s="53">
@@ -13311,7 +13324,7 @@
         </is>
       </c>
       <c r="H95" s="9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I95" s="35" t="n">
         <v>2</v>
@@ -13319,7 +13332,7 @@
       <c r="J95" s="9" t="n"/>
       <c r="K95" s="35" t="n"/>
       <c r="L95" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" s="35" t="n">
         <v>2</v>
@@ -13346,17 +13359,11 @@
         <v>1</v>
       </c>
       <c r="G96" s="161" t="n"/>
-      <c r="H96" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H96" s="9" t="n"/>
+      <c r="I96" s="35" t="n"/>
       <c r="J96" s="9" t="n"/>
       <c r="K96" s="35" t="n"/>
-      <c r="L96" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L96" s="35" t="n"/>
       <c r="M96" s="35" t="n"/>
       <c r="N96" s="35" t="n"/>
       <c r="O96" s="35" t="n"/>
@@ -13449,30 +13456,20 @@
         </is>
       </c>
       <c r="H99" s="9" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I99" s="35" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K99" s="35" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J99" s="9" t="n"/>
+      <c r="K99" s="35" t="n"/>
       <c r="L99" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="M99" s="35" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M99" s="35" t="n"/>
       <c r="N99" s="35" t="n"/>
-      <c r="O99" s="35" t="n">
-        <v>7</v>
-      </c>
-      <c r="P99" s="3" t="n">
-        <v>0.5833333333333334</v>
-      </c>
+      <c r="O99" s="35" t="n"/>
+      <c r="P99" s="3" t="n"/>
     </row>
     <row r="100" ht="15.75" customHeight="1" s="53">
       <c r="A100" s="192" t="n"/>
@@ -13581,12 +13578,8 @@
       <c r="L102" s="35" t="n"/>
       <c r="M102" s="35" t="n"/>
       <c r="N102" s="35" t="n"/>
-      <c r="O102" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P102" s="3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O102" s="35" t="n"/>
+      <c r="P102" s="3" t="n"/>
     </row>
     <row r="103" ht="15.75" customHeight="1" s="53">
       <c r="A103" s="192" t="n"/>
@@ -13755,23 +13748,23 @@
         </is>
       </c>
       <c r="H107" s="9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I107" s="35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J107" s="9" t="n"/>
       <c r="K107" s="35" t="n"/>
       <c r="L107" s="35" t="n"/>
       <c r="M107" s="35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N107" s="35" t="n"/>
       <c r="O107" s="35" t="n">
         <v>3</v>
       </c>
       <c r="P107" s="3" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1" s="53">
@@ -13793,29 +13786,29 @@
       </c>
       <c r="G108" s="161" t="n"/>
       <c r="H108" s="9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I108" s="35" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J108" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K108" s="35" t="n">
         <v>1</v>
       </c>
       <c r="L108" s="35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M108" s="35" t="n">
         <v>10</v>
       </c>
       <c r="N108" s="35" t="n"/>
       <c r="O108" s="35" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P108" s="3" t="n">
-        <v>0.5</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1" s="53">
@@ -13868,23 +13861,15 @@
         <v>2</v>
       </c>
       <c r="G110" s="161" t="n"/>
-      <c r="H110" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="H110" s="9" t="n"/>
+      <c r="I110" s="35" t="n"/>
       <c r="J110" s="9" t="n"/>
       <c r="K110" s="35" t="n"/>
       <c r="L110" s="35" t="n"/>
       <c r="M110" s="35" t="n"/>
       <c r="N110" s="35" t="n"/>
-      <c r="O110" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P110" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O110" s="35" t="n"/>
+      <c r="P110" s="3" t="n"/>
     </row>
     <row r="111" ht="15.75" customHeight="1" s="53">
       <c r="A111" s="192" t="n"/>
@@ -13913,22 +13898,18 @@
         </is>
       </c>
       <c r="H111" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" s="9" t="n"/>
       <c r="K111" s="35" t="n"/>
       <c r="L111" s="35" t="n"/>
       <c r="M111" s="35" t="n"/>
       <c r="N111" s="35" t="n"/>
-      <c r="O111" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P111" s="3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O111" s="35" t="n"/>
+      <c r="P111" s="3" t="n"/>
     </row>
     <row r="112" ht="15.75" customHeight="1" s="53">
       <c r="A112" s="192" t="n"/>
@@ -13991,28 +13972,20 @@
         </is>
       </c>
       <c r="H113" s="9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I113" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="J113" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K113" s="35" t="n">
-        <v>2</v>
-      </c>
+      <c r="J113" s="9" t="n"/>
+      <c r="K113" s="35" t="n"/>
       <c r="L113" s="35" t="n"/>
       <c r="M113" s="35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N113" s="35" t="n"/>
-      <c r="O113" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P113" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O113" s="35" t="n"/>
+      <c r="P113" s="3" t="n"/>
     </row>
     <row r="114" ht="15.75" customHeight="1" s="53">
       <c r="A114" s="192" t="n"/>
@@ -14033,7 +14006,7 @@
       </c>
       <c r="G114" s="161" t="n"/>
       <c r="H114" s="9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I114" s="35" t="n">
         <v>4</v>
@@ -14042,18 +14015,16 @@
         <v>1</v>
       </c>
       <c r="K114" s="35" t="n"/>
-      <c r="L114" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L114" s="35" t="n"/>
       <c r="M114" s="35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N114" s="35" t="n"/>
       <c r="O114" s="35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P114" s="3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1" s="53">
@@ -14192,7 +14163,11 @@
           <t>Applied IT Specialist</t>
         </is>
       </c>
-      <c r="D119" s="25" t="n"/>
+      <c r="D119" s="25" t="inlineStr">
+        <is>
+          <t>AITS</t>
+        </is>
+      </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
           <t>Domestic</t>
@@ -14220,7 +14195,11 @@
       <c r="A120" s="192" t="n"/>
       <c r="B120" s="193" t="n"/>
       <c r="C120" s="161" t="n"/>
-      <c r="D120" s="25" t="n"/>
+      <c r="D120" s="25" t="inlineStr">
+        <is>
+          <t>AITS</t>
+        </is>
+      </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
           <t>International</t>
@@ -14253,31 +14232,31 @@
       <c r="F121" s="166" t="n"/>
       <c r="G121" s="7" t="n"/>
       <c r="H121" s="7" t="n">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="I121" s="7" t="n">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="J121" s="7" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K121" s="7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L121" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M121" s="7" t="n">
+        <v>76</v>
+      </c>
+      <c r="N121" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="M121" s="7" t="n">
-        <v>83</v>
-      </c>
-      <c r="N121" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O121" s="7" t="n">
-        <v>77</v>
-      </c>
       <c r="P121" s="39" t="n">
-        <v>0.6754385964912281</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1" s="53">
@@ -14401,31 +14380,31 @@
       <c r="F125" s="165" t="n"/>
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="22" t="n">
-        <v>724</v>
+        <v>533</v>
       </c>
       <c r="I125" s="22" t="n">
-        <v>342</v>
+        <v>258</v>
       </c>
       <c r="J125" s="22" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K125" s="22" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="L125" s="22" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M125" s="22" t="n">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="N125" s="22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O125" s="22" t="n">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="P125" s="40" t="n">
-        <v>0.6812865497076024</v>
+        <v>0.2945736434108527</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1" s="53">
@@ -14701,18 +14680,18 @@
       </c>
       <c r="G134" s="36" t="n"/>
       <c r="H134" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I134" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" s="9" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="J134" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="L134" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L134" s="35" t="n"/>
       <c r="M134" s="35" t="n">
         <v>2</v>
       </c>
@@ -14739,10 +14718,10 @@
       </c>
       <c r="G135" s="161" t="n"/>
       <c r="H135" s="9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I135" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" s="9" t="n">
         <v>1</v>
@@ -14839,27 +14818,23 @@
       </c>
       <c r="G138" s="35" t="n"/>
       <c r="H138" s="9" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I138" s="35" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J138" s="9" t="n"/>
-      <c r="K138" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="K138" s="35" t="n"/>
       <c r="L138" s="35" t="n"/>
       <c r="M138" s="35" t="n">
-        <v>13</v>
-      </c>
-      <c r="N138" s="35" t="n">
         <v>8</v>
       </c>
+      <c r="N138" s="35" t="n"/>
       <c r="O138" s="35" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P138" s="3" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1" s="53">
@@ -14881,29 +14856,27 @@
       </c>
       <c r="G139" s="161" t="n"/>
       <c r="H139" s="9" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I139" s="35" t="n">
         <v>20</v>
       </c>
       <c r="J139" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K139" s="35" t="n"/>
       <c r="L139" s="35" t="n">
         <v>2</v>
       </c>
       <c r="M139" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N139" s="35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N139" s="35" t="n"/>
       <c r="O139" s="35" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P139" s="3" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1" s="53">
@@ -14933,31 +14906,29 @@
         </is>
       </c>
       <c r="H140" s="9" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I140" s="35" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J140" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K140" s="35" t="n">
+      <c r="K140" s="35" t="n"/>
+      <c r="L140" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="L140" s="35" t="n">
-        <v>3</v>
-      </c>
       <c r="M140" s="35" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N140" s="35" t="n">
         <v>2</v>
       </c>
       <c r="O140" s="35" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="P140" s="3" t="n">
-        <v>1</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1" s="53">
@@ -14979,14 +14950,14 @@
       </c>
       <c r="G141" s="164" t="n"/>
       <c r="H141" s="9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I141" s="35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J141" s="9" t="n"/>
       <c r="K141" s="35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L141" s="35" t="n">
         <v>1</v>
@@ -14994,12 +14965,14 @@
       <c r="M141" s="35" t="n">
         <v>8</v>
       </c>
-      <c r="N141" s="35" t="n"/>
+      <c r="N141" s="35" t="n">
+        <v>2</v>
+      </c>
       <c r="O141" s="35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P141" s="3" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1" s="53">
@@ -15075,31 +15048,31 @@
       <c r="F144" s="166" t="n"/>
       <c r="G144" s="6" t="n"/>
       <c r="H144" s="7" t="n">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="I144" s="7" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="J144" s="7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K144" s="7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L144" s="7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M144" s="7" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N144" s="7" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="O144" s="7" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P144" s="39" t="n">
-        <v>0.75</v>
+        <v>0.4680851063829787</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1" s="53">
@@ -15131,31 +15104,29 @@
         <v>18</v>
       </c>
       <c r="H145" s="9" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I145" s="35" t="n">
         <v>7</v>
       </c>
-      <c r="J145" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="J145" s="9" t="n"/>
       <c r="K145" s="35" t="n">
         <v>1</v>
       </c>
       <c r="L145" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" s="35" t="n">
+        <v>9</v>
+      </c>
+      <c r="N145" s="35" t="n">
+        <v>7</v>
+      </c>
+      <c r="O145" s="35" t="n">
         <v>2</v>
       </c>
-      <c r="M145" s="35" t="n">
-        <v>13</v>
-      </c>
-      <c r="N145" s="35" t="n">
-        <v>8</v>
-      </c>
-      <c r="O145" s="35" t="n">
-        <v>5</v>
-      </c>
       <c r="P145" s="3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1" s="53">
@@ -15187,19 +15158,19 @@
         <v>1</v>
       </c>
       <c r="L146" s="35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M146" s="35" t="n">
         <v>3</v>
       </c>
       <c r="N146" s="35" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O146" s="35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P146" s="3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1" s="53">
@@ -15415,31 +15386,27 @@
         <v>30</v>
       </c>
       <c r="H153" s="9" t="n">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I153" s="35" t="n">
-        <v>21</v>
-      </c>
-      <c r="J153" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K153" s="35" t="n">
-        <v>2</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J153" s="9" t="n"/>
+      <c r="K153" s="35" t="n"/>
       <c r="L153" s="35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M153" s="35" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N153" s="35" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O153" s="35" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P153" s="3" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1" s="53">
@@ -15461,27 +15428,27 @@
       </c>
       <c r="G154" s="197" t="n"/>
       <c r="H154" s="9" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I154" s="35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J154" s="9" t="n"/>
       <c r="K154" s="35" t="n"/>
       <c r="L154" s="35" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M154" s="35" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N154" s="35" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O154" s="35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P154" s="3" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1" s="53">
@@ -15569,31 +15536,27 @@
         <v>60</v>
       </c>
       <c r="H157" s="9" t="n">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="I157" s="35" t="n">
-        <v>56</v>
-      </c>
-      <c r="J157" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K157" s="35" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J157" s="9" t="n"/>
+      <c r="K157" s="35" t="n"/>
       <c r="L157" s="35" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M157" s="35" t="n">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="N157" s="35" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="O157" s="35" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="P157" s="3" t="n">
-        <v>0.7678571428571429</v>
+        <v>0.4339622641509434</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1" s="53">
@@ -15615,29 +15578,27 @@
       </c>
       <c r="G158" s="161" t="n"/>
       <c r="H158" s="9" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I158" s="35" t="n">
-        <v>7</v>
-      </c>
-      <c r="J158" s="9" t="n">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J158" s="9" t="n"/>
       <c r="K158" s="35" t="n"/>
       <c r="L158" s="35" t="n">
         <v>2</v>
       </c>
       <c r="M158" s="35" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N158" s="35" t="n">
         <v>8</v>
       </c>
       <c r="O158" s="35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P158" s="3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1" s="53">
@@ -15783,10 +15744,10 @@
       </c>
       <c r="G163" s="35" t="n"/>
       <c r="H163" s="9" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I163" s="35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J163" s="9" t="n"/>
       <c r="K163" s="35" t="n"/>
@@ -15794,15 +15755,11 @@
         <v>1</v>
       </c>
       <c r="M163" s="35" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N163" s="35" t="n"/>
-      <c r="O163" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="P163" s="3" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="O163" s="35" t="n"/>
+      <c r="P163" s="3" t="n"/>
     </row>
     <row r="164" ht="15.75" customHeight="1" s="53">
       <c r="A164" s="193" t="n"/>
@@ -15853,31 +15810,31 @@
       <c r="F165" s="166" t="n"/>
       <c r="G165" s="7" t="n"/>
       <c r="H165" s="7" t="n">
-        <v>551</v>
+        <v>488</v>
       </c>
       <c r="I165" s="7" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J165" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K165" s="7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L165" s="7" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M165" s="7" t="n">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="N165" s="7" t="n">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="O165" s="7" t="n">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="P165" s="39" t="n">
-        <v>0.7264957264957265</v>
+        <v>0.3761467889908257</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" s="53">
@@ -15893,31 +15850,31 @@
       <c r="F166" s="166" t="n"/>
       <c r="G166" s="5" t="n"/>
       <c r="H166" s="5" t="n">
-        <v>733</v>
+        <v>635</v>
       </c>
       <c r="I166" s="5" t="n">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="J166" s="5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K166" s="5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L166" s="5" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M166" s="5" t="n">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="N166" s="5" t="n">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="O166" s="5" t="n">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="P166" s="40" t="n">
-        <v>0.7341040462427746</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1" s="53">
@@ -16377,31 +16334,27 @@
         <v>45</v>
       </c>
       <c r="H180" s="9" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I180" s="35" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J180" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="K180" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L180" s="35" t="n">
-        <v>2</v>
-      </c>
+      <c r="K180" s="35" t="n"/>
+      <c r="L180" s="35" t="n"/>
       <c r="M180" s="35" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N180" s="35" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O180" s="35" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="P180" s="3" t="n">
-        <v>0.7321428571428571</v>
+        <v>0.3859649122807017</v>
       </c>
     </row>
     <row r="181" ht="15.75" customHeight="1" s="53">
@@ -16517,27 +16470,23 @@
         <v>45</v>
       </c>
       <c r="H184" s="9" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I184" s="35" t="n">
-        <v>14</v>
-      </c>
-      <c r="J184" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="K184" s="35" t="n">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J184" s="9" t="n"/>
+      <c r="K184" s="35" t="n"/>
       <c r="L184" s="35" t="n"/>
       <c r="M184" s="35" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N184" s="35" t="n"/>
       <c r="O184" s="35" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P184" s="3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1" s="53">
@@ -16593,26 +16542,22 @@
         <v>20</v>
       </c>
       <c r="H186" s="9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I186" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="J186" s="9" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="J186" s="9" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" s="35" t="n"/>
-      <c r="L186" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L186" s="35" t="n"/>
       <c r="M186" s="35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N186" s="35" t="n"/>
-      <c r="O186" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P186" s="3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O186" s="35" t="n"/>
+      <c r="P186" s="3" t="n"/>
     </row>
     <row r="187" ht="15.75" customHeight="1" s="53">
       <c r="A187" s="193" t="n"/>
@@ -16719,31 +16664,31 @@
       <c r="F190" s="166" t="n"/>
       <c r="G190" s="7" t="n"/>
       <c r="H190" s="4" t="n">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="I190" s="4" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J190" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K190" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L190" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M190" s="4" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N190" s="4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O190" s="4" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P190" s="39" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.4133333333333333</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1" s="53">
@@ -16759,31 +16704,31 @@
       <c r="F191" s="166" t="n"/>
       <c r="G191" s="38" t="n"/>
       <c r="H191" s="5" t="n">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="I191" s="5" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J191" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K191" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L191" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M191" s="5" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N191" s="5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O191" s="5" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="P191" s="40" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.4133333333333333</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" s="53">
@@ -16799,31 +16744,31 @@
       <c r="F192" s="166" t="n"/>
       <c r="G192" s="8" t="n"/>
       <c r="H192" s="8" t="n">
-        <v>1611</v>
+        <v>1297</v>
       </c>
       <c r="I192" s="8" t="n">
-        <v>596</v>
+        <v>489</v>
       </c>
       <c r="J192" s="8" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K192" s="8" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="L192" s="8" t="n">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="M192" s="8" t="n">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="N192" s="8" t="n">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="O192" s="8" t="n">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="P192" s="12" t="n">
-        <v>0.7046979865771812</v>
+        <v>0.3476482617586912</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" s="53">
@@ -17076,7 +17021,29 @@
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="G145:G146"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I52 I54:I71 I73:I120 I122:I123 I126:I143 I145:I164 I167:I174 I176:I189">
+  <conditionalFormatting sqref="I3:I52 I54:I71 I73:I118 I122:I123 I126:I143 I145:I164 I167:I174 I176:I189">
+    <cfRule type="cellIs" priority="6" operator="between" dxfId="2">
+      <formula>10</formula>
+      <formula>100000000</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="between" dxfId="1">
+      <formula>1</formula>
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8" dxfId="0">
+      <formula>AND(I3=0, I3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P118 P121:P1048576">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I119:I120">
     <cfRule type="cellIs" priority="2" operator="between" dxfId="2">
       <formula>10</formula>
       <formula>100000000</formula>
@@ -17086,10 +17053,10 @@
       <formula>9</formula>
     </cfRule>
     <cfRule type="expression" priority="4" dxfId="0">
-      <formula>AND(I3=0, I3&lt;&gt;"")</formula>
+      <formula>AND(I119=0, I119&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
+  <conditionalFormatting sqref="P119:P120">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Signs">
         <cfvo type="percent" val="0"/>
@@ -17111,8 +17078,8 @@
   <dimension ref="A1:P195"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A194" sqref="A194"/>
+      <pane ySplit="2" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G111" sqref="G111:G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -18891,18 +18858,12 @@
         <v>1</v>
       </c>
       <c r="G55" s="161" t="n"/>
-      <c r="H55" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H55" s="9" t="n"/>
+      <c r="I55" s="35" t="n"/>
       <c r="J55" s="9" t="n"/>
       <c r="K55" s="35" t="n"/>
       <c r="L55" s="35" t="n"/>
-      <c r="M55" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M55" s="35" t="n"/>
       <c r="N55" s="35" t="n"/>
       <c r="O55" s="35" t="n"/>
       <c r="P55" s="3" t="n"/>
@@ -19025,12 +18986,8 @@
         <v>1</v>
       </c>
       <c r="G59" s="161" t="n"/>
-      <c r="H59" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H59" s="9" t="n"/>
+      <c r="I59" s="35" t="n"/>
       <c r="J59" s="9" t="n"/>
       <c r="K59" s="35" t="n"/>
       <c r="L59" s="35" t="n"/>
@@ -19129,18 +19086,12 @@
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="H62" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I62" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H62" s="9" t="n"/>
+      <c r="I62" s="35" t="n"/>
       <c r="J62" s="9" t="n"/>
       <c r="K62" s="35" t="n"/>
       <c r="L62" s="35" t="n"/>
-      <c r="M62" s="35" t="n">
-        <v>2</v>
-      </c>
+      <c r="M62" s="35" t="n"/>
       <c r="N62" s="35" t="n"/>
       <c r="O62" s="35" t="n"/>
       <c r="P62" s="3" t="n"/>
@@ -19163,23 +19114,15 @@
         <v>1</v>
       </c>
       <c r="G63" s="161" t="n"/>
-      <c r="H63" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="H63" s="9" t="n"/>
+      <c r="I63" s="35" t="n"/>
       <c r="J63" s="9" t="n"/>
       <c r="K63" s="35" t="n"/>
       <c r="L63" s="35" t="n"/>
       <c r="M63" s="35" t="n"/>
       <c r="N63" s="35" t="n"/>
-      <c r="O63" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="O63" s="35" t="n"/>
+      <c r="P63" s="3" t="n"/>
     </row>
     <row r="64" ht="15.75" customHeight="1" s="53">
       <c r="A64" s="192" t="n"/>
@@ -19207,20 +19150,12 @@
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="H64" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="H64" s="9" t="n"/>
+      <c r="I64" s="35" t="n"/>
+      <c r="J64" s="9" t="n"/>
       <c r="K64" s="35" t="n"/>
       <c r="L64" s="35" t="n"/>
-      <c r="M64" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M64" s="35" t="n"/>
       <c r="N64" s="35" t="n"/>
       <c r="O64" s="35" t="n"/>
       <c r="P64" s="3" t="n"/>
@@ -19243,18 +19178,12 @@
         <v>1</v>
       </c>
       <c r="G65" s="161" t="n"/>
-      <c r="H65" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H65" s="9" t="n"/>
+      <c r="I65" s="35" t="n"/>
       <c r="J65" s="9" t="n"/>
       <c r="K65" s="35" t="n"/>
       <c r="L65" s="35" t="n"/>
-      <c r="M65" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M65" s="35" t="n"/>
       <c r="N65" s="35" t="n"/>
       <c r="O65" s="35" t="n"/>
       <c r="P65" s="3" t="n"/>
@@ -19373,18 +19302,12 @@
         <v>1</v>
       </c>
       <c r="G69" s="161" t="n"/>
-      <c r="H69" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H69" s="9" t="n"/>
+      <c r="I69" s="35" t="n"/>
       <c r="J69" s="9" t="n"/>
       <c r="K69" s="35" t="n"/>
       <c r="L69" s="35" t="n"/>
-      <c r="M69" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M69" s="35" t="n"/>
       <c r="N69" s="35" t="n"/>
       <c r="O69" s="35" t="n"/>
       <c r="P69" s="3" t="n"/>
@@ -19462,13 +19385,13 @@
       <c r="F72" s="166" t="n"/>
       <c r="G72" s="20" t="n"/>
       <c r="H72" s="20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I72" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="20" t="n">
         <v>0</v>
@@ -19477,16 +19400,16 @@
         <v>0</v>
       </c>
       <c r="M72" s="20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N72" s="20" t="n">
         <v>0</v>
       </c>
       <c r="O72" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P72" s="39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1" s="53">
@@ -19907,18 +19830,12 @@
         <v>1</v>
       </c>
       <c r="G86" s="161" t="n"/>
-      <c r="H86" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H86" s="9" t="n"/>
+      <c r="I86" s="35" t="n"/>
       <c r="J86" s="9" t="n"/>
       <c r="K86" s="35" t="n"/>
       <c r="L86" s="35" t="n"/>
-      <c r="M86" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M86" s="35" t="n"/>
       <c r="N86" s="35" t="n"/>
       <c r="O86" s="35" t="n"/>
       <c r="P86" s="3" t="n"/>
@@ -20099,18 +20016,12 @@
         <v>1</v>
       </c>
       <c r="G92" s="161" t="n"/>
-      <c r="H92" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H92" s="9" t="n"/>
+      <c r="I92" s="35" t="n"/>
       <c r="J92" s="9" t="n"/>
       <c r="K92" s="35" t="n"/>
       <c r="L92" s="35" t="n"/>
-      <c r="M92" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M92" s="35" t="n"/>
       <c r="N92" s="35" t="n"/>
       <c r="O92" s="35" t="n"/>
       <c r="P92" s="3" t="n"/>
@@ -20230,10 +20141,10 @@
       </c>
       <c r="G96" s="161" t="n"/>
       <c r="H96" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="9" t="n"/>
       <c r="K96" s="35" t="n"/>
@@ -20329,18 +20240,12 @@
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="H99" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H99" s="9" t="n"/>
+      <c r="I99" s="35" t="n"/>
       <c r="J99" s="9" t="n"/>
       <c r="K99" s="35" t="n"/>
       <c r="L99" s="35" t="n"/>
-      <c r="M99" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M99" s="35" t="n"/>
       <c r="N99" s="35" t="n"/>
       <c r="O99" s="35" t="n"/>
       <c r="P99" s="3" t="n"/>
@@ -20775,15 +20680,9 @@
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="H113" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="H113" s="9" t="n"/>
+      <c r="I113" s="35" t="n"/>
+      <c r="J113" s="9" t="n"/>
       <c r="K113" s="35" t="n"/>
       <c r="L113" s="35" t="n"/>
       <c r="M113" s="35" t="n"/>
@@ -20809,18 +20708,12 @@
         <v>1</v>
       </c>
       <c r="G114" s="161" t="n"/>
-      <c r="H114" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="H114" s="9" t="n"/>
+      <c r="I114" s="35" t="n"/>
       <c r="J114" s="9" t="n"/>
       <c r="K114" s="35" t="n"/>
       <c r="L114" s="35" t="n"/>
-      <c r="M114" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M114" s="35" t="n"/>
       <c r="N114" s="35" t="n"/>
       <c r="O114" s="35" t="n"/>
       <c r="P114" s="3" t="n"/>
@@ -20961,7 +20854,11 @@
           <t>Applied IT Specialist</t>
         </is>
       </c>
-      <c r="D119" s="25" t="n"/>
+      <c r="D119" s="25" t="inlineStr">
+        <is>
+          <t>AITS</t>
+        </is>
+      </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
           <t>Domestic</t>
@@ -20975,12 +20872,20 @@
           <t>Unlimited</t>
         </is>
       </c>
-      <c r="H119" s="9" t="n"/>
-      <c r="I119" s="35" t="n"/>
-      <c r="J119" s="9" t="n"/>
+      <c r="H119" s="9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I119" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" s="9" t="n">
+        <v>3</v>
+      </c>
       <c r="K119" s="35" t="n"/>
       <c r="L119" s="35" t="n"/>
-      <c r="M119" s="35" t="n"/>
+      <c r="M119" s="35" t="n">
+        <v>4</v>
+      </c>
       <c r="N119" s="35" t="n"/>
       <c r="O119" s="35" t="n"/>
       <c r="P119" s="3" t="n"/>
@@ -20989,7 +20894,11 @@
       <c r="A120" s="192" t="n"/>
       <c r="B120" s="193" t="n"/>
       <c r="C120" s="161" t="n"/>
-      <c r="D120" s="25" t="n"/>
+      <c r="D120" s="25" t="inlineStr">
+        <is>
+          <t>AITS</t>
+        </is>
+      </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
           <t>International</t>
@@ -20999,15 +20908,29 @@
         <v>1</v>
       </c>
       <c r="G120" s="161" t="n"/>
-      <c r="H120" s="9" t="n"/>
-      <c r="I120" s="35" t="n"/>
-      <c r="J120" s="9" t="n"/>
+      <c r="H120" s="9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I120" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="J120" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="K120" s="35" t="n"/>
       <c r="L120" s="35" t="n"/>
-      <c r="M120" s="35" t="n"/>
-      <c r="N120" s="35" t="n"/>
-      <c r="O120" s="35" t="n"/>
-      <c r="P120" s="3" t="n"/>
+      <c r="M120" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N120" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P120" s="3" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="121" ht="15.75" customHeight="1" s="53">
       <c r="A121" s="192" t="n"/>
@@ -21022,31 +20945,31 @@
       <c r="F121" s="166" t="n"/>
       <c r="G121" s="7" t="n"/>
       <c r="H121" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="I121" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J121" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K121" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="I121" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M121" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="N121" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" s="39" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1" s="53">
@@ -21170,13 +21093,13 @@
       <c r="F125" s="165" t="n"/>
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="22" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I125" s="22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J125" s="22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K125" s="22" t="n">
         <v>0</v>
@@ -21185,16 +21108,16 @@
         <v>0</v>
       </c>
       <c r="M125" s="22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N125" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125" s="22" t="n">
         <v>1</v>
       </c>
       <c r="P125" s="40" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1" s="53">
@@ -21317,20 +21240,12 @@
         <v>1</v>
       </c>
       <c r="G129" s="197" t="n"/>
-      <c r="H129" s="9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I129" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="H129" s="9" t="n"/>
+      <c r="I129" s="35" t="n"/>
+      <c r="J129" s="9" t="n"/>
       <c r="K129" s="35" t="n"/>
       <c r="L129" s="35" t="n"/>
-      <c r="M129" s="35" t="n">
-        <v>2</v>
-      </c>
+      <c r="M129" s="35" t="n"/>
       <c r="N129" s="35" t="n"/>
       <c r="O129" s="35" t="n"/>
       <c r="P129" s="3" t="n"/>
@@ -21359,22 +21274,12 @@
       <c r="G130" s="204" t="n">
         <v>25</v>
       </c>
-      <c r="H130" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I130" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="H130" s="9" t="n"/>
+      <c r="I130" s="35" t="n"/>
+      <c r="J130" s="9" t="n"/>
       <c r="K130" s="35" t="n"/>
-      <c r="L130" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="L130" s="35" t="n"/>
+      <c r="M130" s="35" t="n"/>
       <c r="N130" s="35" t="n"/>
       <c r="O130" s="35" t="n"/>
       <c r="P130" s="3" t="n"/>
@@ -21397,23 +21302,13 @@
         <v>1</v>
       </c>
       <c r="G131" s="164" t="n"/>
-      <c r="H131" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I131" s="35" t="n">
-        <v>8</v>
-      </c>
-      <c r="J131" s="9" t="n">
-        <v>3</v>
-      </c>
+      <c r="H131" s="9" t="n"/>
+      <c r="I131" s="35" t="n"/>
+      <c r="J131" s="9" t="n"/>
       <c r="K131" s="35" t="n"/>
       <c r="L131" s="35" t="n"/>
-      <c r="M131" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="N131" s="35" t="n">
-        <v>5</v>
-      </c>
+      <c r="M131" s="35" t="n"/>
+      <c r="N131" s="35" t="n"/>
       <c r="O131" s="35" t="n"/>
       <c r="P131" s="3" t="n"/>
     </row>
@@ -21498,24 +21393,18 @@
       </c>
       <c r="G134" s="36" t="n"/>
       <c r="H134" s="9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I134" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" s="9" t="n"/>
       <c r="K134" s="35" t="n"/>
       <c r="L134" s="35" t="n"/>
-      <c r="M134" s="35" t="n">
-        <v>1</v>
-      </c>
+      <c r="M134" s="35" t="n"/>
       <c r="N134" s="35" t="n"/>
-      <c r="O134" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P134" s="3" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="O134" s="35" t="n"/>
+      <c r="P134" s="3" t="n"/>
     </row>
     <row r="135" ht="15.75" customHeight="1" s="53">
       <c r="A135" s="193" t="n"/>
@@ -21536,18 +21425,16 @@
       </c>
       <c r="G135" s="161" t="n"/>
       <c r="H135" s="9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I135" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" s="9" t="n"/>
-      <c r="K135" s="35" t="n">
-        <v>6</v>
-      </c>
-      <c r="L135" s="35" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J135" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K135" s="35" t="n"/>
+      <c r="L135" s="35" t="n"/>
       <c r="M135" s="35" t="n"/>
       <c r="N135" s="35" t="n"/>
       <c r="O135" s="35" t="n"/>
@@ -21806,31 +21693,31 @@
       <c r="F144" s="166" t="n"/>
       <c r="G144" s="6" t="n"/>
       <c r="H144" s="7" t="n">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="I144" s="7" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J144" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K144" s="7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L144" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M144" s="7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N144" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O144" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P144" s="39" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1" s="53">
@@ -21861,20 +21748,12 @@
       <c r="G145" s="206" t="n">
         <v>18</v>
       </c>
-      <c r="H145" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="I145" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J145" s="9" t="n">
-        <v>1</v>
-      </c>
+      <c r="H145" s="9" t="n"/>
+      <c r="I145" s="35" t="n"/>
+      <c r="J145" s="9" t="n"/>
       <c r="K145" s="35" t="n"/>
       <c r="L145" s="35" t="n"/>
-      <c r="M145" s="35" t="n">
-        <v>3</v>
-      </c>
+      <c r="M145" s="35" t="n"/>
       <c r="N145" s="35" t="n"/>
       <c r="O145" s="35" t="n"/>
       <c r="P145" s="3" t="n"/>
@@ -21897,29 +21776,15 @@
         <v>1</v>
       </c>
       <c r="G146" s="195" t="n"/>
-      <c r="H146" s="9" t="n">
-        <v>20</v>
-      </c>
-      <c r="I146" s="35" t="n">
-        <v>6</v>
-      </c>
-      <c r="J146" s="9" t="n">
-        <v>2</v>
-      </c>
+      <c r="H146" s="9" t="n"/>
+      <c r="I146" s="35" t="n"/>
+      <c r="J146" s="9" t="n"/>
       <c r="K146" s="35" t="n"/>
       <c r="L146" s="35" t="n"/>
-      <c r="M146" s="35" t="n">
-        <v>7</v>
-      </c>
-      <c r="N146" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O146" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P146" s="3" t="n">
-        <v>0.1666666666666667</v>
-      </c>
+      <c r="M146" s="35" t="n"/>
+      <c r="N146" s="35" t="n"/>
+      <c r="O146" s="35" t="n"/>
+      <c r="P146" s="3" t="n"/>
     </row>
     <row r="147" ht="15.75" customHeight="1" s="53">
       <c r="A147" s="193" t="n"/>
@@ -22480,13 +22345,13 @@
       <c r="F165" s="166" t="n"/>
       <c r="G165" s="7" t="n"/>
       <c r="H165" s="7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I165" s="7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J165" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K165" s="7" t="n">
         <v>0</v>
@@ -22495,16 +22360,16 @@
         <v>0</v>
       </c>
       <c r="M165" s="7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N165" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O165" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P165" s="39" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" ht="15.75" customHeight="1" s="53">
@@ -22520,31 +22385,31 @@
       <c r="F166" s="166" t="n"/>
       <c r="G166" s="5" t="n"/>
       <c r="H166" s="5" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="I166" s="5" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J166" s="5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K166" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L166" s="5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M166" s="5" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N166" s="5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O166" s="5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P166" s="40" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" ht="15.75" customHeight="1" s="53">
@@ -22995,27 +22860,15 @@
       <c r="G180" s="35" t="n">
         <v>45</v>
       </c>
-      <c r="H180" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I180" s="35" t="n">
-        <v>12</v>
-      </c>
-      <c r="J180" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="H180" s="9" t="n"/>
+      <c r="I180" s="35" t="n"/>
+      <c r="J180" s="9" t="n"/>
       <c r="K180" s="35" t="n"/>
       <c r="L180" s="35" t="n"/>
-      <c r="M180" s="35" t="n">
-        <v>6</v>
-      </c>
+      <c r="M180" s="35" t="n"/>
       <c r="N180" s="35" t="n"/>
-      <c r="O180" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="P180" s="3" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="O180" s="35" t="n"/>
+      <c r="P180" s="3" t="n"/>
     </row>
     <row r="181" ht="15.75" customHeight="1" s="53">
       <c r="A181" s="193" t="n"/>
@@ -23130,7 +22983,7 @@
         <v>45</v>
       </c>
       <c r="H184" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I184" s="35" t="n">
         <v>0</v>
@@ -23139,7 +22992,7 @@
       <c r="K184" s="35" t="n"/>
       <c r="L184" s="35" t="n"/>
       <c r="M184" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N184" s="35" t="n"/>
       <c r="O184" s="35" t="n"/>
@@ -23306,13 +23159,13 @@
       <c r="F190" s="166" t="n"/>
       <c r="G190" s="7" t="n"/>
       <c r="H190" s="4" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I190" s="4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J190" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K190" s="4" t="n">
         <v>0</v>
@@ -23321,16 +23174,16 @@
         <v>0</v>
       </c>
       <c r="M190" s="4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N190" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O190" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P190" s="39" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1" s="53">
@@ -23346,13 +23199,13 @@
       <c r="F191" s="166" t="n"/>
       <c r="G191" s="38" t="n"/>
       <c r="H191" s="5" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I191" s="5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J191" s="5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K191" s="5" t="n">
         <v>0</v>
@@ -23361,16 +23214,16 @@
         <v>0</v>
       </c>
       <c r="M191" s="5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N191" s="5" t="n">
         <v>0</v>
       </c>
       <c r="O191" s="5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P191" s="40" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1" s="53">
@@ -23386,31 +23239,31 @@
       <c r="F192" s="166" t="n"/>
       <c r="G192" s="8" t="n"/>
       <c r="H192" s="8" t="n">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="I192" s="8" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J192" s="8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K192" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L192" s="8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M192" s="8" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="N192" s="8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O192" s="8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P192" s="12" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1" s="53">
@@ -23697,9 +23550,9 @@
   </sheetPr>
   <dimension ref="A1:P195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C200" sqref="C200"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -25707,10 +25560,10 @@
         </is>
       </c>
       <c r="H62" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="9" t="n"/>
       <c r="K62" s="35" t="n"/>
@@ -26009,10 +25862,10 @@
       <c r="F72" s="166" t="n"/>
       <c r="G72" s="20" t="n"/>
       <c r="H72" s="20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="20" t="n">
         <v>0</v>
@@ -27474,7 +27327,11 @@
           <t>Applied IT Specialist</t>
         </is>
       </c>
-      <c r="D119" s="25" t="n"/>
+      <c r="D119" s="25" t="inlineStr">
+        <is>
+          <t>AITS</t>
+        </is>
+      </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
           <t>Domestic</t>
@@ -27502,7 +27359,11 @@
       <c r="A120" s="192" t="n"/>
       <c r="B120" s="193" t="n"/>
       <c r="C120" s="161" t="n"/>
-      <c r="D120" s="25" t="n"/>
+      <c r="D120" s="25" t="inlineStr">
+        <is>
+          <t>AITS</t>
+        </is>
+      </c>
       <c r="E120" s="2" t="inlineStr">
         <is>
           <t>International</t>
@@ -27683,10 +27544,10 @@
       <c r="F125" s="165" t="n"/>
       <c r="G125" s="21" t="n"/>
       <c r="H125" s="22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="22" t="n">
         <v>0</v>
@@ -29813,10 +29674,10 @@
       <c r="F192" s="166" t="n"/>
       <c r="G192" s="8" t="n"/>
       <c r="H192" s="8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" s="8" t="n">
         <v>0</v>
@@ -30090,7 +29951,29 @@
     <mergeCell ref="C147:C148"/>
     <mergeCell ref="G145:G146"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I52 I54:I71 I73:I120 I122:I123 I126:I143 I145:I164 I167:I174 I176:I189">
+  <conditionalFormatting sqref="I3:I52 I54:I71 I73:I118 I122:I123 I126:I143 I145:I164 I167:I174 I176:I189">
+    <cfRule type="cellIs" priority="6" operator="between" dxfId="2">
+      <formula>10</formula>
+      <formula>100000000</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="between" dxfId="1">
+      <formula>1</formula>
+      <formula>9</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8" dxfId="0">
+      <formula>AND(I3=0, I3&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P118 P121:P1048576">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Signs">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.6"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I119:I120">
     <cfRule type="cellIs" priority="2" operator="between" dxfId="2">
       <formula>10</formula>
       <formula>100000000</formula>
@@ -30100,10 +29983,10 @@
       <formula>9</formula>
     </cfRule>
     <cfRule type="expression" priority="4" dxfId="0">
-      <formula>AND(I3=0, I3&lt;&gt;"")</formula>
+      <formula>AND(I119=0, I119&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
+  <conditionalFormatting sqref="P119:P120">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Signs">
         <cfvo type="percent" val="0"/>
